--- a/personal-logs/ryan-koenig/WorkLog_rk.xlsx
+++ b/personal-logs/ryan-koenig/WorkLog_rk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\DataScience\Data599\w2020-data599-capstone-projects-ubc-udl\personal-logs\ryan-koenig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CAF2BE-8304-4063-84BB-D4834BF085FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC937F5-8B92-4BE3-BF23-19F63C7F2956}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Week 1" sheetId="10" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 1'!$A$1:$D$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 1'!$A$1:$D$56</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -116,6 +116,30 @@
   </si>
   <si>
     <t>Proposal work</t>
+  </si>
+  <si>
+    <t>Client Meeting</t>
+  </si>
+  <si>
+    <t>Proposal Editing</t>
+  </si>
+  <si>
+    <t>Internal meeting</t>
+  </si>
+  <si>
+    <t>Proposal Schematic Design</t>
+  </si>
+  <si>
+    <t>Client Meeting Sprint Meeting</t>
+  </si>
+  <si>
+    <t>Post-Client Meeting</t>
+  </si>
+  <si>
+    <t>Internal Meetins</t>
+  </si>
+  <si>
+    <t>Internal Meeting</t>
   </si>
 </sst>
 </file>
@@ -1450,10 +1474,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1693,176 +1717,255 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="20"/>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
+      <c r="D28">
+        <f>SUM(C22:C28)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="20"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29">
-        <f>SUM(C22:C29)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="33">
+      <c r="A29" s="33">
         <f>A21+1</f>
         <v>44321</v>
       </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="31"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="31"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="25">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
+      <c r="A31" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
+      <c r="A32" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="25">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
+      <c r="A33" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="20"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34">
+        <f>SUM(C30:C34)</f>
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="33">
+        <f>A29+1</f>
+        <v>44322</v>
+      </c>
+      <c r="B35" s="34"/>
+      <c r="C35" s="31"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
+      <c r="A36" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="19"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
+      <c r="A37" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
+      <c r="A38" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="20"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40">
-        <f>SUM(C31:C40)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="33">
-        <f>A30+1</f>
-        <v>44322</v>
-      </c>
-      <c r="B41" s="34"/>
-      <c r="C41" s="31"/>
+      <c r="A39" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="25">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
+      <c r="A42" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="26">
+        <v>2</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="18"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="20"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45">
+        <f>SUM(C36:C45)</f>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="33">
+        <f>A35+1</f>
+        <v>44323</v>
+      </c>
+      <c r="B46" s="34"/>
+      <c r="C46" s="31"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="18"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
+      <c r="A47" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="19"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="20"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="20"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="20"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51">
-        <f>SUM(C42:C51)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="33">
-        <f>A41+1</f>
-        <v>44323</v>
-      </c>
-      <c r="B52" s="34"/>
-      <c r="C52" s="31"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="18"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="18"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="18"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="18"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="18"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="18"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="18"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="20"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56">
+        <f>SUM(C47:C56)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="33">
+        <f>A46+1</f>
+        <v>44324</v>
+      </c>
+      <c r="B57" s="34"/>
+      <c r="C57" s="31"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="18"/>
@@ -1870,61 +1973,61 @@
       <c r="C58" s="25"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="19"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="20"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
+      <c r="A60" s="18"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="20"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="20"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62">
-        <f>SUM(C53:C62)</f>
+      <c r="A61" s="18"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="18"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="18"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="19"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="26"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="20"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="20"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="20"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67">
+        <f>SUM(C58:C67)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="33">
-        <f>A52+1</f>
-        <v>44324</v>
-      </c>
-      <c r="B63" s="34"/>
-      <c r="C63" s="31"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="18"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="18"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="18"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="18"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="18"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
+    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="33">
+        <f>A57+1</f>
+        <v>44325</v>
+      </c>
+      <c r="B68" s="34"/>
+      <c r="C68" s="31"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="18"/>
@@ -1932,292 +2035,255 @@
       <c r="C69" s="25"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="19"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
+      <c r="A70" s="18"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="20"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
+      <c r="A71" s="18"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="20"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="20"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73">
-        <f>SUM(C64:C73)</f>
+      <c r="A72" s="18"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="18"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="18"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="19"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="20"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="20"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="20"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78">
+        <f>SUM(C69:C78)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="33">
-        <f>A63+1</f>
-        <v>44325</v>
-      </c>
-      <c r="B74" s="34"/>
-      <c r="C74" s="31"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="18"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="18"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="18"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="18"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
-    </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="18"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="25"/>
+      <c r="A79" s="21"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="18"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="25"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="19"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="20"/>
-      <c r="B82" s="27"/>
-      <c r="C82" s="27"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="20"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="27"/>
+      <c r="A80" s="10"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="12"/>
+    </row>
+    <row r="81" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" s="17"/>
+      <c r="C81" s="32">
+        <f>SUM(C14:C78)</f>
+        <v>26</v>
+      </c>
+      <c r="D81" s="13"/>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="9"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+    </row>
+    <row r="83" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A83" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="28"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="11"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="20"/>
-      <c r="B84" s="27"/>
-      <c r="C84" s="27"/>
-      <c r="D84">
-        <f>SUM(C75:C84)</f>
-        <v>0</v>
-      </c>
+      <c r="A84" s="22"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="30"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="21"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="21"/>
+      <c r="A85" s="22"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="30"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="10"/>
-      <c r="B86" s="28"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="12"/>
-    </row>
-    <row r="87" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B87" s="17"/>
-      <c r="C87" s="32">
-        <f>SUM(C14:C84)</f>
-        <v>12</v>
-      </c>
-      <c r="D87" s="13"/>
-    </row>
-    <row r="88" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="9"/>
-      <c r="B88" s="29"/>
-      <c r="C88" s="29"/>
+      <c r="A86" s="9"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="23"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="23"/>
     </row>
     <row r="89" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A89" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89" s="28"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="11"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="22"/>
-      <c r="B90" s="30"/>
-      <c r="C90" s="30"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="22"/>
-      <c r="B91" s="30"/>
-      <c r="C91" s="30"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="9"/>
-      <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="23"/>
-      <c r="B93" s="23"/>
-      <c r="C93" s="23"/>
-    </row>
-    <row r="95" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A95" s="11"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
+      <c r="A89" s="11"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A57:B57"/>
   </mergeCells>
-  <conditionalFormatting sqref="A14 A15:C20 A22:C29">
-    <cfRule type="expression" dxfId="26" priority="69" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31:C40">
-    <cfRule type="expression" dxfId="25" priority="30" stopIfTrue="1">
+  <conditionalFormatting sqref="A14 A15:C20 A30:C34 A22:C28">
+    <cfRule type="expression" dxfId="26" priority="71" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="24" priority="43" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42:B51">
+    <cfRule type="expression" dxfId="25" priority="45" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36:B45">
+    <cfRule type="expression" dxfId="24" priority="29" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36:C45">
     <cfRule type="expression" dxfId="23" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42:C51">
-    <cfRule type="expression" dxfId="22" priority="25" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31:C36">
-    <cfRule type="expression" dxfId="21" priority="29" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42:C47">
-    <cfRule type="expression" dxfId="20" priority="24" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31:B40">
-    <cfRule type="expression" dxfId="19" priority="32" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31:B36">
-    <cfRule type="expression" dxfId="18" priority="31" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42:B47">
-    <cfRule type="expression" dxfId="17" priority="26" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:C58">
-    <cfRule type="expression" dxfId="16" priority="19" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:C62">
-    <cfRule type="expression" dxfId="15" priority="20" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:B62">
-    <cfRule type="expression" dxfId="14" priority="22" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:B58">
-    <cfRule type="expression" dxfId="13" priority="21" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:B73">
-    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:B69">
-    <cfRule type="expression" dxfId="11" priority="14" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64:C69">
-    <cfRule type="expression" dxfId="10" priority="12" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64:C73">
-    <cfRule type="expression" dxfId="9" priority="13" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="expression" dxfId="8" priority="3" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75:B84">
+  <conditionalFormatting sqref="C30:C33">
+    <cfRule type="expression" dxfId="22" priority="31" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36:C41">
+    <cfRule type="expression" dxfId="21" priority="26" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:B33">
+    <cfRule type="expression" dxfId="20" priority="33" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36:B41">
+    <cfRule type="expression" dxfId="19" priority="28" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47:C52">
+    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47:C56">
+    <cfRule type="expression" dxfId="17" priority="22" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:B56 A47">
+    <cfRule type="expression" dxfId="16" priority="24" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:B52 A47">
+    <cfRule type="expression" dxfId="15" priority="23" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:B67">
+    <cfRule type="expression" dxfId="14" priority="17" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:B63">
+    <cfRule type="expression" dxfId="13" priority="16" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58:C63">
+    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58:C67">
+    <cfRule type="expression" dxfId="11" priority="15" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46">
+    <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:B78">
+    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C69:C74">
+    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C69:C78">
     <cfRule type="expression" dxfId="7" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C75:C80">
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C75:C84">
-    <cfRule type="expression" dxfId="5" priority="8" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75:B80">
-    <cfRule type="expression" dxfId="4" priority="9" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41">
-    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63">
+  <conditionalFormatting sqref="A69:B74">
+    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A74">
+  <conditionalFormatting sqref="B47">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/personal-logs/ryan-koenig/WorkLog_rk.xlsx
+++ b/personal-logs/ryan-koenig/WorkLog_rk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\DataScience\Data599\w2020-data599-capstone-projects-ubc-udl\personal-logs\ryan-koenig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC937F5-8B92-4BE3-BF23-19F63C7F2956}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E7663D-A606-444B-AA01-4953CE517A4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>Internal Meeting</t>
+  </si>
+  <si>
+    <t>Proposal Figure Updates</t>
   </si>
 </sst>
 </file>
@@ -1476,8 +1479,8 @@
   </sheetPr>
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1968,9 +1971,15 @@
       <c r="C57" s="31"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="18"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
+      <c r="A58" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="18"/>
@@ -2018,7 +2027,7 @@
       <c r="C67" s="27"/>
       <c r="D67">
         <f>SUM(C58:C67)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2101,7 +2110,7 @@
       <c r="B81" s="17"/>
       <c r="C81" s="32">
         <f>SUM(C14:C78)</f>
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="D81" s="13"/>
     </row>

--- a/personal-logs/ryan-koenig/WorkLog_rk.xlsx
+++ b/personal-logs/ryan-koenig/WorkLog_rk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\DataScience\Data599\w2020-data599-capstone-projects-ubc-udl\personal-logs\ryan-koenig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E7663D-A606-444B-AA01-4953CE517A4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA8D5DA-77EF-4B3F-B8ED-D82B5568AAB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Proposal Figure Updates</t>
+  </si>
+  <si>
+    <t>EDA Research and Design</t>
   </si>
 </sst>
 </file>
@@ -1479,8 +1482,8 @@
   </sheetPr>
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2039,14 +2042,26 @@
       <c r="C68" s="31"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="18"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
+      <c r="A69" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="18"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
+      <c r="A70" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="18"/>
@@ -2089,7 +2104,7 @@
       <c r="C78" s="27"/>
       <c r="D78">
         <f>SUM(C69:C78)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2110,7 +2125,7 @@
       <c r="B81" s="17"/>
       <c r="C81" s="32">
         <f>SUM(C14:C78)</f>
-        <v>26.5</v>
+        <v>29</v>
       </c>
       <c r="D81" s="13"/>
     </row>

--- a/personal-logs/ryan-koenig/WorkLog_rk.xlsx
+++ b/personal-logs/ryan-koenig/WorkLog_rk.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\DataScience\Data599\w2020-data599-capstone-projects-ubc-udl\personal-logs\ryan-koenig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA8D5DA-77EF-4B3F-B8ED-D82B5568AAB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B39436F-C7B4-428F-995C-3B4F709444C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="10" r:id="rId1"/>
+    <sheet name="Week 2" sheetId="11" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 1'!$A$1:$D$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 2'!$A$1:$D$57</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="43">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -146,6 +148,24 @@
   </si>
   <si>
     <t>EDA Research and Design</t>
+  </si>
+  <si>
+    <t>EDA Investigation</t>
+  </si>
+  <si>
+    <t>Internal morning meeting</t>
+  </si>
+  <si>
+    <t>Influxdb and Telegraf install</t>
+  </si>
+  <si>
+    <t>Software Setup</t>
+  </si>
+  <si>
+    <t>Influxdb and Telegraf setup</t>
+  </si>
+  <si>
+    <t>Proposal Presentation Preperation</t>
   </si>
 </sst>
 </file>
@@ -914,7 +934,196 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="42" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="54">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1482,8 +1691,8 @@
   </sheetPr>
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2060,7 +2269,7 @@
         <v>17</v>
       </c>
       <c r="C70" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -2104,7 +2313,7 @@
       <c r="C78" s="27"/>
       <c r="D78">
         <f>SUM(C69:C78)</f>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2125,7 +2334,7 @@
       <c r="B81" s="17"/>
       <c r="C81" s="32">
         <f>SUM(C14:C78)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D81" s="13"/>
     </row>
@@ -2178,136 +2387,883 @@
     <mergeCell ref="A57:B57"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A15:C20 A30:C34 A22:C28">
-    <cfRule type="expression" dxfId="26" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="71" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="25" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B45">
-    <cfRule type="expression" dxfId="24" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C45">
-    <cfRule type="expression" dxfId="23" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C33">
-    <cfRule type="expression" dxfId="22" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C41">
-    <cfRule type="expression" dxfId="21" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B33">
-    <cfRule type="expression" dxfId="20" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B41">
-    <cfRule type="expression" dxfId="19" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C52">
-    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C56">
-    <cfRule type="expression" dxfId="17" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B56 A47">
-    <cfRule type="expression" dxfId="16" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B52 A47">
-    <cfRule type="expression" dxfId="15" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:B67">
-    <cfRule type="expression" dxfId="14" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:B63">
-    <cfRule type="expression" dxfId="13" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C63">
-    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C67">
-    <cfRule type="expression" dxfId="11" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
+    <cfRule type="expression" dxfId="37" priority="5" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:B78">
+    <cfRule type="expression" dxfId="36" priority="12" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C69:C74">
+    <cfRule type="expression" dxfId="35" priority="9" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C69:C78">
+    <cfRule type="expression" dxfId="34" priority="10" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:B74">
+    <cfRule type="expression" dxfId="33" priority="11" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="expression" dxfId="32" priority="7" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="expression" dxfId="31" priority="6" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57">
+    <cfRule type="expression" dxfId="30" priority="4" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68">
+    <cfRule type="expression" dxfId="29" priority="3" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
+    <cfRule type="expression" dxfId="28" priority="2" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
+    <cfRule type="expression" dxfId="27" priority="1" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.25"/>
+  <pageSetup scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0713131-517E-4546-9DC0-0C99FCE341D5}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D90"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="70.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="2">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+    </row>
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="33">
+        <f>D3</f>
+        <v>44326</v>
+      </c>
+      <c r="B14" s="34"/>
+      <c r="C14" s="31"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="20"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21">
+        <f>SUM(C15:C21)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="33">
+        <f>A14+1</f>
+        <v>44327</v>
+      </c>
+      <c r="B22" s="34"/>
+      <c r="C22" s="31"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="18"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="18"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="19"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="20"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29">
+        <f>SUM(C23:C29)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="33">
+        <f>A22+1</f>
+        <v>44328</v>
+      </c>
+      <c r="B30" s="34"/>
+      <c r="C30" s="31"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="18"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="18"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="18"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="18"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="20"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35">
+        <f>SUM(C31:C35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="33">
+        <f>A30+1</f>
+        <v>44329</v>
+      </c>
+      <c r="B36" s="34"/>
+      <c r="C36" s="31"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="18"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="18"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="18"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="18"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="18"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="18"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="19"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="20"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="20"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="20"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46">
+        <f>SUM(C37:C46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="33">
+        <f>A36+1</f>
+        <v>44330</v>
+      </c>
+      <c r="B47" s="34"/>
+      <c r="C47" s="31"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="18"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="18"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="18"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="18"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="18"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="18"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="19"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="20"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="20"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="20"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57">
+        <f>SUM(C48:C57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="33">
+        <f>A47+1</f>
+        <v>44331</v>
+      </c>
+      <c r="B58" s="34"/>
+      <c r="C58" s="31"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="18"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="18"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="18"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="18"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="18"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="18"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="19"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="20"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="20"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="20"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+      <c r="D68">
+        <f>SUM(C59:C68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="33">
+        <f>A58+1</f>
+        <v>44332</v>
+      </c>
+      <c r="B69" s="34"/>
+      <c r="C69" s="31"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="18"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="18"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="18"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="18"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="18"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="18"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="19"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="20"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="20"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="20"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+      <c r="D79">
+        <f>SUM(C70:C79)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="21"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="21"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="10"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="12"/>
+    </row>
+    <row r="82" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="17"/>
+      <c r="C82" s="32">
+        <f>SUM(C14:C79)</f>
+        <v>11</v>
+      </c>
+      <c r="D82" s="13"/>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="9"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+    </row>
+    <row r="84" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A84" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="28"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="11"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="22"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="30"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="22"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="30"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="9"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="23"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="23"/>
+    </row>
+    <row r="90" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A58:B58"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A14 A31:C35 A15:C21 A23:C29">
+    <cfRule type="expression" dxfId="26" priority="27" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:B46">
+    <cfRule type="expression" dxfId="24" priority="23" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:C46">
+    <cfRule type="expression" dxfId="23" priority="21" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:C34">
+    <cfRule type="expression" dxfId="22" priority="24" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:C42">
+    <cfRule type="expression" dxfId="21" priority="20" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:B34">
+    <cfRule type="expression" dxfId="20" priority="25" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:B42">
+    <cfRule type="expression" dxfId="19" priority="22" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:C53">
+    <cfRule type="expression" dxfId="18" priority="16" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:C57">
+    <cfRule type="expression" dxfId="17" priority="17" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49:B57 A48">
+    <cfRule type="expression" dxfId="16" priority="19" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49:B53 A48">
+    <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:B68">
+    <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:B64">
+    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59:C64">
+    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59:C68">
+    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
     <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69:B78">
-    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C69:C74">
-    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C69:C78">
-    <cfRule type="expression" dxfId="7" priority="10" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69:B74">
-    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
+  <conditionalFormatting sqref="A70:B79">
+    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C70:C75">
+    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C70:C79">
+    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70:B75">
+    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30">
     <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
+  <conditionalFormatting sqref="A36">
     <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57">
+  <conditionalFormatting sqref="A58">
     <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A68">
+  <conditionalFormatting sqref="A69">
     <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
+  <conditionalFormatting sqref="B48">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
+  <conditionalFormatting sqref="B48">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/personal-logs/ryan-koenig/WorkLog_rk.xlsx
+++ b/personal-logs/ryan-koenig/WorkLog_rk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\DataScience\Data599\w2020-data599-capstone-projects-ubc-udl\personal-logs\ryan-koenig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B39436F-C7B4-428F-995C-3B4F709444C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9DB5B0-089E-4488-A1BF-701C845D867D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="47">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -166,6 +166,18 @@
   </si>
   <si>
     <t>Proposal Presentation Preperation</t>
+  </si>
+  <si>
+    <t>Influxdb Investigation</t>
+  </si>
+  <si>
+    <t>Telegraf Setup</t>
+  </si>
+  <si>
+    <t>Telegraf JSON parsing</t>
+  </si>
+  <si>
+    <t>EDA Prep</t>
   </si>
 </sst>
 </file>
@@ -2535,8 +2547,8 @@
   </sheetPr>
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2755,19 +2767,37 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
+      <c r="A26" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="25">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
+      <c r="A27" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
+      <c r="A28" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="26">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="20"/>
@@ -2775,7 +2805,7 @@
       <c r="C29" s="27"/>
       <c r="D29">
         <f>SUM(C23:C29)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2787,19 +2817,37 @@
       <c r="C30" s="31"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
+      <c r="A31" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
+      <c r="A32" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
+      <c r="A33" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="25">
+        <v>7</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
@@ -2812,7 +2860,7 @@
       <c r="C35" s="27"/>
       <c r="D35">
         <f>SUM(C31:C35)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2824,29 +2872,59 @@
       <c r="C36" s="31"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
+      <c r="A37" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="A38" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
+      <c r="A39" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="25">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
+      <c r="A40" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="25">
+        <v>3</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
+      <c r="A41" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="25">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="18"/>
@@ -2874,7 +2952,7 @@
       <c r="C46" s="27"/>
       <c r="D46">
         <f>SUM(C37:C46)</f>
-        <v>0</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -3081,7 +3159,7 @@
       <c r="B82" s="17"/>
       <c r="C82" s="32">
         <f>SUM(C14:C79)</f>
-        <v>11</v>
+        <v>33.25</v>
       </c>
       <c r="D82" s="13"/>
     </row>

--- a/personal-logs/ryan-koenig/WorkLog_rk.xlsx
+++ b/personal-logs/ryan-koenig/WorkLog_rk.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\DataScience\Data599\w2020-data599-capstone-projects-ubc-udl\personal-logs\ryan-koenig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9DB5B0-089E-4488-A1BF-701C845D867D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C58D2AA-4742-4B61-83F7-024F2AC7DCAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="10" r:id="rId1"/>
     <sheet name="Week 2" sheetId="11" r:id="rId2"/>
+    <sheet name="Week 3" sheetId="12" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 1'!$A$1:$D$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 2'!$A$1:$D$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Week 3'!$A$1:$D$58</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="51">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -178,6 +180,18 @@
   </si>
   <si>
     <t>EDA Prep</t>
+  </si>
+  <si>
+    <t>Telegraf Finalizing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Documents </t>
+  </si>
+  <si>
+    <t>Telegraf Debugging</t>
+  </si>
+  <si>
+    <t>EDA Work</t>
   </si>
 </sst>
 </file>
@@ -946,7 +960,196 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="42" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="81">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2399,137 +2602,137 @@
     <mergeCell ref="A57:B57"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A15:C20 A30:C34 A22:C28">
-    <cfRule type="expression" dxfId="53" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="71" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="52" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B45">
-    <cfRule type="expression" dxfId="51" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C45">
-    <cfRule type="expression" dxfId="50" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C33">
-    <cfRule type="expression" dxfId="49" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C41">
-    <cfRule type="expression" dxfId="48" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B33">
-    <cfRule type="expression" dxfId="47" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B41">
-    <cfRule type="expression" dxfId="46" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C52">
-    <cfRule type="expression" dxfId="45" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C56">
-    <cfRule type="expression" dxfId="44" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B56 A47">
-    <cfRule type="expression" dxfId="43" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B52 A47">
-    <cfRule type="expression" dxfId="42" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:B67">
-    <cfRule type="expression" dxfId="41" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:B63">
-    <cfRule type="expression" dxfId="40" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C63">
-    <cfRule type="expression" dxfId="39" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C67">
-    <cfRule type="expression" dxfId="38" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="expression" dxfId="37" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:B78">
-    <cfRule type="expression" dxfId="36" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69:C74">
-    <cfRule type="expression" dxfId="35" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69:C78">
-    <cfRule type="expression" dxfId="34" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:B74">
-    <cfRule type="expression" dxfId="33" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="32" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="31" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="expression" dxfId="30" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="expression" dxfId="29" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="28" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="27" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2547,8 +2750,8 @@
   </sheetPr>
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48"/>
+    <sheetView showGridLines="0" topLeftCell="A58" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2964,19 +3167,37 @@
       <c r="C47" s="31"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="18"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
+      <c r="A48" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="18"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
+      <c r="A49" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="25">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="18"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
+      <c r="A50" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="25">
+        <v>3</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="18"/>
@@ -3014,7 +3235,7 @@
       <c r="C57" s="27"/>
       <c r="D57">
         <f>SUM(C48:C57)</f>
-        <v>0</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -3026,9 +3247,15 @@
       <c r="C58" s="31"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="18"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
+      <c r="A59" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="25">
+        <v>3</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="18"/>
@@ -3076,7 +3303,7 @@
       <c r="C68" s="27"/>
       <c r="D68">
         <f>SUM(C59:C68)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -3088,9 +3315,15 @@
       <c r="C69" s="31"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="18"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
+      <c r="A70" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" s="25">
+        <v>5</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="18"/>
@@ -3138,7 +3371,7 @@
       <c r="C79" s="27"/>
       <c r="D79">
         <f>SUM(C70:C79)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -3159,7 +3392,7 @@
       <c r="B82" s="17"/>
       <c r="C82" s="32">
         <f>SUM(C14:C79)</f>
-        <v>33.25</v>
+        <v>46.5</v>
       </c>
       <c r="D82" s="13"/>
     </row>
@@ -3212,136 +3445,876 @@
     <mergeCell ref="A58:B58"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A31:C35 A15:C21 A23:C29">
+    <cfRule type="expression" dxfId="53" priority="27" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="expression" dxfId="52" priority="26" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:B46">
+    <cfRule type="expression" dxfId="51" priority="23" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:C46">
+    <cfRule type="expression" dxfId="50" priority="21" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:C34">
+    <cfRule type="expression" dxfId="49" priority="24" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:C42">
+    <cfRule type="expression" dxfId="48" priority="20" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:B34">
+    <cfRule type="expression" dxfId="47" priority="25" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:B42">
+    <cfRule type="expression" dxfId="46" priority="22" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:C53">
+    <cfRule type="expression" dxfId="45" priority="16" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:C57">
+    <cfRule type="expression" dxfId="44" priority="17" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49:B57 A48">
+    <cfRule type="expression" dxfId="43" priority="19" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49:B53 A48">
+    <cfRule type="expression" dxfId="42" priority="18" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:B68">
+    <cfRule type="expression" dxfId="41" priority="15" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:B64">
+    <cfRule type="expression" dxfId="40" priority="14" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59:C64">
+    <cfRule type="expression" dxfId="39" priority="12" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59:C68">
+    <cfRule type="expression" dxfId="38" priority="13" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="expression" dxfId="37" priority="5" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70:B79">
+    <cfRule type="expression" dxfId="36" priority="11" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C70:C75">
+    <cfRule type="expression" dxfId="35" priority="8" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C70:C79">
+    <cfRule type="expression" dxfId="34" priority="9" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70:B75">
+    <cfRule type="expression" dxfId="33" priority="10" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="expression" dxfId="32" priority="7" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="expression" dxfId="31" priority="6" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58">
+    <cfRule type="expression" dxfId="30" priority="4" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="expression" dxfId="29" priority="3" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48">
+    <cfRule type="expression" dxfId="28" priority="2" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48">
+    <cfRule type="expression" dxfId="27" priority="1" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.25"/>
+  <pageSetup scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED696A20-CBEE-4FBB-BAA9-1EA57B348C85}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D91"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="70.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="2">
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+    </row>
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="33">
+        <f>D3</f>
+        <v>44333</v>
+      </c>
+      <c r="B14" s="34"/>
+      <c r="C14" s="31"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="20"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22">
+        <f>SUM(C15:C22)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="33">
+        <f>A14+1</f>
+        <v>44334</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="31"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="18"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="18"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="18"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="18"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="18"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="19"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="20"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30">
+        <f>SUM(C24:C30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="33">
+        <f>A23+1</f>
+        <v>44335</v>
+      </c>
+      <c r="B31" s="34"/>
+      <c r="C31" s="31"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="18"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="18"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="18"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="18"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="20"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36">
+        <f>SUM(C32:C36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="33">
+        <f>A31+1</f>
+        <v>44336</v>
+      </c>
+      <c r="B37" s="34"/>
+      <c r="C37" s="31"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="18"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="18"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="18"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="18"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="18"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="18"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="19"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="20"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="20"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="20"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47">
+        <f>SUM(C38:C47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="33">
+        <f>A37+1</f>
+        <v>44337</v>
+      </c>
+      <c r="B48" s="34"/>
+      <c r="C48" s="31"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="18"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="18"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="18"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="18"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="18"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="18"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="19"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="20"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="20"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="20"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58">
+        <f>SUM(C49:C58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="33">
+        <f>A48+1</f>
+        <v>44338</v>
+      </c>
+      <c r="B59" s="34"/>
+      <c r="C59" s="31"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="18"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="18"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="18"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="18"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="18"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="18"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="19"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="20"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="20"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="20"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+      <c r="D69">
+        <f>SUM(C60:C69)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="33">
+        <f>A59+1</f>
+        <v>44339</v>
+      </c>
+      <c r="B70" s="34"/>
+      <c r="C70" s="31"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="18"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="18"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="18"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="18"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="18"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="18"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="19"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="20"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="20"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="20"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80">
+        <f>SUM(C71:C80)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="10"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="12"/>
+    </row>
+    <row r="83" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="17"/>
+      <c r="C83" s="32">
+        <f>SUM(C14:C80)</f>
+        <v>9</v>
+      </c>
+      <c r="D83" s="13"/>
+    </row>
+    <row r="84" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="9"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="29"/>
+    </row>
+    <row r="85" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A85" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="28"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="11"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="22"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="30"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="22"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="30"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="9"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="23"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="23"/>
+    </row>
+    <row r="91" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A91" s="11"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A59:B59"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A14 A32:C36 A24:C30 A15:C22">
     <cfRule type="expression" dxfId="26" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
+  <conditionalFormatting sqref="A23">
     <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:B46">
+  <conditionalFormatting sqref="A38:B47">
     <cfRule type="expression" dxfId="24" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37:C46">
+  <conditionalFormatting sqref="C38:C47">
     <cfRule type="expression" dxfId="23" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31:C34">
+  <conditionalFormatting sqref="C32:C35">
     <cfRule type="expression" dxfId="22" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37:C42">
+  <conditionalFormatting sqref="C38:C43">
     <cfRule type="expression" dxfId="21" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31:B34">
+  <conditionalFormatting sqref="A32:B35">
     <cfRule type="expression" dxfId="20" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:B42">
+  <conditionalFormatting sqref="A38:B43">
     <cfRule type="expression" dxfId="19" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48:C53">
+  <conditionalFormatting sqref="C49:C54">
     <cfRule type="expression" dxfId="18" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48:C57">
+  <conditionalFormatting sqref="C49:C58">
     <cfRule type="expression" dxfId="17" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A49:B57 A48">
+  <conditionalFormatting sqref="A50:B58 A49">
     <cfRule type="expression" dxfId="16" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A49:B53 A48">
+  <conditionalFormatting sqref="A50:B54 A49">
     <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A59:B68">
+  <conditionalFormatting sqref="A60:B69">
     <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A59:B64">
+  <conditionalFormatting sqref="A60:B65">
     <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C59:C64">
+  <conditionalFormatting sqref="C60:C65">
     <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C59:C68">
+  <conditionalFormatting sqref="C60:C69">
     <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
+  <conditionalFormatting sqref="A48">
     <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70:B79">
+  <conditionalFormatting sqref="A71:B80">
     <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C70:C75">
+  <conditionalFormatting sqref="C71:C76">
     <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C70:C79">
+  <conditionalFormatting sqref="C71:C80">
     <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70:B75">
+  <conditionalFormatting sqref="A71:B76">
     <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
+  <conditionalFormatting sqref="A31">
     <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
+  <conditionalFormatting sqref="A37">
     <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58">
+  <conditionalFormatting sqref="A59">
     <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
+  <conditionalFormatting sqref="A70">
     <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B48">
+  <conditionalFormatting sqref="B49">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B48">
+  <conditionalFormatting sqref="B49">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/personal-logs/ryan-koenig/WorkLog_rk.xlsx
+++ b/personal-logs/ryan-koenig/WorkLog_rk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\DataScience\Data599\w2020-data599-capstone-projects-ubc-udl\personal-logs\ryan-koenig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C58D2AA-4742-4B61-83F7-024F2AC7DCAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6023869C-9065-4584-B733-54C35121DE49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 1'!$A$1:$D$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 2'!$A$1:$D$57</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Week 3'!$A$1:$D$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Week 3'!$A$1:$D$59</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="61">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -192,6 +192,36 @@
   </si>
   <si>
     <t>EDA Work</t>
+  </si>
+  <si>
+    <t>Presentation Work</t>
+  </si>
+  <si>
+    <t>Interal morning meeting</t>
+  </si>
+  <si>
+    <t>Domain Expert Meeting</t>
+  </si>
+  <si>
+    <t>EWS Meeting</t>
+  </si>
+  <si>
+    <t>External Meeting</t>
+  </si>
+  <si>
+    <t>Presentation Prep</t>
+  </si>
+  <si>
+    <t>Week 3 Update Presentation</t>
+  </si>
+  <si>
+    <t>Anomaly Research</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Meeting with Scott</t>
   </si>
 </sst>
 </file>
@@ -1906,8 +1936,8 @@
   </sheetPr>
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2750,8 +2780,8 @@
   </sheetPr>
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A58" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3591,10 +3621,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3791,93 +3821,147 @@
       <c r="C23" s="31"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
+      <c r="A24" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
+      <c r="A25" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
+      <c r="A26" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
+      <c r="A27" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="A28" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="25">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="20"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30">
-        <f>SUM(C24:C30)</f>
-        <v>0</v>
+      <c r="A29" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="26">
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="33">
+      <c r="A31" s="20"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31">
+        <f>SUM(C24:C31)</f>
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="33">
         <f>A23+1</f>
         <v>44335</v>
       </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="31"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="31"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
+      <c r="A33" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
+      <c r="A34" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="18"/>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
     </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="20"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36">
-        <f>SUM(C32:C36)</f>
-        <v>0</v>
-      </c>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="18"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="33">
-        <f>A31+1</f>
+      <c r="A37" s="20"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37">
+        <f>SUM(C33:C37)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="33">
+        <f>A32+1</f>
         <v>44336</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="31"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="31"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="18"/>
@@ -3885,9 +3969,15 @@
       <c r="C39" s="25"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
+      <c r="A40" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="18"/>
@@ -3905,103 +3995,133 @@
       <c r="C43" s="25"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="19"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="20"/>
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
     </row>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="20"/>
       <c r="B47" s="27"/>
       <c r="C47" s="27"/>
-      <c r="D47">
-        <f>SUM(C38:C47)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="33">
-        <f>A37+1</f>
+      <c r="A48" s="20"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48">
+        <f>SUM(C39:C48)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="33">
+        <f>A38+1</f>
         <v>44337</v>
       </c>
-      <c r="B48" s="34"/>
-      <c r="C48" s="31"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="18"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="31"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="18"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
+      <c r="A50" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="25">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="18"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
+      <c r="A51" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="18"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
+      <c r="A52" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="18"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
+      <c r="A53" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="18"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
+      <c r="A54" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="19"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="20"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="20"/>
       <c r="B57" s="27"/>
       <c r="C57" s="27"/>
     </row>
-    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="20"/>
       <c r="B58" s="27"/>
       <c r="C58" s="27"/>
-      <c r="D58">
-        <f>SUM(C49:C58)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="33">
-        <f>A48+1</f>
+      <c r="A59" s="20"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59">
+        <f>SUM(C50:C59)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="33">
+        <f>A49+1</f>
         <v>44338</v>
       </c>
-      <c r="B59" s="34"/>
-      <c r="C59" s="31"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="18"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="31"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="18"/>
@@ -4029,41 +4149,41 @@
       <c r="C65" s="25"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="19"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
+      <c r="A66" s="18"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="20"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="26"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="20"/>
       <c r="B68" s="27"/>
       <c r="C68" s="27"/>
     </row>
-    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="20"/>
       <c r="B69" s="27"/>
       <c r="C69" s="27"/>
-      <c r="D69">
-        <f>SUM(C60:C69)</f>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="20"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="27"/>
+      <c r="D70">
+        <f>SUM(C61:C70)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="33">
-        <f>A59+1</f>
+    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="33">
+        <f>A60+1</f>
         <v>44339</v>
       </c>
-      <c r="B70" s="34"/>
-      <c r="C70" s="31"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="18"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="31"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="18"/>
@@ -4091,14 +4211,14 @@
       <c r="C76" s="25"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="19"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
+      <c r="A77" s="18"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="20"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="27"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="20"/>
@@ -4109,50 +4229,50 @@
       <c r="A80" s="20"/>
       <c r="B80" s="27"/>
       <c r="C80" s="27"/>
-      <c r="D80">
-        <f>SUM(C71:C80)</f>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="20"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="27"/>
+      <c r="D81">
+        <f>SUM(C72:C81)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="21"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-    </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="10"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="12"/>
-    </row>
-    <row r="83" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="17" t="s">
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="10"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="12"/>
+    </row>
+    <row r="84" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B83" s="17"/>
-      <c r="C83" s="32">
-        <f>SUM(C14:C80)</f>
-        <v>9</v>
-      </c>
-      <c r="D83" s="13"/>
-    </row>
-    <row r="84" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="9"/>
-      <c r="B84" s="29"/>
-      <c r="C84" s="29"/>
-    </row>
-    <row r="85" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A85" s="10" t="s">
+      <c r="B84" s="17"/>
+      <c r="C84" s="32">
+        <f>SUM(C14:C81)</f>
+        <v>24.75</v>
+      </c>
+      <c r="D84" s="13"/>
+    </row>
+    <row r="85" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="9"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+    </row>
+    <row r="86" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A86" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B85" s="28"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="11"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="22"/>
-      <c r="B86" s="30"/>
-      <c r="C86" s="30"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="11"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="22"/>
@@ -4160,31 +4280,36 @@
       <c r="C87" s="30"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="9"/>
-      <c r="B88" s="29"/>
-      <c r="C88" s="29"/>
+      <c r="A88" s="22"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="30"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="23"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="23"/>
-    </row>
-    <row r="91" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A91" s="11"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
+      <c r="A89" s="9"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="23"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="23"/>
+    </row>
+    <row r="92" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A92" s="11"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A60:B60"/>
   </mergeCells>
-  <conditionalFormatting sqref="A14 A32:C36 A24:C30 A15:C22">
+  <conditionalFormatting sqref="A14 A33:C37 A15:C22 A24:C31">
     <cfRule type="expression" dxfId="26" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
@@ -4194,127 +4319,127 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38:B47">
+  <conditionalFormatting sqref="A39:B48">
     <cfRule type="expression" dxfId="24" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38:C47">
+  <conditionalFormatting sqref="C39:C48">
     <cfRule type="expression" dxfId="23" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32:C35">
+  <conditionalFormatting sqref="C33:C36">
     <cfRule type="expression" dxfId="22" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38:C43">
+  <conditionalFormatting sqref="C39:C44">
     <cfRule type="expression" dxfId="21" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32:B35">
+  <conditionalFormatting sqref="A33:B36">
     <cfRule type="expression" dxfId="20" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38:B43">
+  <conditionalFormatting sqref="A39:B44">
     <cfRule type="expression" dxfId="19" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C49:C54">
+  <conditionalFormatting sqref="C50:C55">
     <cfRule type="expression" dxfId="18" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C49:C58">
+  <conditionalFormatting sqref="C50:C59">
     <cfRule type="expression" dxfId="17" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50:B58 A49">
+  <conditionalFormatting sqref="A51:B59 A50">
     <cfRule type="expression" dxfId="16" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50:B54 A49">
+  <conditionalFormatting sqref="A51:B55 A50">
     <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B69">
+  <conditionalFormatting sqref="A61:B70">
     <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B65">
+  <conditionalFormatting sqref="A61:B66">
     <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C60:C65">
+  <conditionalFormatting sqref="C61:C66">
     <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C60:C69">
+  <conditionalFormatting sqref="C61:C70">
     <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48">
+  <conditionalFormatting sqref="A49">
     <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71:B80">
+  <conditionalFormatting sqref="A72:B81">
     <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C71:C76">
+  <conditionalFormatting sqref="C72:C77">
     <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C71:C80">
+  <conditionalFormatting sqref="C72:C81">
     <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71:B76">
+  <conditionalFormatting sqref="A72:B77">
     <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
+  <conditionalFormatting sqref="A32">
     <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
+  <conditionalFormatting sqref="A38">
     <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A59">
+  <conditionalFormatting sqref="A60">
     <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
+  <conditionalFormatting sqref="A71">
     <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49">
+  <conditionalFormatting sqref="B50">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49">
+  <conditionalFormatting sqref="B50">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/personal-logs/ryan-koenig/WorkLog_rk.xlsx
+++ b/personal-logs/ryan-koenig/WorkLog_rk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\DataScience\Data599\w2020-data599-capstone-projects-ubc-udl\personal-logs\ryan-koenig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6023869C-9065-4584-B733-54C35121DE49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33D56AF-2A29-4E09-8803-712ADE3B6996}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 1'!$A$1:$D$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 2'!$A$1:$D$57</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Week 3'!$A$1:$D$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Week 3'!$A$1:$D$55</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="70">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -222,6 +222,33 @@
   </si>
   <si>
     <t>Meeting with Scott</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anomaly Research </t>
+  </si>
+  <si>
+    <t>LSTM Schematic</t>
+  </si>
+  <si>
+    <t>Slide Show Prep</t>
+  </si>
+  <si>
+    <t>Telegraf Debuggin</t>
+  </si>
+  <si>
+    <t>Prep Work</t>
+  </si>
+  <si>
+    <t>Downloading Data</t>
+  </si>
+  <si>
+    <t>Database Building</t>
+  </si>
+  <si>
+    <t>Script for Cleaning Data</t>
+  </si>
+  <si>
+    <t>Editing Script for Data</t>
   </si>
 </sst>
 </file>
@@ -990,35 +1017,7 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="42" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="81">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="77">
     <dxf>
       <fill>
         <patternFill>
@@ -2632,137 +2631,137 @@
     <mergeCell ref="A57:B57"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A15:C20 A30:C34 A22:C28">
-    <cfRule type="expression" dxfId="80" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="71" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="79" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B45">
-    <cfRule type="expression" dxfId="78" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C45">
-    <cfRule type="expression" dxfId="77" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C33">
-    <cfRule type="expression" dxfId="76" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C41">
-    <cfRule type="expression" dxfId="75" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B33">
-    <cfRule type="expression" dxfId="74" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B41">
-    <cfRule type="expression" dxfId="73" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C52">
-    <cfRule type="expression" dxfId="72" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C56">
-    <cfRule type="expression" dxfId="71" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B56 A47">
-    <cfRule type="expression" dxfId="70" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B52 A47">
-    <cfRule type="expression" dxfId="69" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:B67">
-    <cfRule type="expression" dxfId="68" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:B63">
-    <cfRule type="expression" dxfId="67" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C63">
-    <cfRule type="expression" dxfId="66" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C67">
-    <cfRule type="expression" dxfId="65" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="expression" dxfId="64" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:B78">
-    <cfRule type="expression" dxfId="63" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69:C74">
-    <cfRule type="expression" dxfId="62" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69:C78">
-    <cfRule type="expression" dxfId="61" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:B74">
-    <cfRule type="expression" dxfId="60" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="59" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="58" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="expression" dxfId="57" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="expression" dxfId="56" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="55" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="54" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3475,137 +3474,137 @@
     <mergeCell ref="A58:B58"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A31:C35 A15:C21 A23:C29">
-    <cfRule type="expression" dxfId="53" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="52" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B46">
-    <cfRule type="expression" dxfId="51" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C46">
-    <cfRule type="expression" dxfId="50" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:C34">
-    <cfRule type="expression" dxfId="49" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C42">
-    <cfRule type="expression" dxfId="48" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B34">
-    <cfRule type="expression" dxfId="47" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B42">
-    <cfRule type="expression" dxfId="46" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="45" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C57">
-    <cfRule type="expression" dxfId="44" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B57 A48">
-    <cfRule type="expression" dxfId="43" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B53 A48">
-    <cfRule type="expression" dxfId="42" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B68">
-    <cfRule type="expression" dxfId="41" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B64">
-    <cfRule type="expression" dxfId="40" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C64">
-    <cfRule type="expression" dxfId="39" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C68">
-    <cfRule type="expression" dxfId="38" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="37" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B79">
-    <cfRule type="expression" dxfId="36" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C75">
-    <cfRule type="expression" dxfId="35" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C79">
-    <cfRule type="expression" dxfId="34" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B75">
-    <cfRule type="expression" dxfId="33" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="32" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="31" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="expression" dxfId="30" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="expression" dxfId="29" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="28" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="27" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3621,10 +3620,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3937,9 +3936,15 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
+      <c r="A35" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="25">
+        <v>5</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="18"/>
@@ -3952,7 +3957,7 @@
       <c r="C37" s="27"/>
       <c r="D37">
         <f>SUM(C33:C37)</f>
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -3964,9 +3969,15 @@
       <c r="C38" s="31"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
+      <c r="A39" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
@@ -3976,152 +3987,200 @@
         <v>15</v>
       </c>
       <c r="C40" s="25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="25">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="19"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="20"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="20"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="20"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48">
-        <f>SUM(C39:C48)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="33">
+    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="20"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44">
+        <f>SUM(C39:C44)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="33">
         <f>A38+1</f>
         <v>44337</v>
       </c>
-      <c r="B49" s="34"/>
-      <c r="C49" s="31"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="31"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C50" s="25">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C51" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="19"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="20"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="20"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="20"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55">
+        <f>SUM(C46:C55)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="33">
+        <f>A45+1</f>
+        <v>44338</v>
+      </c>
+      <c r="B56" s="34"/>
+      <c r="C56" s="31"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="25">
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="25">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B54" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="25">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="18"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="19"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="20"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="20"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="20"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59">
-        <f>SUM(C50:C59)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="33">
-        <f>A49+1</f>
-        <v>44338</v>
-      </c>
-      <c r="B60" s="34"/>
-      <c r="C60" s="31"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="18"/>
@@ -4134,56 +4193,56 @@
       <c r="C62" s="25"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="18"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="18"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="18"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="18"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="19"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
+      <c r="A65" s="20"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="20"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66">
+        <f>SUM(C57:C66)</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="33">
+        <f>A56+1</f>
+        <v>44339</v>
+      </c>
+      <c r="B67" s="34"/>
+      <c r="C67" s="31"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="20"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
+      <c r="A68" s="18"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="20"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="27"/>
-    </row>
-    <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="20"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-      <c r="D70">
-        <f>SUM(C61:C70)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="33">
-        <f>A60+1</f>
-        <v>44339</v>
-      </c>
-      <c r="B71" s="34"/>
-      <c r="C71" s="31"/>
+      <c r="A69" s="18"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="18"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="18"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="18"/>
@@ -4196,220 +4255,180 @@
       <c r="C73" s="25"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="18"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="18"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
+      <c r="A75" s="20"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="18"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
+      <c r="A76" s="20"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="18"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
+      <c r="A77" s="20"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77">
+        <f>SUM(C68:C77)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="19"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="20"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="27"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="20"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="27"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="20"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="27"/>
-      <c r="D81">
-        <f>SUM(C72:C81)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="21"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
+      <c r="A79" s="10"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="12"/>
+    </row>
+    <row r="80" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" s="17"/>
+      <c r="C80" s="32">
+        <f>SUM(C14:C77)</f>
+        <v>44.25</v>
+      </c>
+      <c r="D80" s="13"/>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="9"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+    </row>
+    <row r="82" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A82" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="28"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="11"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="10"/>
-      <c r="B83" s="28"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="12"/>
-    </row>
-    <row r="84" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B84" s="17"/>
-      <c r="C84" s="32">
-        <f>SUM(C14:C81)</f>
-        <v>24.75</v>
-      </c>
-      <c r="D84" s="13"/>
-    </row>
-    <row r="85" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="22"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="22"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="30"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="9"/>
       <c r="B85" s="29"/>
       <c r="C85" s="29"/>
     </row>
-    <row r="86" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A86" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B86" s="28"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="11"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="22"/>
-      <c r="B87" s="30"/>
-      <c r="C87" s="30"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="22"/>
-      <c r="B88" s="30"/>
-      <c r="C88" s="30"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="9"/>
-      <c r="B89" s="29"/>
-      <c r="C89" s="29"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="23"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="23"/>
-    </row>
-    <row r="92" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A92" s="11"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="23"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="23"/>
+    </row>
+    <row r="88" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A88" s="11"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A67:B67"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A56:B56"/>
   </mergeCells>
-  <conditionalFormatting sqref="A14 A33:C37 A15:C22 A24:C31">
-    <cfRule type="expression" dxfId="26" priority="27" stopIfTrue="1">
+  <conditionalFormatting sqref="A14 A33:C37 A15:C22 A24:C31 A39:C44">
+    <cfRule type="expression" dxfId="22" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39:B48">
-    <cfRule type="expression" dxfId="24" priority="23" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39:C48">
-    <cfRule type="expression" dxfId="23" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:C36">
-    <cfRule type="expression" dxfId="22" priority="24" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39:C44">
-    <cfRule type="expression" dxfId="21" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B36">
-    <cfRule type="expression" dxfId="20" priority="25" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39:B44">
-    <cfRule type="expression" dxfId="19" priority="22" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50:C55">
+    <cfRule type="expression" dxfId="19" priority="25" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46:C51">
     <cfRule type="expression" dxfId="18" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C50:C59">
+  <conditionalFormatting sqref="C46:C55">
     <cfRule type="expression" dxfId="17" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51:B59 A50">
+  <conditionalFormatting sqref="A47:B55 A46">
     <cfRule type="expression" dxfId="16" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51:B55 A50">
+  <conditionalFormatting sqref="A47:B51 A46">
     <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A61:B70">
+  <conditionalFormatting sqref="A57:B66">
     <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A61:B66">
+  <conditionalFormatting sqref="A57:B62">
     <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C61:C66">
+  <conditionalFormatting sqref="C57:C62">
     <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C61:C70">
+  <conditionalFormatting sqref="C57:C66">
     <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A49">
+  <conditionalFormatting sqref="A45">
     <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72:B81">
+  <conditionalFormatting sqref="A68:B77">
     <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C72:C77">
+  <conditionalFormatting sqref="C68:C73">
     <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C72:C81">
+  <conditionalFormatting sqref="C68:C77">
     <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72:B77">
+  <conditionalFormatting sqref="A68:B73">
     <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
@@ -4424,22 +4443,22 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60">
+  <conditionalFormatting sqref="A56">
     <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
+  <conditionalFormatting sqref="A67">
     <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B50">
+  <conditionalFormatting sqref="B46">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B50">
+  <conditionalFormatting sqref="B46">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/personal-logs/ryan-koenig/WorkLog_rk.xlsx
+++ b/personal-logs/ryan-koenig/WorkLog_rk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\DataScience\Data599\w2020-data599-capstone-projects-ubc-udl\personal-logs\ryan-koenig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33D56AF-2A29-4E09-8803-712ADE3B6996}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A608709D-E727-458B-86B9-D234B54593F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3622,8 +3622,8 @@
   </sheetPr>
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -4179,7 +4179,7 @@
         <v>67</v>
       </c>
       <c r="C60" s="25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -4213,7 +4213,7 @@
       <c r="C66" s="27"/>
       <c r="D66">
         <f>SUM(C57:C66)</f>
-        <v>5.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -4296,7 +4296,7 @@
       <c r="B80" s="17"/>
       <c r="C80" s="32">
         <f>SUM(C14:C77)</f>
-        <v>44.25</v>
+        <v>44.75</v>
       </c>
       <c r="D80" s="13"/>
     </row>

--- a/personal-logs/ryan-koenig/WorkLog_rk.xlsx
+++ b/personal-logs/ryan-koenig/WorkLog_rk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\DataScience\Data599\w2020-data599-capstone-projects-ubc-udl\personal-logs\ryan-koenig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A608709D-E727-458B-86B9-D234B54593F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3029BCD1-AE50-419D-B06D-EC742A3A53BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="71">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>Editing Script for Data</t>
+  </si>
+  <si>
+    <t>Data Labelling</t>
   </si>
 </sst>
 </file>
@@ -3623,7 +3626,7 @@
   <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -4225,9 +4228,15 @@
       <c r="C67" s="31"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="18"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
+      <c r="A68" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" s="25">
+        <v>4</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="18"/>
@@ -4275,7 +4284,7 @@
       <c r="C77" s="27"/>
       <c r="D77">
         <f>SUM(C68:C77)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -4296,7 +4305,7 @@
       <c r="B80" s="17"/>
       <c r="C80" s="32">
         <f>SUM(C14:C77)</f>
-        <v>44.75</v>
+        <v>48.75</v>
       </c>
       <c r="D80" s="13"/>
     </row>

--- a/personal-logs/ryan-koenig/WorkLog_rk.xlsx
+++ b/personal-logs/ryan-koenig/WorkLog_rk.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\DataScience\Data599\w2020-data599-capstone-projects-ubc-udl\personal-logs\ryan-koenig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3029BCD1-AE50-419D-B06D-EC742A3A53BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639CB31B-5BE6-443F-9F42-BCCA777EA1E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="10" r:id="rId1"/>
     <sheet name="Week 2" sheetId="11" r:id="rId2"/>
     <sheet name="Week 3" sheetId="12" r:id="rId3"/>
+    <sheet name="Week 4" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 1'!$A$1:$D$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 2'!$A$1:$D$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Week 3'!$A$1:$D$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Week 4'!$A$1:$D$55</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="71">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -1020,7 +1022,168 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="42" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="77">
+  <dxfs count="100">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2634,137 +2797,137 @@
     <mergeCell ref="A57:B57"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A15:C20 A30:C34 A22:C28">
-    <cfRule type="expression" dxfId="76" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="71" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="75" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B45">
-    <cfRule type="expression" dxfId="74" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C45">
-    <cfRule type="expression" dxfId="73" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C33">
-    <cfRule type="expression" dxfId="72" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C41">
-    <cfRule type="expression" dxfId="71" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B33">
-    <cfRule type="expression" dxfId="70" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B41">
-    <cfRule type="expression" dxfId="69" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C52">
-    <cfRule type="expression" dxfId="68" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C56">
-    <cfRule type="expression" dxfId="67" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B56 A47">
-    <cfRule type="expression" dxfId="66" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B52 A47">
-    <cfRule type="expression" dxfId="65" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:B67">
-    <cfRule type="expression" dxfId="64" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:B63">
-    <cfRule type="expression" dxfId="63" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C63">
-    <cfRule type="expression" dxfId="62" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C67">
-    <cfRule type="expression" dxfId="61" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="expression" dxfId="60" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:B78">
-    <cfRule type="expression" dxfId="59" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69:C74">
-    <cfRule type="expression" dxfId="58" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69:C78">
-    <cfRule type="expression" dxfId="57" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:B74">
-    <cfRule type="expression" dxfId="56" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="55" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="54" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="expression" dxfId="53" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="expression" dxfId="52" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="51" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="50" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3477,137 +3640,137 @@
     <mergeCell ref="A58:B58"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A31:C35 A15:C21 A23:C29">
-    <cfRule type="expression" dxfId="49" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="48" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B46">
-    <cfRule type="expression" dxfId="47" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C46">
-    <cfRule type="expression" dxfId="46" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:C34">
-    <cfRule type="expression" dxfId="45" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C42">
-    <cfRule type="expression" dxfId="44" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B34">
-    <cfRule type="expression" dxfId="43" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B42">
-    <cfRule type="expression" dxfId="42" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="41" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C57">
-    <cfRule type="expression" dxfId="40" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B57 A48">
-    <cfRule type="expression" dxfId="39" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B53 A48">
-    <cfRule type="expression" dxfId="38" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B68">
-    <cfRule type="expression" dxfId="37" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B64">
-    <cfRule type="expression" dxfId="36" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C64">
-    <cfRule type="expression" dxfId="35" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C68">
-    <cfRule type="expression" dxfId="34" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="33" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B79">
-    <cfRule type="expression" dxfId="32" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C75">
-    <cfRule type="expression" dxfId="31" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C79">
-    <cfRule type="expression" dxfId="30" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B75">
-    <cfRule type="expression" dxfId="29" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="28" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="27" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="expression" dxfId="26" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="expression" dxfId="25" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="24" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="23" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3625,8 +3788,8 @@
   </sheetPr>
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView showGridLines="0" topLeftCell="A52" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -4358,22 +4521,685 @@
     <mergeCell ref="A56:B56"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A33:C37 A15:C22 A24:C31 A39:C44">
-    <cfRule type="expression" dxfId="22" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="21" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:C36">
-    <cfRule type="expression" dxfId="20" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B36">
-    <cfRule type="expression" dxfId="19" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="25" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46:C51">
+    <cfRule type="expression" dxfId="41" priority="16" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46:C55">
+    <cfRule type="expression" dxfId="40" priority="17" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:B55 A46">
+    <cfRule type="expression" dxfId="39" priority="19" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:B51 A46">
+    <cfRule type="expression" dxfId="38" priority="18" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:B66">
+    <cfRule type="expression" dxfId="37" priority="15" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:B62">
+    <cfRule type="expression" dxfId="36" priority="14" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57:C62">
+    <cfRule type="expression" dxfId="35" priority="12" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57:C66">
+    <cfRule type="expression" dxfId="34" priority="13" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45">
+    <cfRule type="expression" dxfId="33" priority="5" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68:B77">
+    <cfRule type="expression" dxfId="32" priority="11" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68:C73">
+    <cfRule type="expression" dxfId="31" priority="8" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68:C77">
+    <cfRule type="expression" dxfId="30" priority="9" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68:B73">
+    <cfRule type="expression" dxfId="29" priority="10" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="expression" dxfId="28" priority="7" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38">
+    <cfRule type="expression" dxfId="27" priority="6" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56">
+    <cfRule type="expression" dxfId="26" priority="4" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67">
+    <cfRule type="expression" dxfId="25" priority="3" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46">
+    <cfRule type="expression" dxfId="24" priority="2" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46">
+    <cfRule type="expression" dxfId="23" priority="1" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.25"/>
+  <pageSetup scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57690F20-E1F5-46B8-990E-9368B226D845}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D88"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="70.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="2">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+    </row>
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="33">
+        <f>D3</f>
+        <v>44340</v>
+      </c>
+      <c r="B14" s="34"/>
+      <c r="C14" s="31"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="19"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+    </row>
+    <row r="22" spans="1:4" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="20"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22">
+        <f>SUM(C15:C22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="33">
+        <f>A14+1</f>
+        <v>44341</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="31"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="18"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="18"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="18"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="18"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="18"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="18"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="19"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="20"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31">
+        <f>SUM(C24:C31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="33">
+        <f>A23+1</f>
+        <v>44342</v>
+      </c>
+      <c r="B32" s="34"/>
+      <c r="C32" s="31"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="18"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="18"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="18"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="18"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="20"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37">
+        <f>SUM(C33:C37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="33">
+        <f>A32+1</f>
+        <v>44343</v>
+      </c>
+      <c r="B38" s="34"/>
+      <c r="C38" s="31"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="18"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="18"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="18"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="18"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="18"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="20"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44">
+        <f>SUM(C39:C44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="33">
+        <f>A38+1</f>
+        <v>44344</v>
+      </c>
+      <c r="B45" s="34"/>
+      <c r="C45" s="31"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="18"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="18"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="18"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="18"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="18"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="18"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="19"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="20"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="20"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="20"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55">
+        <f>SUM(C46:C55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="33">
+        <f>A45+1</f>
+        <v>44345</v>
+      </c>
+      <c r="B56" s="34"/>
+      <c r="C56" s="31"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="18"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="18"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="18"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="18"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="18"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="18"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="19"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="20"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="20"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="20"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66">
+        <f>SUM(C57:C66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="33">
+        <f>A56+1</f>
+        <v>44346</v>
+      </c>
+      <c r="B67" s="34"/>
+      <c r="C67" s="31"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="18"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="18"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="18"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="18"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="18"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="18"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="19"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="20"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="20"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="20"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77">
+        <f>SUM(C68:C77)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="21"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="10"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="12"/>
+    </row>
+    <row r="80" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" s="17"/>
+      <c r="C80" s="32">
+        <f>SUM(C14:C77)</f>
+        <v>0</v>
+      </c>
+      <c r="D80" s="13"/>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="9"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+    </row>
+    <row r="82" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A82" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="28"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="11"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="22"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="22"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="30"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="9"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="23"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="23"/>
+    </row>
+    <row r="88" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A88" s="11"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A56:B56"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A14 A33:C37 A15:C22 A24:C31 A39:C44">
+    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:C36">
+    <cfRule type="expression" dxfId="20" priority="20" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:B36">
+    <cfRule type="expression" dxfId="19" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/personal-logs/ryan-koenig/WorkLog_rk.xlsx
+++ b/personal-logs/ryan-koenig/WorkLog_rk.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\DataScience\Data599\w2020-data599-capstone-projects-ubc-udl\personal-logs\ryan-koenig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwray\Documents\MDS\capstone\w2020-data599-capstone-projects-ubc-udl\personal-logs\ryan-koenig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3029BCD1-AE50-419D-B06D-EC742A3A53BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E406EE1D-825C-4940-9BD8-B14AE418D916}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="10" r:id="rId1"/>
@@ -24,22 +24,11 @@
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="74">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -140,9 +129,6 @@
     <t>Post-Client Meeting</t>
   </si>
   <si>
-    <t>Internal Meetins</t>
-  </si>
-  <si>
     <t>Internal Meeting</t>
   </si>
   <si>
@@ -161,9 +147,6 @@
     <t>Influxdb and Telegraf install</t>
   </si>
   <si>
-    <t>Software Setup</t>
-  </si>
-  <si>
     <t>Influxdb and Telegraf setup</t>
   </si>
   <si>
@@ -218,9 +201,6 @@
     <t>Anomaly Research</t>
   </si>
   <si>
-    <t>Research</t>
-  </si>
-  <si>
     <t>Meeting with Scott</t>
   </si>
   <si>
@@ -242,9 +222,6 @@
     <t>Downloading Data</t>
   </si>
   <si>
-    <t>Database Building</t>
-  </si>
-  <si>
     <t>Script for Cleaning Data</t>
   </si>
   <si>
@@ -252,6 +229,27 @@
   </si>
   <si>
     <t>Data Labelling</t>
+  </si>
+  <si>
+    <t>EDA</t>
+  </si>
+  <si>
+    <t>Parsing Data</t>
+  </si>
+  <si>
+    <t>Setup/learn InfluxDB/Telegraf</t>
+  </si>
+  <si>
+    <t>Parsing for UDL</t>
+  </si>
+  <si>
+    <t>Anomaly Model Research</t>
+  </si>
+  <si>
+    <t>Anomaly Labelling</t>
+  </si>
+  <si>
+    <t>Download Data</t>
   </si>
 </sst>
 </file>
@@ -259,7 +257,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -853,7 +851,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -964,7 +962,7 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="20" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="20" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1939,18 +1937,18 @@
   <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="70.7109375" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="70.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A1" s="8" t="s">
         <v>23</v>
       </c>
@@ -1958,17 +1956,17 @@
       <c r="C1" s="8"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D3" s="2">
         <v>44319</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1978,7 +1976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1986,42 +1984,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
     </row>
-    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="15"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D12" s="15"/>
     </row>
-    <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
@@ -2033,7 +2031,7 @@
       </c>
       <c r="D13" s="16"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="33">
         <f>D3</f>
         <v>44319</v>
@@ -2041,7 +2039,7 @@
       <c r="B14" s="34"/>
       <c r="C14" s="31"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>11</v>
       </c>
@@ -2052,7 +2050,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
         <v>12</v>
       </c>
@@ -2063,7 +2061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
         <v>13</v>
       </c>
@@ -2074,7 +2072,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
         <v>14</v>
       </c>
@@ -2085,7 +2083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -2096,7 +2094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="20"/>
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
@@ -2105,7 +2103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="33">
         <f>A14+1</f>
         <v>44320</v>
@@ -2113,18 +2111,18 @@
       <c r="B21" s="34"/>
       <c r="C21" s="31"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C22" s="25">
         <v>1.5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
         <v>18</v>
       </c>
@@ -2135,7 +2133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
         <v>26</v>
       </c>
@@ -2146,7 +2144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
         <v>19</v>
       </c>
@@ -2157,7 +2155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
         <v>22</v>
       </c>
@@ -2168,7 +2166,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="19" t="s">
         <v>26</v>
       </c>
@@ -2179,7 +2177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="20"/>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
@@ -2188,7 +2186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="33">
         <f>A21+1</f>
         <v>44321</v>
@@ -2196,7 +2194,7 @@
       <c r="B29" s="34"/>
       <c r="C29" s="31"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
         <v>26</v>
       </c>
@@ -2207,18 +2205,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
         <v>13</v>
       </c>
@@ -2229,7 +2227,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
         <v>26</v>
       </c>
@@ -2240,7 +2238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="20"/>
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
@@ -2249,7 +2247,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="33">
         <f>A29+1</f>
         <v>44322</v>
@@ -2257,7 +2255,7 @@
       <c r="B35" s="34"/>
       <c r="C35" s="31"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
         <v>28</v>
       </c>
@@ -2268,7 +2266,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
         <v>29</v>
       </c>
@@ -2279,7 +2277,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
         <v>30</v>
       </c>
@@ -2290,7 +2288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
         <v>28</v>
       </c>
@@ -2301,29 +2299,29 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C40" s="25">
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
         <v>32</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C41" s="25">
         <v>0.25</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="19" t="s">
         <v>28</v>
       </c>
@@ -2334,17 +2332,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="20"/>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="20"/>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
     </row>
-    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="20"/>
       <c r="B45" s="27"/>
       <c r="C45" s="27"/>
@@ -2353,7 +2351,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="33">
         <f>A35+1</f>
         <v>44323</v>
@@ -2361,58 +2359,58 @@
       <c r="B46" s="34"/>
       <c r="C46" s="31"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C47" s="25">
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="18"/>
       <c r="B48" s="25"/>
       <c r="C48" s="25"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="18"/>
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="18"/>
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="18"/>
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="18"/>
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="19"/>
       <c r="B53" s="26"/>
       <c r="C53" s="26"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="20"/>
       <c r="B54" s="27"/>
       <c r="C54" s="27"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="20"/>
       <c r="B55" s="27"/>
       <c r="C55" s="27"/>
     </row>
-    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="20"/>
       <c r="B56" s="27"/>
       <c r="C56" s="27"/>
@@ -2421,7 +2419,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="33">
         <f>A46+1</f>
         <v>44324</v>
@@ -2429,9 +2427,9 @@
       <c r="B57" s="34"/>
       <c r="C57" s="31"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B58" s="25" t="s">
         <v>17</v>
@@ -2440,47 +2438,47 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="18"/>
       <c r="B59" s="25"/>
       <c r="C59" s="25"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="18"/>
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="18"/>
       <c r="B61" s="25"/>
       <c r="C61" s="25"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="18"/>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="18"/>
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="19"/>
       <c r="B64" s="26"/>
       <c r="C64" s="26"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="20"/>
       <c r="B65" s="27"/>
       <c r="C65" s="27"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="20"/>
       <c r="B66" s="27"/>
       <c r="C66" s="27"/>
     </row>
-    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="20"/>
       <c r="B67" s="27"/>
       <c r="C67" s="27"/>
@@ -2489,7 +2487,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="33">
         <f>A57+1</f>
         <v>44325</v>
@@ -2497,64 +2495,64 @@
       <c r="B68" s="34"/>
       <c r="C68" s="31"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C69" s="25">
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="C70" s="25">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="18"/>
       <c r="B71" s="25"/>
       <c r="C71" s="25"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="18"/>
       <c r="B72" s="25"/>
       <c r="C72" s="25"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="18"/>
       <c r="B73" s="25"/>
       <c r="C73" s="25"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="18"/>
       <c r="B74" s="25"/>
       <c r="C74" s="25"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="19"/>
       <c r="B75" s="26"/>
       <c r="C75" s="26"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="20"/>
       <c r="B76" s="27"/>
       <c r="C76" s="27"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="20"/>
       <c r="B77" s="27"/>
       <c r="C77" s="27"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="20"/>
       <c r="B78" s="27"/>
       <c r="C78" s="27"/>
@@ -2563,18 +2561,18 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="21"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="10"/>
       <c r="B80" s="28"/>
       <c r="C80" s="28"/>
       <c r="D80" s="12"/>
     </row>
-    <row r="81" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="17" t="s">
         <v>5</v>
       </c>
@@ -2585,12 +2583,12 @@
       </c>
       <c r="D81" s="13"/>
     </row>
-    <row r="82" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A82" s="9"/>
       <c r="B82" s="29"/>
       <c r="C82" s="29"/>
     </row>
-    <row r="83" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A83" s="10" t="s">
         <v>6</v>
       </c>
@@ -2598,27 +2596,27 @@
       <c r="C83" s="28"/>
       <c r="D83" s="11"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="22"/>
       <c r="B84" s="30"/>
       <c r="C84" s="30"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="22"/>
       <c r="B85" s="30"/>
       <c r="C85" s="30"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="9"/>
       <c r="B86" s="29"/>
       <c r="C86" s="29"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="23"/>
       <c r="B87" s="23"/>
       <c r="C87" s="23"/>
     </row>
-    <row r="89" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -2782,19 +2780,19 @@
   </sheetPr>
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" activeCellId="3" sqref="C20 C23 C26 C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="70.7109375" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="70.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A1" s="8" t="s">
         <v>23</v>
       </c>
@@ -2802,17 +2800,17 @@
       <c r="C1" s="8"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D3" s="2">
         <v>44326</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -2822,7 +2820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2830,42 +2828,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
     </row>
-    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="15"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D12" s="15"/>
     </row>
-    <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
@@ -2877,7 +2875,7 @@
       </c>
       <c r="D13" s="16"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="33">
         <f>D3</f>
         <v>44326</v>
@@ -2885,20 +2883,20 @@
       <c r="B14" s="34"/>
       <c r="C14" s="31"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="C15" s="25">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>15</v>
@@ -2907,29 +2905,29 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="C17" s="25">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C18" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="20" t="s">
         <v>32</v>
       </c>
@@ -2940,18 +2938,18 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C20" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="20"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
@@ -2960,7 +2958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="33">
         <f>A14+1</f>
         <v>44327</v>
@@ -2968,20 +2966,20 @@
       <c r="B22" s="34"/>
       <c r="C22" s="31"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C23" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" s="25" t="s">
         <v>17</v>
@@ -2990,9 +2988,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>15</v>
@@ -3001,20 +2999,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C26" s="25">
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B27" s="25" t="s">
         <v>15</v>
@@ -3023,18 +3021,18 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C28" s="26">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="20"/>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -3043,7 +3041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="33">
         <f>A22+1</f>
         <v>44328</v>
@@ -3051,20 +3049,20 @@
       <c r="B30" s="34"/>
       <c r="C30" s="31"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C31" s="25">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="25" t="s">
         <v>15</v>
@@ -3073,23 +3071,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C33" s="25">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="18"/>
       <c r="B34" s="25"/>
       <c r="C34" s="25"/>
     </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="20"/>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
@@ -3098,7 +3096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="33">
         <f>A30+1</f>
         <v>44329</v>
@@ -3106,20 +3104,20 @@
       <c r="B36" s="34"/>
       <c r="C36" s="31"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="C37" s="25">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="25" t="s">
         <v>15</v>
@@ -3128,7 +3126,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
         <v>27</v>
       </c>
@@ -3139,49 +3137,49 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C40" s="25">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C41" s="25">
         <v>2.5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="18"/>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="19"/>
       <c r="B43" s="26"/>
       <c r="C43" s="26"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="20"/>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="20"/>
       <c r="B45" s="27"/>
       <c r="C45" s="27"/>
     </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="20"/>
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
@@ -3190,7 +3188,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="33">
         <f>A36+1</f>
         <v>44330</v>
@@ -3198,20 +3196,20 @@
       <c r="B47" s="34"/>
       <c r="C47" s="31"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C48" s="25">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B49" s="25" t="s">
         <v>15</v>
@@ -3220,48 +3218,48 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="C50" s="25">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="18"/>
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="18"/>
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="18"/>
       <c r="B53" s="25"/>
       <c r="C53" s="25"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="19"/>
       <c r="B54" s="26"/>
       <c r="C54" s="26"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="20"/>
       <c r="B55" s="27"/>
       <c r="C55" s="27"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="20"/>
       <c r="B56" s="27"/>
       <c r="C56" s="27"/>
     </row>
-    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="20"/>
       <c r="B57" s="27"/>
       <c r="C57" s="27"/>
@@ -3270,7 +3268,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="33">
         <f>A47+1</f>
         <v>44331</v>
@@ -3278,58 +3276,58 @@
       <c r="B58" s="34"/>
       <c r="C58" s="31"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="C59" s="25">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="18"/>
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="18"/>
       <c r="B61" s="25"/>
       <c r="C61" s="25"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="18"/>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="18"/>
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="18"/>
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="19"/>
       <c r="B65" s="26"/>
       <c r="C65" s="26"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="20"/>
       <c r="B66" s="27"/>
       <c r="C66" s="27"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="20"/>
       <c r="B67" s="27"/>
       <c r="C67" s="27"/>
     </row>
-    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="20"/>
       <c r="B68" s="27"/>
       <c r="C68" s="27"/>
@@ -3338,7 +3336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="33">
         <f>A58+1</f>
         <v>44332</v>
@@ -3346,58 +3344,58 @@
       <c r="B69" s="34"/>
       <c r="C69" s="31"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C70" s="25">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="18"/>
       <c r="B71" s="25"/>
       <c r="C71" s="25"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="18"/>
       <c r="B72" s="25"/>
       <c r="C72" s="25"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="18"/>
       <c r="B73" s="25"/>
       <c r="C73" s="25"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="18"/>
       <c r="B74" s="25"/>
       <c r="C74" s="25"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="18"/>
       <c r="B75" s="25"/>
       <c r="C75" s="25"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="19"/>
       <c r="B76" s="26"/>
       <c r="C76" s="26"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="20"/>
       <c r="B77" s="27"/>
       <c r="C77" s="27"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="20"/>
       <c r="B78" s="27"/>
       <c r="C78" s="27"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="20"/>
       <c r="B79" s="27"/>
       <c r="C79" s="27"/>
@@ -3406,18 +3404,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="21"/>
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="10"/>
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
       <c r="D81" s="12"/>
     </row>
-    <row r="82" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="17" t="s">
         <v>5</v>
       </c>
@@ -3428,12 +3426,12 @@
       </c>
       <c r="D82" s="13"/>
     </row>
-    <row r="83" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A83" s="9"/>
       <c r="B83" s="29"/>
       <c r="C83" s="29"/>
     </row>
-    <row r="84" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A84" s="10" t="s">
         <v>6</v>
       </c>
@@ -3441,27 +3439,27 @@
       <c r="C84" s="28"/>
       <c r="D84" s="11"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="22"/>
       <c r="B85" s="30"/>
       <c r="C85" s="30"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="22"/>
       <c r="B86" s="30"/>
       <c r="C86" s="30"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="9"/>
       <c r="B87" s="29"/>
       <c r="C87" s="29"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="23"/>
       <c r="B88" s="23"/>
       <c r="C88" s="23"/>
     </row>
-    <row r="90" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -3625,19 +3623,19 @@
   </sheetPr>
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="70.7109375" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="70.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A1" s="8" t="s">
         <v>23</v>
       </c>
@@ -3645,17 +3643,17 @@
       <c r="C1" s="8"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D3" s="2">
         <v>44333</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -3665,7 +3663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3673,42 +3671,42 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
     </row>
-    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="15"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D12" s="15"/>
     </row>
-    <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
@@ -3720,7 +3718,7 @@
       </c>
       <c r="D13" s="16"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="33">
         <f>D3</f>
         <v>44333</v>
@@ -3728,20 +3726,20 @@
       <c r="B14" s="34"/>
       <c r="C14" s="31"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="C15" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>15</v>
@@ -3750,29 +3748,29 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="C17" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="20" t="s">
         <v>32</v>
       </c>
@@ -3783,9 +3781,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B20" s="27" t="s">
         <v>17</v>
@@ -3794,18 +3792,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C21" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="20"/>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
@@ -3814,7 +3812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="33">
         <f>A14+1</f>
         <v>44334</v>
@@ -3822,20 +3820,20 @@
       <c r="B23" s="34"/>
       <c r="C23" s="31"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="C24" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>17</v>
@@ -3844,20 +3842,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C26" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="25" t="s">
         <v>15</v>
@@ -3866,40 +3864,40 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C28" s="25">
         <v>0.75</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>40</v>
+        <v>47</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>70</v>
       </c>
       <c r="C29" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C30" s="26">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="20"/>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
@@ -3908,7 +3906,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="33">
         <f>A23+1</f>
         <v>44335</v>
@@ -3916,20 +3914,20 @@
       <c r="B32" s="34"/>
       <c r="C32" s="31"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C33" s="25">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" s="25" t="s">
         <v>15</v>
@@ -3938,23 +3936,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C35" s="25">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="18"/>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20"/>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
@@ -3963,7 +3961,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="33">
         <f>A32+1</f>
         <v>44336</v>
@@ -3971,20 +3969,20 @@
       <c r="B38" s="34"/>
       <c r="C38" s="31"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C39" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="25" t="s">
         <v>15</v>
@@ -3993,40 +3991,40 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C41" s="25">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C42" s="25">
         <v>2.5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C43" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="20"/>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
@@ -4035,7 +4033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="33">
         <f>A38+1</f>
         <v>44337</v>
@@ -4043,9 +4041,9 @@
       <c r="B45" s="34"/>
       <c r="C45" s="31"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B46" s="25" t="s">
         <v>17</v>
@@ -4054,9 +4052,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B47" s="25" t="s">
         <v>15</v>
@@ -4065,31 +4063,31 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C48" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C49" s="25">
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B50" s="25" t="s">
         <v>15</v>
@@ -4098,33 +4096,33 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="C51" s="25">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="19"/>
       <c r="B52" s="26"/>
       <c r="C52" s="26"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="20"/>
       <c r="B53" s="27"/>
       <c r="C53" s="27"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="20"/>
       <c r="B54" s="27"/>
       <c r="C54" s="27"/>
     </row>
-    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="20"/>
       <c r="B55" s="27"/>
       <c r="C55" s="27"/>
@@ -4133,7 +4131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="33">
         <f>A45+1</f>
         <v>44338</v>
@@ -4141,76 +4139,76 @@
       <c r="B56" s="34"/>
       <c r="C56" s="31"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C57" s="25">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C58" s="25">
         <v>1.5</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C59" s="25">
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C60" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="18"/>
       <c r="B61" s="25"/>
       <c r="C61" s="25"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="18"/>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="19"/>
       <c r="B63" s="26"/>
       <c r="C63" s="26"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="20"/>
       <c r="B64" s="27"/>
       <c r="C64" s="27"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="20"/>
       <c r="B65" s="27"/>
       <c r="C65" s="27"/>
     </row>
-    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="20"/>
       <c r="B66" s="27"/>
       <c r="C66" s="27"/>
@@ -4219,7 +4217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="33">
         <f>A56+1</f>
         <v>44339</v>
@@ -4227,58 +4225,58 @@
       <c r="B67" s="34"/>
       <c r="C67" s="31"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C68" s="25">
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="18"/>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="18"/>
       <c r="B70" s="25"/>
       <c r="C70" s="25"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="18"/>
       <c r="B71" s="25"/>
       <c r="C71" s="25"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="18"/>
       <c r="B72" s="25"/>
       <c r="C72" s="25"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="18"/>
       <c r="B73" s="25"/>
       <c r="C73" s="25"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="19"/>
       <c r="B74" s="26"/>
       <c r="C74" s="26"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="20"/>
       <c r="B75" s="27"/>
       <c r="C75" s="27"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="20"/>
       <c r="B76" s="27"/>
       <c r="C76" s="27"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="20"/>
       <c r="B77" s="27"/>
       <c r="C77" s="27"/>
@@ -4287,18 +4285,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="21"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="10"/>
       <c r="B79" s="28"/>
       <c r="C79" s="28"/>
       <c r="D79" s="12"/>
     </row>
-    <row r="80" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="17" t="s">
         <v>5</v>
       </c>
@@ -4309,12 +4307,12 @@
       </c>
       <c r="D80" s="13"/>
     </row>
-    <row r="81" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A81" s="9"/>
       <c r="B81" s="29"/>
       <c r="C81" s="29"/>
     </row>
-    <row r="82" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A82" s="10" t="s">
         <v>6</v>
       </c>
@@ -4322,27 +4320,27 @@
       <c r="C82" s="28"/>
       <c r="D82" s="11"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="22"/>
       <c r="B83" s="30"/>
       <c r="C83" s="30"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="22"/>
       <c r="B84" s="30"/>
       <c r="C84" s="30"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="9"/>
       <c r="B85" s="29"/>
       <c r="C85" s="29"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="23"/>
       <c r="B86" s="23"/>
       <c r="C86" s="23"/>
     </row>
-    <row r="88" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -4357,7 +4355,7 @@
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A56:B56"/>
   </mergeCells>
-  <conditionalFormatting sqref="A14 A33:C37 A15:C22 A24:C31 A39:C44">
+  <conditionalFormatting sqref="A14 A33:C37 A15:C22 A39:C44 A24:C31">
     <cfRule type="expression" dxfId="22" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/personal-logs/ryan-koenig/WorkLog_rk.xlsx
+++ b/personal-logs/ryan-koenig/WorkLog_rk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\DataScience\Data599\w2020-data599-capstone-projects-ubc-udl\personal-logs\ryan-koenig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639CB31B-5BE6-443F-9F42-BCCA777EA1E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68490D72-EFFB-4F88-9972-E3EAFB449CCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="80">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -142,9 +142,6 @@
     <t>Post-Client Meeting</t>
   </si>
   <si>
-    <t>Internal Meetins</t>
-  </si>
-  <si>
     <t>Internal Meeting</t>
   </si>
   <si>
@@ -163,9 +160,6 @@
     <t>Influxdb and Telegraf install</t>
   </si>
   <si>
-    <t>Software Setup</t>
-  </si>
-  <si>
     <t>Influxdb and Telegraf setup</t>
   </si>
   <si>
@@ -220,9 +214,6 @@
     <t>Anomaly Research</t>
   </si>
   <si>
-    <t>Research</t>
-  </si>
-  <si>
     <t>Meeting with Scott</t>
   </si>
   <si>
@@ -244,9 +235,6 @@
     <t>Downloading Data</t>
   </si>
   <si>
-    <t>Database Building</t>
-  </si>
-  <si>
     <t>Script for Cleaning Data</t>
   </si>
   <si>
@@ -254,13 +242,53 @@
   </si>
   <si>
     <t>Data Labelling</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Internal Morning Meeting</t>
+  </si>
+  <si>
+    <t>Data Cleaning Pipeline</t>
+  </si>
+  <si>
+    <t>EDA</t>
+  </si>
+  <si>
+    <t>Setup/learn InfluxDB/Telegraf</t>
+  </si>
+  <si>
+    <t>Parsing Data</t>
+  </si>
+  <si>
+    <t>Parsing for UDL</t>
+  </si>
+  <si>
+    <t>Anomaly Model Research</t>
+  </si>
+  <si>
+    <t>Download Data</t>
+  </si>
+  <si>
+    <t>Anomaly Labelling</t>
+  </si>
+  <si>
+    <t>Week 4 Update Presentation</t>
+  </si>
+  <si>
+    <t>Data Cleaning Pipeling</t>
+  </si>
+  <si>
+    <t>Internal Meeting Cover Pipeline</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
@@ -811,7 +839,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -856,8 +884,9 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -975,8 +1004,148 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
@@ -1005,6 +1174,7 @@
     <cellStyle name="Calculation" xfId="26" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="27" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Comma" xfId="43" builtinId="3"/>
+    <cellStyle name="Comma 2" xfId="44" xr:uid="{DD74FA47-2B6D-4236-81FC-CDE6DEFE2F6F}"/>
     <cellStyle name="Explanatory Text" xfId="28" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="29" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="30" builtinId="16" customBuiltin="1"/>
@@ -2101,8 +2271,8 @@
   </sheetPr>
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2205,10 +2375,10 @@
       <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="38" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="25">
@@ -2216,10 +2386,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="38" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="25">
@@ -2227,10 +2397,10 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="38" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="25">
@@ -2238,10 +2408,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="39" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="26">
@@ -2249,10 +2419,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="27">
@@ -2260,8 +2430,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="20"/>
-      <c r="B20" s="27"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="27"/>
       <c r="D20">
         <f>SUM(C15:C20)</f>
@@ -2270,28 +2440,27 @@
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="33">
-        <f>A14+1</f>
         <v>44320</v>
       </c>
       <c r="B21" s="34"/>
       <c r="C21" s="31"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>17</v>
+      <c r="B22" s="38" t="s">
+        <v>21</v>
       </c>
       <c r="C22" s="25">
         <v>1.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="38" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="25">
@@ -2299,10 +2468,10 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="38" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="25">
@@ -2310,10 +2479,10 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="38" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="25">
@@ -2321,10 +2490,10 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="38" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="25">
@@ -2332,10 +2501,10 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="39" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="26">
@@ -2343,8 +2512,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="20"/>
-      <c r="B28" s="27"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="27"/>
       <c r="D28">
         <f>SUM(C22:C28)</f>
@@ -2353,17 +2522,16 @@
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="33">
-        <f>A21+1</f>
         <v>44321</v>
       </c>
       <c r="B29" s="34"/>
       <c r="C29" s="31"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="38" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="25">
@@ -2371,21 +2539,21 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="25" t="s">
-        <v>15</v>
+      <c r="B31" s="38" t="s">
+        <v>16</v>
       </c>
       <c r="C31" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="38" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="25">
@@ -2393,10 +2561,10 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="38" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="25">
@@ -2404,8 +2572,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="20"/>
-      <c r="B34" s="27"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="40"/>
       <c r="C34" s="27"/>
       <c r="D34">
         <f>SUM(C30:C34)</f>
@@ -2414,17 +2582,16 @@
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="33">
-        <f>A29+1</f>
         <v>44322</v>
       </c>
       <c r="B35" s="34"/>
       <c r="C35" s="31"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="38" t="s">
         <v>17</v>
       </c>
       <c r="C36" s="25">
@@ -2432,10 +2599,10 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="38" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="25">
@@ -2443,10 +2610,10 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="38" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="25">
@@ -2454,10 +2621,10 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="38" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="25">
@@ -2465,32 +2632,32 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="25" t="s">
-        <v>15</v>
+      <c r="B40" s="38" t="s">
+        <v>16</v>
       </c>
       <c r="C40" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="25" t="s">
-        <v>33</v>
+      <c r="B41" s="38" t="s">
+        <v>15</v>
       </c>
       <c r="C41" s="25">
         <v>0.25</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="39" t="s">
         <v>17</v>
       </c>
       <c r="C42" s="26">
@@ -2498,18 +2665,18 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
-      <c r="B43" s="27"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="27"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="20"/>
-      <c r="B44" s="27"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="40"/>
       <c r="C44" s="27"/>
     </row>
     <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="20"/>
-      <c r="B45" s="27"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="40"/>
       <c r="C45" s="27"/>
       <c r="D45">
         <f>SUM(C36:C45)</f>
@@ -2518,66 +2685,65 @@
     </row>
     <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="33">
-        <f>A35+1</f>
         <v>44323</v>
       </c>
       <c r="B46" s="34"/>
       <c r="C46" s="31"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B47" s="25" t="s">
-        <v>17</v>
+      <c r="A47" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="38" t="s">
+        <v>15</v>
       </c>
       <c r="C47" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="18"/>
-      <c r="B48" s="25"/>
+      <c r="A48" s="35"/>
+      <c r="B48" s="38"/>
       <c r="C48" s="25"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="18"/>
-      <c r="B49" s="25"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="38"/>
       <c r="C49" s="25"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="18"/>
-      <c r="B50" s="25"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="38"/>
       <c r="C50" s="25"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="18"/>
-      <c r="B51" s="25"/>
+      <c r="A51" s="35"/>
+      <c r="B51" s="38"/>
       <c r="C51" s="25"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="18"/>
-      <c r="B52" s="25"/>
+      <c r="A52" s="35"/>
+      <c r="B52" s="38"/>
       <c r="C52" s="25"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="19"/>
-      <c r="B53" s="26"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="39"/>
       <c r="C53" s="26"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="20"/>
-      <c r="B54" s="27"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="40"/>
       <c r="C54" s="27"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="20"/>
-      <c r="B55" s="27"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="40"/>
       <c r="C55" s="27"/>
     </row>
     <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="20"/>
-      <c r="B56" s="27"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="40"/>
       <c r="C56" s="27"/>
       <c r="D56">
         <f>SUM(C47:C56)</f>
@@ -2586,17 +2752,16 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="33">
-        <f>A46+1</f>
         <v>44324</v>
       </c>
       <c r="B57" s="34"/>
       <c r="C57" s="31"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B58" s="25" t="s">
+      <c r="A58" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" s="38" t="s">
         <v>17</v>
       </c>
       <c r="C58" s="25">
@@ -2604,48 +2769,48 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="18"/>
-      <c r="B59" s="25"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="38"/>
       <c r="C59" s="25"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="18"/>
-      <c r="B60" s="25"/>
+      <c r="A60" s="35"/>
+      <c r="B60" s="38"/>
       <c r="C60" s="25"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="18"/>
-      <c r="B61" s="25"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="38"/>
       <c r="C61" s="25"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="18"/>
-      <c r="B62" s="25"/>
+      <c r="A62" s="35"/>
+      <c r="B62" s="38"/>
       <c r="C62" s="25"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="18"/>
-      <c r="B63" s="25"/>
+      <c r="A63" s="35"/>
+      <c r="B63" s="38"/>
       <c r="C63" s="25"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="19"/>
-      <c r="B64" s="26"/>
+      <c r="A64" s="36"/>
+      <c r="B64" s="39"/>
       <c r="C64" s="26"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="20"/>
-      <c r="B65" s="27"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="40"/>
       <c r="C65" s="27"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="20"/>
-      <c r="B66" s="27"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="40"/>
       <c r="C66" s="27"/>
     </row>
     <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="20"/>
-      <c r="B67" s="27"/>
+      <c r="A67" s="37"/>
+      <c r="B67" s="40"/>
       <c r="C67" s="27"/>
       <c r="D67">
         <f>SUM(C58:C67)</f>
@@ -2654,67 +2819,66 @@
     </row>
     <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="33">
-        <f>A57+1</f>
         <v>44325</v>
       </c>
       <c r="B68" s="34"/>
       <c r="C68" s="31"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B69" s="25" t="s">
-        <v>34</v>
+      <c r="A69" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" s="38" t="s">
+        <v>33</v>
       </c>
       <c r="C69" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B70" s="25" t="s">
-        <v>17</v>
+      <c r="A70" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70" s="38" t="s">
+        <v>70</v>
       </c>
       <c r="C70" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="18"/>
-      <c r="B71" s="25"/>
+      <c r="A71" s="35"/>
+      <c r="B71" s="38"/>
       <c r="C71" s="25"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="18"/>
-      <c r="B72" s="25"/>
+      <c r="A72" s="35"/>
+      <c r="B72" s="38"/>
       <c r="C72" s="25"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="18"/>
-      <c r="B73" s="25"/>
+      <c r="A73" s="35"/>
+      <c r="B73" s="38"/>
       <c r="C73" s="25"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="18"/>
-      <c r="B74" s="25"/>
+      <c r="A74" s="35"/>
+      <c r="B74" s="38"/>
       <c r="C74" s="25"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="19"/>
-      <c r="B75" s="26"/>
+      <c r="A75" s="36"/>
+      <c r="B75" s="39"/>
       <c r="C75" s="26"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="20"/>
-      <c r="B76" s="27"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="40"/>
       <c r="C76" s="27"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="20"/>
-      <c r="B77" s="27"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="40"/>
       <c r="C77" s="27"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -2945,8 +3109,8 @@
   </sheetPr>
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3049,21 +3213,21 @@
       <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>17</v>
+      <c r="A15" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>70</v>
       </c>
       <c r="C15" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="25" t="s">
+      <c r="A16" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="44" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="25">
@@ -3071,32 +3235,32 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>17</v>
+      <c r="A17" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>70</v>
       </c>
       <c r="C17" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>15</v>
+      <c r="B18" s="45" t="s">
+        <v>27</v>
       </c>
       <c r="C18" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="27">
@@ -3104,11 +3268,11 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>40</v>
+      <c r="A20" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>71</v>
       </c>
       <c r="C20" s="27">
         <v>1</v>
@@ -3132,21 +3296,21 @@
       <c r="C22" s="31"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>40</v>
+      <c r="A23" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>71</v>
       </c>
       <c r="C23" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="25" t="s">
+      <c r="A24" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="25">
@@ -3154,10 +3318,10 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="25" t="s">
+      <c r="A25" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="25">
@@ -3165,21 +3329,21 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>40</v>
+      <c r="A26" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>71</v>
       </c>
       <c r="C26" s="25">
         <v>1.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="25" t="s">
+      <c r="A27" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="25">
@@ -3187,11 +3351,11 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>40</v>
+      <c r="A28" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>71</v>
       </c>
       <c r="C28" s="26">
         <v>2</v>
@@ -3215,21 +3379,21 @@
       <c r="C30" s="31"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>40</v>
+      <c r="A31" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="52" t="s">
+        <v>72</v>
       </c>
       <c r="C31" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="25" t="s">
+      <c r="A32" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="52" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="25">
@@ -3237,11 +3401,11 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>40</v>
+      <c r="A33" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="52" t="s">
+        <v>72</v>
       </c>
       <c r="C33" s="25">
         <v>7</v>
@@ -3270,21 +3434,21 @@
       <c r="C36" s="31"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>17</v>
+      <c r="A37" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="54" t="s">
+        <v>70</v>
       </c>
       <c r="C37" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="25" t="s">
+      <c r="A38" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="25">
@@ -3292,10 +3456,10 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C39" s="25">
@@ -3303,22 +3467,22 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>40</v>
+      <c r="A40" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="54" t="s">
+        <v>72</v>
       </c>
       <c r="C40" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>40</v>
+      <c r="A41" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="54" t="s">
+        <v>72</v>
       </c>
       <c r="C41" s="25">
         <v>2.5</v>
@@ -3362,21 +3526,21 @@
       <c r="C47" s="31"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="25" t="s">
-        <v>40</v>
+      <c r="A48" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="56" t="s">
+        <v>72</v>
       </c>
       <c r="C48" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="25" t="s">
+      <c r="A49" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="56" t="s">
         <v>15</v>
       </c>
       <c r="C49" s="25">
@@ -3384,11 +3548,11 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>17</v>
+      <c r="A50" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="56" t="s">
+        <v>70</v>
       </c>
       <c r="C50" s="25">
         <v>3</v>
@@ -3443,10 +3607,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B59" s="25" t="s">
-        <v>17</v>
+        <v>44</v>
+      </c>
+      <c r="B59" s="57" t="s">
+        <v>70</v>
       </c>
       <c r="C59" s="25">
         <v>3</v>
@@ -3511,10 +3675,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B70" s="25" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="B70" s="58" t="s">
+        <v>70</v>
       </c>
       <c r="C70" s="25">
         <v>5</v>
@@ -3788,8 +3952,8 @@
   </sheetPr>
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A52" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3893,10 +4057,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>17</v>
+        <v>48</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>70</v>
       </c>
       <c r="C15" s="25">
         <v>1</v>
@@ -3904,9 +4068,9 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="59" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="25">
@@ -3915,10 +4079,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>17</v>
+        <v>48</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>70</v>
       </c>
       <c r="C17" s="25">
         <v>1</v>
@@ -3928,8 +4092,8 @@
       <c r="A18" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>15</v>
+      <c r="B18" s="60" t="s">
+        <v>16</v>
       </c>
       <c r="C18" s="26">
         <v>1</v>
@@ -3939,7 +4103,7 @@
       <c r="A19" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="61" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="27">
@@ -3948,9 +4112,9 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="61" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="27">
@@ -3959,10 +4123,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>40</v>
+        <v>47</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>73</v>
       </c>
       <c r="C21" s="27">
         <v>3</v>
@@ -3987,10 +4151,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>17</v>
+        <v>48</v>
+      </c>
+      <c r="B24" s="62" t="s">
+        <v>70</v>
       </c>
       <c r="C24" s="25">
         <v>1</v>
@@ -3998,9 +4162,9 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="62" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="25">
@@ -4009,10 +4173,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="B26" s="62" t="s">
+        <v>53</v>
       </c>
       <c r="C26" s="25">
         <v>1</v>
@@ -4020,9 +4184,9 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="62" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="25">
@@ -4031,10 +4195,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>15</v>
+        <v>55</v>
+      </c>
+      <c r="B28" s="62" t="s">
+        <v>20</v>
       </c>
       <c r="C28" s="25">
         <v>0.75</v>
@@ -4042,10 +4206,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>40</v>
+        <v>47</v>
+      </c>
+      <c r="B29" s="64" t="s">
+        <v>73</v>
       </c>
       <c r="C29" s="25">
         <v>1</v>
@@ -4053,10 +4217,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="B30" s="63" t="s">
+        <v>74</v>
       </c>
       <c r="C30" s="26">
         <v>3</v>
@@ -4081,10 +4245,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="B33" s="65" t="s">
+        <v>74</v>
       </c>
       <c r="C33" s="25">
         <v>2</v>
@@ -4092,9 +4256,9 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="65" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="25">
@@ -4103,10 +4267,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="65" t="s">
+        <v>74</v>
       </c>
       <c r="C35" s="25">
         <v>5</v>
@@ -4136,10 +4300,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="B39" s="66" t="s">
+        <v>74</v>
       </c>
       <c r="C39" s="25">
         <v>1</v>
@@ -4147,9 +4311,9 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="66" t="s">
         <v>15</v>
       </c>
       <c r="C40" s="25">
@@ -4158,10 +4322,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>40</v>
+        <v>61</v>
+      </c>
+      <c r="B41" s="66" t="s">
+        <v>73</v>
       </c>
       <c r="C41" s="25">
         <v>2</v>
@@ -4169,10 +4333,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>48</v>
+        <v>59</v>
+      </c>
+      <c r="B42" s="66" t="s">
+        <v>46</v>
       </c>
       <c r="C42" s="25">
         <v>2.5</v>
@@ -4180,10 +4344,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>48</v>
+        <v>60</v>
+      </c>
+      <c r="B43" s="66" t="s">
+        <v>46</v>
       </c>
       <c r="C43" s="25">
         <v>1</v>
@@ -4208,9 +4372,9 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="67" t="s">
         <v>17</v>
       </c>
       <c r="C46" s="25">
@@ -4219,9 +4383,9 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="67" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="25">
@@ -4230,10 +4394,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="25" t="s">
-        <v>15</v>
+        <v>51</v>
+      </c>
+      <c r="B48" s="67" t="s">
+        <v>16</v>
       </c>
       <c r="C48" s="25">
         <v>1</v>
@@ -4241,10 +4405,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>15</v>
+        <v>57</v>
+      </c>
+      <c r="B49" s="67" t="s">
+        <v>74</v>
       </c>
       <c r="C49" s="25">
         <v>0.5</v>
@@ -4252,9 +4416,9 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="67" t="s">
         <v>15</v>
       </c>
       <c r="C50" s="25">
@@ -4263,10 +4427,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>17</v>
+        <v>62</v>
+      </c>
+      <c r="B51" s="67" t="s">
+        <v>75</v>
       </c>
       <c r="C51" s="25">
         <v>2</v>
@@ -4306,10 +4470,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="B57" s="68" t="s">
+        <v>75</v>
       </c>
       <c r="C57" s="25">
         <v>3</v>
@@ -4317,10 +4481,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B58" s="25" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="B58" s="68" t="s">
+        <v>75</v>
       </c>
       <c r="C58" s="25">
         <v>1.5</v>
@@ -4328,10 +4492,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B59" s="25" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="B59" s="68" t="s">
+        <v>75</v>
       </c>
       <c r="C59" s="25">
         <v>0.5</v>
@@ -4339,10 +4503,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B60" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="B60" s="68" t="s">
+        <v>75</v>
       </c>
       <c r="C60" s="25">
         <v>1</v>
@@ -4392,10 +4556,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="B68" s="69" t="s">
+        <v>76</v>
       </c>
       <c r="C68" s="25">
         <v>4</v>
@@ -4649,8 +4813,8 @@
   </sheetPr>
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -4758,24 +4922,48 @@
       <c r="C15" s="25"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+      <c r="A16" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
+      <c r="A18" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="26">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="27">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
@@ -4793,7 +4981,7 @@
       <c r="C22" s="27"/>
       <c r="D22">
         <f>SUM(C15:C22)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -4805,34 +4993,70 @@
       <c r="C23" s="31"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
+      <c r="A24" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
+      <c r="A25" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
+      <c r="A26" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
+      <c r="A27" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="25">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="A28" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
+      <c r="A29" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="25">
+        <v>4</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="19"/>
@@ -4845,7 +5069,7 @@
       <c r="C31" s="27"/>
       <c r="D31">
         <f>SUM(C24:C31)</f>
-        <v>0</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -4857,24 +5081,48 @@
       <c r="C32" s="31"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
+      <c r="A33" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
+      <c r="A34" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
+      <c r="A35" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="25">
+        <v>3</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
+      <c r="A36" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="20"/>
@@ -4882,7 +5130,7 @@
       <c r="C37" s="27"/>
       <c r="D37">
         <f>SUM(C33:C37)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -5131,7 +5379,7 @@
       <c r="B80" s="17"/>
       <c r="C80" s="32">
         <f>SUM(C14:C77)</f>
-        <v>0</v>
+        <v>21.75</v>
       </c>
       <c r="D80" s="13"/>
     </row>

--- a/personal-logs/ryan-koenig/WorkLog_rk.xlsx
+++ b/personal-logs/ryan-koenig/WorkLog_rk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\DataScience\Data599\w2020-data599-capstone-projects-ubc-udl\personal-logs\ryan-koenig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68490D72-EFFB-4F88-9972-E3EAFB449CCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E1359F-2177-4C25-A782-63108B89C28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="82">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -281,6 +281,12 @@
   </si>
   <si>
     <t>Internal Meeting Cover Pipeline</t>
+  </si>
+  <si>
+    <t>Data Cleaning -&gt; Training Pipeline</t>
+  </si>
+  <si>
+    <t>Inernal Morning Meeting</t>
   </si>
 </sst>
 </file>
@@ -996,152 +1002,152 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="20" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2367,18 +2373,18 @@
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="33">
+      <c r="A14" s="68">
         <f>D3</f>
         <v>44319</v>
       </c>
-      <c r="B14" s="34"/>
+      <c r="B14" s="69"/>
       <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="25">
@@ -2386,10 +2392,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="36" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="25">
@@ -2397,10 +2403,10 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="25">
@@ -2408,10 +2414,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="37" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="26">
@@ -2419,10 +2425,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="38" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="27">
@@ -2430,8 +2436,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="37"/>
-      <c r="B20" s="40"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="27"/>
       <c r="D20">
         <f>SUM(C15:C20)</f>
@@ -2439,17 +2445,17 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="33">
+      <c r="A21" s="68">
         <v>44320</v>
       </c>
-      <c r="B21" s="34"/>
+      <c r="B21" s="69"/>
       <c r="C21" s="31"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="36" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="25">
@@ -2457,10 +2463,10 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="36" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="25">
@@ -2468,10 +2474,10 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="25">
@@ -2479,10 +2485,10 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="36" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="25">
@@ -2490,10 +2496,10 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="25">
@@ -2501,10 +2507,10 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="37" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="26">
@@ -2512,8 +2518,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="37"/>
-      <c r="B28" s="40"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="27"/>
       <c r="D28">
         <f>SUM(C22:C28)</f>
@@ -2521,17 +2527,17 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="33">
+      <c r="A29" s="68">
         <v>44321</v>
       </c>
-      <c r="B29" s="34"/>
+      <c r="B29" s="69"/>
       <c r="C29" s="31"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="25">
@@ -2539,10 +2545,10 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="36" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="25">
@@ -2550,10 +2556,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="25">
@@ -2561,10 +2567,10 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="25">
@@ -2572,8 +2578,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="37"/>
-      <c r="B34" s="40"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="27"/>
       <c r="D34">
         <f>SUM(C30:C34)</f>
@@ -2581,17 +2587,17 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="33">
+      <c r="A35" s="68">
         <v>44322</v>
       </c>
-      <c r="B35" s="34"/>
+      <c r="B35" s="69"/>
       <c r="C35" s="31"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C36" s="25">
@@ -2599,10 +2605,10 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="25">
@@ -2610,10 +2616,10 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="25">
@@ -2621,10 +2627,10 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="25">
@@ -2632,10 +2638,10 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="38" t="s">
+      <c r="B40" s="36" t="s">
         <v>16</v>
       </c>
       <c r="C40" s="25">
@@ -2643,10 +2649,10 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C41" s="25">
@@ -2654,10 +2660,10 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="37" t="s">
         <v>17</v>
       </c>
       <c r="C42" s="26">
@@ -2665,18 +2671,18 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="37"/>
-      <c r="B43" s="40"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="38"/>
       <c r="C43" s="27"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="37"/>
-      <c r="B44" s="40"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="38"/>
       <c r="C44" s="27"/>
     </row>
     <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="37"/>
-      <c r="B45" s="40"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="38"/>
       <c r="C45" s="27"/>
       <c r="D45">
         <f>SUM(C36:C45)</f>
@@ -2684,17 +2690,17 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="33">
+      <c r="A46" s="68">
         <v>44323</v>
       </c>
-      <c r="B46" s="34"/>
+      <c r="B46" s="69"/>
       <c r="C46" s="31"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="25">
@@ -2702,48 +2708,48 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="35"/>
-      <c r="B48" s="38"/>
+      <c r="A48" s="33"/>
+      <c r="B48" s="36"/>
       <c r="C48" s="25"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="35"/>
-      <c r="B49" s="38"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="36"/>
       <c r="C49" s="25"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="35"/>
-      <c r="B50" s="38"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="36"/>
       <c r="C50" s="25"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="35"/>
-      <c r="B51" s="38"/>
+      <c r="A51" s="33"/>
+      <c r="B51" s="36"/>
       <c r="C51" s="25"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="35"/>
-      <c r="B52" s="38"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="36"/>
       <c r="C52" s="25"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="36"/>
-      <c r="B53" s="39"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="37"/>
       <c r="C53" s="26"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="37"/>
-      <c r="B54" s="40"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="38"/>
       <c r="C54" s="27"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="37"/>
-      <c r="B55" s="40"/>
+      <c r="A55" s="35"/>
+      <c r="B55" s="38"/>
       <c r="C55" s="27"/>
     </row>
     <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="37"/>
-      <c r="B56" s="40"/>
+      <c r="A56" s="35"/>
+      <c r="B56" s="38"/>
       <c r="C56" s="27"/>
       <c r="D56">
         <f>SUM(C47:C56)</f>
@@ -2751,17 +2757,17 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="33">
+      <c r="A57" s="68">
         <v>44324</v>
       </c>
-      <c r="B57" s="34"/>
+      <c r="B57" s="69"/>
       <c r="C57" s="31"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="35" t="s">
+      <c r="A58" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B58" s="38" t="s">
+      <c r="B58" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C58" s="25">
@@ -2769,48 +2775,48 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="35"/>
-      <c r="B59" s="38"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="36"/>
       <c r="C59" s="25"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="35"/>
-      <c r="B60" s="38"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="36"/>
       <c r="C60" s="25"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="35"/>
-      <c r="B61" s="38"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="36"/>
       <c r="C61" s="25"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="35"/>
-      <c r="B62" s="38"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="36"/>
       <c r="C62" s="25"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="35"/>
-      <c r="B63" s="38"/>
+      <c r="A63" s="33"/>
+      <c r="B63" s="36"/>
       <c r="C63" s="25"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="36"/>
-      <c r="B64" s="39"/>
+      <c r="A64" s="34"/>
+      <c r="B64" s="37"/>
       <c r="C64" s="26"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="37"/>
-      <c r="B65" s="40"/>
+      <c r="A65" s="35"/>
+      <c r="B65" s="38"/>
       <c r="C65" s="27"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="37"/>
-      <c r="B66" s="40"/>
+      <c r="A66" s="35"/>
+      <c r="B66" s="38"/>
       <c r="C66" s="27"/>
     </row>
     <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="37"/>
-      <c r="B67" s="40"/>
+      <c r="A67" s="35"/>
+      <c r="B67" s="38"/>
       <c r="C67" s="27"/>
       <c r="D67">
         <f>SUM(C58:C67)</f>
@@ -2818,17 +2824,17 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="33">
+      <c r="A68" s="68">
         <v>44325</v>
       </c>
-      <c r="B68" s="34"/>
+      <c r="B68" s="69"/>
       <c r="C68" s="31"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="35" t="s">
+      <c r="A69" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B69" s="38" t="s">
+      <c r="B69" s="36" t="s">
         <v>33</v>
       </c>
       <c r="C69" s="25">
@@ -2836,10 +2842,10 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="35" t="s">
+      <c r="A70" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B70" s="38" t="s">
+      <c r="B70" s="36" t="s">
         <v>70</v>
       </c>
       <c r="C70" s="25">
@@ -2847,38 +2853,38 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="35"/>
-      <c r="B71" s="38"/>
+      <c r="A71" s="33"/>
+      <c r="B71" s="36"/>
       <c r="C71" s="25"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="35"/>
-      <c r="B72" s="38"/>
+      <c r="A72" s="33"/>
+      <c r="B72" s="36"/>
       <c r="C72" s="25"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="35"/>
-      <c r="B73" s="38"/>
+      <c r="A73" s="33"/>
+      <c r="B73" s="36"/>
       <c r="C73" s="25"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="35"/>
-      <c r="B74" s="38"/>
+      <c r="A74" s="33"/>
+      <c r="B74" s="36"/>
       <c r="C74" s="25"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="36"/>
-      <c r="B75" s="39"/>
+      <c r="A75" s="34"/>
+      <c r="B75" s="37"/>
       <c r="C75" s="26"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="37"/>
-      <c r="B76" s="40"/>
+      <c r="A76" s="35"/>
+      <c r="B76" s="38"/>
       <c r="C76" s="27"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="37"/>
-      <c r="B77" s="40"/>
+      <c r="A77" s="35"/>
+      <c r="B77" s="38"/>
       <c r="C77" s="27"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -3109,7 +3115,7 @@
   </sheetPr>
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -3205,18 +3211,18 @@
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="33">
+      <c r="A14" s="68">
         <f>D3</f>
         <v>44326</v>
       </c>
-      <c r="B14" s="34"/>
+      <c r="B14" s="69"/>
       <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="42" t="s">
         <v>70</v>
       </c>
       <c r="C15" s="25">
@@ -3224,10 +3230,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="42" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="25">
@@ -3235,10 +3241,10 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="42" t="s">
         <v>70</v>
       </c>
       <c r="C17" s="25">
@@ -3246,10 +3252,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="43" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="26">
@@ -3257,10 +3263,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="44" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="27">
@@ -3268,10 +3274,10 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="44" t="s">
         <v>71</v>
       </c>
       <c r="C20" s="27">
@@ -3288,18 +3294,18 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="33">
+      <c r="A22" s="68">
         <f>A14+1</f>
         <v>44327</v>
       </c>
-      <c r="B22" s="34"/>
+      <c r="B22" s="69"/>
       <c r="C22" s="31"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="47" t="s">
         <v>71</v>
       </c>
       <c r="C23" s="25">
@@ -3307,10 +3313,10 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="47" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="25">
@@ -3318,10 +3324,10 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="47" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="25">
@@ -3329,10 +3335,10 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="47" t="s">
         <v>71</v>
       </c>
       <c r="C26" s="25">
@@ -3340,10 +3346,10 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="47" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="25">
@@ -3351,10 +3357,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="48" t="s">
         <v>71</v>
       </c>
       <c r="C28" s="26">
@@ -3371,18 +3377,18 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="33">
+      <c r="A30" s="68">
         <f>A22+1</f>
         <v>44328</v>
       </c>
-      <c r="B30" s="34"/>
+      <c r="B30" s="69"/>
       <c r="C30" s="31"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="50" t="s">
         <v>72</v>
       </c>
       <c r="C31" s="25">
@@ -3390,10 +3396,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="52" t="s">
+      <c r="B32" s="50" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="25">
@@ -3401,10 +3407,10 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="50" t="s">
         <v>72</v>
       </c>
       <c r="C33" s="25">
@@ -3426,18 +3432,18 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="33">
+      <c r="A36" s="68">
         <f>A30+1</f>
         <v>44329</v>
       </c>
-      <c r="B36" s="34"/>
+      <c r="B36" s="69"/>
       <c r="C36" s="31"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="53" t="s">
+      <c r="A37" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="52" t="s">
         <v>70</v>
       </c>
       <c r="C37" s="25">
@@ -3445,10 +3451,10 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="52" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="25">
@@ -3456,10 +3462,10 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="54" t="s">
+      <c r="B39" s="52" t="s">
         <v>15</v>
       </c>
       <c r="C39" s="25">
@@ -3467,10 +3473,10 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="52" t="s">
         <v>72</v>
       </c>
       <c r="C40" s="25">
@@ -3478,10 +3484,10 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="52" t="s">
         <v>72</v>
       </c>
       <c r="C41" s="25">
@@ -3518,18 +3524,18 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="33">
+      <c r="A47" s="68">
         <f>A36+1</f>
         <v>44330</v>
       </c>
-      <c r="B47" s="34"/>
+      <c r="B47" s="69"/>
       <c r="C47" s="31"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="55" t="s">
+      <c r="A48" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="54" t="s">
         <v>72</v>
       </c>
       <c r="C48" s="25">
@@ -3537,10 +3543,10 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="55" t="s">
+      <c r="A49" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="56" t="s">
+      <c r="B49" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C49" s="25">
@@ -3548,10 +3554,10 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="55" t="s">
+      <c r="A50" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="56" t="s">
+      <c r="B50" s="54" t="s">
         <v>70</v>
       </c>
       <c r="C50" s="25">
@@ -3598,18 +3604,18 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="33">
+      <c r="A58" s="68">
         <f>A47+1</f>
         <v>44331</v>
       </c>
-      <c r="B58" s="34"/>
+      <c r="B58" s="69"/>
       <c r="C58" s="31"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B59" s="57" t="s">
+      <c r="B59" s="55" t="s">
         <v>70</v>
       </c>
       <c r="C59" s="25">
@@ -3666,18 +3672,18 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="33">
+      <c r="A69" s="68">
         <f>A58+1</f>
         <v>44332</v>
       </c>
-      <c r="B69" s="34"/>
+      <c r="B69" s="69"/>
       <c r="C69" s="31"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B70" s="58" t="s">
+      <c r="B70" s="56" t="s">
         <v>70</v>
       </c>
       <c r="C70" s="25">
@@ -4048,18 +4054,18 @@
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="33">
+      <c r="A14" s="68">
         <f>D3</f>
         <v>44333</v>
       </c>
-      <c r="B14" s="34"/>
+      <c r="B14" s="69"/>
       <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="57" t="s">
         <v>70</v>
       </c>
       <c r="C15" s="25">
@@ -4070,7 +4076,7 @@
       <c r="A16" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="57" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="25">
@@ -4081,7 +4087,7 @@
       <c r="A17" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="57" t="s">
         <v>70</v>
       </c>
       <c r="C17" s="25">
@@ -4092,7 +4098,7 @@
       <c r="A18" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="58" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="26">
@@ -4103,7 +4109,7 @@
       <c r="A19" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="59" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="27">
@@ -4114,7 +4120,7 @@
       <c r="A20" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="59" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="27">
@@ -4125,7 +4131,7 @@
       <c r="A21" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="59" t="s">
         <v>73</v>
       </c>
       <c r="C21" s="27">
@@ -4142,18 +4148,18 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="33">
+      <c r="A23" s="68">
         <f>A14+1</f>
         <v>44334</v>
       </c>
-      <c r="B23" s="34"/>
+      <c r="B23" s="69"/>
       <c r="C23" s="31"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="60" t="s">
         <v>70</v>
       </c>
       <c r="C24" s="25">
@@ -4164,7 +4170,7 @@
       <c r="A25" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="60" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="25">
@@ -4175,7 +4181,7 @@
       <c r="A26" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="60" t="s">
         <v>53</v>
       </c>
       <c r="C26" s="25">
@@ -4186,7 +4192,7 @@
       <c r="A27" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="60" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="25">
@@ -4197,7 +4203,7 @@
       <c r="A28" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="60" t="s">
         <v>20</v>
       </c>
       <c r="C28" s="25">
@@ -4208,7 +4214,7 @@
       <c r="A29" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="62" t="s">
         <v>73</v>
       </c>
       <c r="C29" s="25">
@@ -4219,7 +4225,7 @@
       <c r="A30" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="63" t="s">
+      <c r="B30" s="61" t="s">
         <v>74</v>
       </c>
       <c r="C30" s="26">
@@ -4236,18 +4242,18 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="33">
+      <c r="A32" s="68">
         <f>A23+1</f>
         <v>44335</v>
       </c>
-      <c r="B32" s="34"/>
+      <c r="B32" s="69"/>
       <c r="C32" s="31"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="63" t="s">
         <v>74</v>
       </c>
       <c r="C33" s="25">
@@ -4258,7 +4264,7 @@
       <c r="A34" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="65" t="s">
+      <c r="B34" s="63" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="25">
@@ -4269,7 +4275,7 @@
       <c r="A35" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="63" t="s">
         <v>74</v>
       </c>
       <c r="C35" s="25">
@@ -4291,18 +4297,18 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="33">
+      <c r="A38" s="68">
         <f>A32+1</f>
         <v>44336</v>
       </c>
-      <c r="B38" s="34"/>
+      <c r="B38" s="69"/>
       <c r="C38" s="31"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="66" t="s">
+      <c r="B39" s="64" t="s">
         <v>74</v>
       </c>
       <c r="C39" s="25">
@@ -4313,7 +4319,7 @@
       <c r="A40" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="66" t="s">
+      <c r="B40" s="64" t="s">
         <v>15</v>
       </c>
       <c r="C40" s="25">
@@ -4324,7 +4330,7 @@
       <c r="A41" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="66" t="s">
+      <c r="B41" s="64" t="s">
         <v>73</v>
       </c>
       <c r="C41" s="25">
@@ -4335,7 +4341,7 @@
       <c r="A42" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="66" t="s">
+      <c r="B42" s="64" t="s">
         <v>46</v>
       </c>
       <c r="C42" s="25">
@@ -4346,7 +4352,7 @@
       <c r="A43" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="66" t="s">
+      <c r="B43" s="64" t="s">
         <v>46</v>
       </c>
       <c r="C43" s="25">
@@ -4363,18 +4369,18 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="33">
+      <c r="A45" s="68">
         <f>A38+1</f>
         <v>44337</v>
       </c>
-      <c r="B45" s="34"/>
+      <c r="B45" s="69"/>
       <c r="C45" s="31"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="67" t="s">
+      <c r="B46" s="65" t="s">
         <v>17</v>
       </c>
       <c r="C46" s="25">
@@ -4385,7 +4391,7 @@
       <c r="A47" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="67" t="s">
+      <c r="B47" s="65" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="25">
@@ -4396,7 +4402,7 @@
       <c r="A48" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="67" t="s">
+      <c r="B48" s="65" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="25">
@@ -4407,7 +4413,7 @@
       <c r="A49" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="67" t="s">
+      <c r="B49" s="65" t="s">
         <v>74</v>
       </c>
       <c r="C49" s="25">
@@ -4418,7 +4424,7 @@
       <c r="A50" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B50" s="67" t="s">
+      <c r="B50" s="65" t="s">
         <v>15</v>
       </c>
       <c r="C50" s="25">
@@ -4429,7 +4435,7 @@
       <c r="A51" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B51" s="67" t="s">
+      <c r="B51" s="65" t="s">
         <v>75</v>
       </c>
       <c r="C51" s="25">
@@ -4461,18 +4467,18 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="33">
+      <c r="A56" s="68">
         <f>A45+1</f>
         <v>44338</v>
       </c>
-      <c r="B56" s="34"/>
+      <c r="B56" s="69"/>
       <c r="C56" s="31"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B57" s="68" t="s">
+      <c r="B57" s="66" t="s">
         <v>75</v>
       </c>
       <c r="C57" s="25">
@@ -4483,7 +4489,7 @@
       <c r="A58" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B58" s="68" t="s">
+      <c r="B58" s="66" t="s">
         <v>75</v>
       </c>
       <c r="C58" s="25">
@@ -4494,7 +4500,7 @@
       <c r="A59" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="68" t="s">
+      <c r="B59" s="66" t="s">
         <v>75</v>
       </c>
       <c r="C59" s="25">
@@ -4505,7 +4511,7 @@
       <c r="A60" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="68" t="s">
+      <c r="B60" s="66" t="s">
         <v>75</v>
       </c>
       <c r="C60" s="25">
@@ -4547,18 +4553,18 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="33">
+      <c r="A67" s="68">
         <f>A56+1</f>
         <v>44339</v>
       </c>
-      <c r="B67" s="34"/>
+      <c r="B67" s="69"/>
       <c r="C67" s="31"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B68" s="69" t="s">
+      <c r="B68" s="67" t="s">
         <v>76</v>
       </c>
       <c r="C68" s="25">
@@ -4813,8 +4819,8 @@
   </sheetPr>
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -4909,11 +4915,11 @@
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="33">
+      <c r="A14" s="68">
         <f>D3</f>
         <v>44340</v>
       </c>
-      <c r="B14" s="34"/>
+      <c r="B14" s="69"/>
       <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -4985,11 +4991,11 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="33">
+      <c r="A23" s="68">
         <f>A14+1</f>
         <v>44341</v>
       </c>
-      <c r="B23" s="34"/>
+      <c r="B23" s="69"/>
       <c r="C23" s="31"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -5073,11 +5079,11 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="33">
+      <c r="A32" s="68">
         <f>A23+1</f>
         <v>44342</v>
       </c>
-      <c r="B32" s="34"/>
+      <c r="B32" s="69"/>
       <c r="C32" s="31"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -5134,32 +5140,56 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="33">
+      <c r="A38" s="68">
         <f>A32+1</f>
         <v>44343</v>
       </c>
-      <c r="B38" s="34"/>
+      <c r="B38" s="69"/>
       <c r="C38" s="31"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
+      <c r="A39" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
+      <c r="A40" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="67">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
+      <c r="A41" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
+      <c r="A42" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="18"/>
@@ -5172,15 +5202,15 @@
       <c r="C44" s="27"/>
       <c r="D44">
         <f>SUM(C39:C44)</f>
-        <v>0</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="33">
+      <c r="A45" s="68">
         <f>A38+1</f>
         <v>44344</v>
       </c>
-      <c r="B45" s="34"/>
+      <c r="B45" s="69"/>
       <c r="C45" s="31"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -5238,11 +5268,11 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="33">
+      <c r="A56" s="68">
         <f>A45+1</f>
         <v>44345</v>
       </c>
-      <c r="B56" s="34"/>
+      <c r="B56" s="69"/>
       <c r="C56" s="31"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -5300,11 +5330,11 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="33">
+      <c r="A67" s="68">
         <f>A56+1</f>
         <v>44346</v>
       </c>
-      <c r="B67" s="34"/>
+      <c r="B67" s="69"/>
       <c r="C67" s="31"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -5379,7 +5409,7 @@
       <c r="B80" s="17"/>
       <c r="C80" s="32">
         <f>SUM(C14:C77)</f>
-        <v>21.75</v>
+        <v>27.25</v>
       </c>
       <c r="D80" s="13"/>
     </row>

--- a/personal-logs/ryan-koenig/WorkLog_rk.xlsx
+++ b/personal-logs/ryan-koenig/WorkLog_rk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\DataScience\Data599\w2020-data599-capstone-projects-ubc-udl\personal-logs\ryan-koenig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E1359F-2177-4C25-A782-63108B89C28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83528104-D294-430F-AB5D-4D1E09200E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="84">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -277,9 +277,6 @@
     <t>Week 4 Update Presentation</t>
   </si>
   <si>
-    <t>Data Cleaning Pipeling</t>
-  </si>
-  <si>
     <t>Internal Meeting Cover Pipeline</t>
   </si>
   <si>
@@ -287,6 +284,15 @@
   </si>
   <si>
     <t>Inernal Morning Meeting</t>
+  </si>
+  <si>
+    <t>Dating Cleaning -&gt; Predict Pipeline</t>
+  </si>
+  <si>
+    <t>Model Evaulation</t>
+  </si>
+  <si>
+    <t>Model Evaluation on Dataset 5</t>
   </si>
 </sst>
 </file>
@@ -3958,7 +3964,7 @@
   </sheetPr>
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -4819,8 +4825,8 @@
   </sheetPr>
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -4940,7 +4946,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B17" s="25" t="s">
         <v>67</v>
@@ -4951,7 +4957,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B18" s="26" t="s">
         <v>33</v>
@@ -4962,7 +4968,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B19" s="27" t="s">
         <v>67</v>
@@ -5149,7 +5155,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B39" s="25" t="s">
         <v>67</v>
@@ -5160,7 +5166,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B40" s="67" t="s">
         <v>67</v>
@@ -5182,7 +5188,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="18" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="B42" s="25" t="s">
         <v>15</v>
@@ -5192,9 +5198,15 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
+      <c r="A43" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="20"/>
@@ -5202,7 +5214,7 @@
       <c r="C44" s="27"/>
       <c r="D44">
         <f>SUM(C39:C44)</f>
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -5214,29 +5226,59 @@
       <c r="C45" s="31"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="18"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
+      <c r="A46" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="18"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
+      <c r="A47" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="18"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
+      <c r="A48" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="25">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="18"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
+      <c r="A49" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="25">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="18"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
+      <c r="A50" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="18"/>
@@ -5264,7 +5306,7 @@
       <c r="C55" s="27"/>
       <c r="D55">
         <f>SUM(C46:C55)</f>
-        <v>0</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -5409,7 +5451,7 @@
       <c r="B80" s="17"/>
       <c r="C80" s="32">
         <f>SUM(C14:C77)</f>
-        <v>27.25</v>
+        <v>36</v>
       </c>
       <c r="D80" s="13"/>
     </row>
@@ -5491,12 +5533,12 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47:B55 A46">
+  <conditionalFormatting sqref="A46 A47:B55">
     <cfRule type="expression" dxfId="16" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47:B51 A46">
+  <conditionalFormatting sqref="A46 A47:B51">
     <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/personal-logs/ryan-koenig/WorkLog_rk.xlsx
+++ b/personal-logs/ryan-koenig/WorkLog_rk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\DataScience\Data599\w2020-data599-capstone-projects-ubc-udl\personal-logs\ryan-koenig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83528104-D294-430F-AB5D-4D1E09200E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB0C39C-E5C5-4FD3-9C3A-C58E5A778295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4825,8 +4825,8 @@
   </sheetPr>
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -5277,7 +5277,7 @@
         <v>82</v>
       </c>
       <c r="C50" s="25">
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -5306,7 +5306,7 @@
       <c r="C55" s="27"/>
       <c r="D55">
         <f>SUM(C46:C55)</f>
-        <v>6.75</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -5451,7 +5451,7 @@
       <c r="B80" s="17"/>
       <c r="C80" s="32">
         <f>SUM(C14:C77)</f>
-        <v>36</v>
+        <v>37.5</v>
       </c>
       <c r="D80" s="13"/>
     </row>

--- a/personal-logs/ryan-koenig/WorkLog_rk.xlsx
+++ b/personal-logs/ryan-koenig/WorkLog_rk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\DataScience\Data599\w2020-data599-capstone-projects-ubc-udl\personal-logs\ryan-koenig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB0C39C-E5C5-4FD3-9C3A-C58E5A778295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C732A7A9-B6A3-4B00-83F9-CD149BE353C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="87">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -293,6 +293,15 @@
   </si>
   <si>
     <t>Model Evaluation on Dataset 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal Meetings </t>
+  </si>
+  <si>
+    <t>Model Investigation</t>
+  </si>
+  <si>
+    <t>Model Evaluation</t>
   </si>
 </sst>
 </file>
@@ -4825,8 +4834,8 @@
   </sheetPr>
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -5318,24 +5327,48 @@
       <c r="C56" s="31"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="18"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
+      <c r="A57" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="18"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
+      <c r="A58" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" s="25">
+        <v>3</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="18"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
+      <c r="A59" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="18"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
+      <c r="A60" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" s="25">
+        <v>4</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="18"/>
@@ -5368,7 +5401,7 @@
       <c r="C66" s="27"/>
       <c r="D66">
         <f>SUM(C57:C66)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -5451,7 +5484,7 @@
       <c r="B80" s="17"/>
       <c r="C80" s="32">
         <f>SUM(C14:C77)</f>
-        <v>37.5</v>
+        <v>45.5</v>
       </c>
       <c r="D80" s="13"/>
     </row>

--- a/personal-logs/ryan-koenig/WorkLog_rk.xlsx
+++ b/personal-logs/ryan-koenig/WorkLog_rk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\DataScience\Data599\w2020-data599-capstone-projects-ubc-udl\personal-logs\ryan-koenig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C732A7A9-B6A3-4B00-83F9-CD149BE353C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E5914C-9EF9-4D03-891D-49933AC65ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="88">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t>Model Evaluation</t>
+  </si>
+  <si>
+    <t>Notebook Adjusting</t>
   </si>
 </sst>
 </file>
@@ -4834,8 +4837,8 @@
   </sheetPr>
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -5413,29 +5416,59 @@
       <c r="C67" s="31"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="18"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
+      <c r="A68" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="25">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="18"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
+      <c r="A69" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="18"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
+      <c r="A70" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" s="25">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="18"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
+      <c r="A71" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="18"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
+      <c r="A72" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="18"/>
@@ -5463,7 +5496,7 @@
       <c r="C77" s="27"/>
       <c r="D77">
         <f>SUM(C68:C77)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -5484,7 +5517,7 @@
       <c r="B80" s="17"/>
       <c r="C80" s="32">
         <f>SUM(C14:C77)</f>
-        <v>45.5</v>
+        <v>52.5</v>
       </c>
       <c r="D80" s="13"/>
     </row>

--- a/personal-logs/ryan-koenig/WorkLog_rk.xlsx
+++ b/personal-logs/ryan-koenig/WorkLog_rk.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\DataScience\Data599\w2020-data599-capstone-projects-ubc-udl\personal-logs\ryan-koenig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\DataScience\Data599\Local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E5914C-9EF9-4D03-891D-49933AC65ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01757AB8-2845-493E-93E6-0BB0D268C860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 1'!$A$1:$D$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 2'!$A$1:$D$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Week 3'!$A$1:$D$55</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Week 4'!$A$1:$D$55</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -244,55 +243,55 @@
     <t>Data Labelling</t>
   </si>
   <si>
+    <t>EDA</t>
+  </si>
+  <si>
+    <t>Parsing Data</t>
+  </si>
+  <si>
+    <t>Setup/learn InfluxDB/Telegraf</t>
+  </si>
+  <si>
+    <t>Parsing for UDL</t>
+  </si>
+  <si>
+    <t>Anomaly Model Research</t>
+  </si>
+  <si>
+    <t>Anomaly Labelling</t>
+  </si>
+  <si>
+    <t>Download Data</t>
+  </si>
+  <si>
+    <t>Internal Morning Meeting</t>
+  </si>
+  <si>
+    <t>Data Cleaning Pipeline</t>
+  </si>
+  <si>
     <t>Coding</t>
   </si>
   <si>
-    <t>Internal Morning Meeting</t>
-  </si>
-  <si>
-    <t>Data Cleaning Pipeline</t>
-  </si>
-  <si>
-    <t>EDA</t>
-  </si>
-  <si>
-    <t>Setup/learn InfluxDB/Telegraf</t>
-  </si>
-  <si>
-    <t>Parsing Data</t>
-  </si>
-  <si>
-    <t>Parsing for UDL</t>
-  </si>
-  <si>
-    <t>Anomaly Model Research</t>
-  </si>
-  <si>
-    <t>Download Data</t>
-  </si>
-  <si>
-    <t>Anomaly Labelling</t>
+    <t>Internal Meeting Cover Pipeline</t>
   </si>
   <si>
     <t>Week 4 Update Presentation</t>
   </si>
   <si>
-    <t>Internal Meeting Cover Pipeline</t>
+    <t>Inernal Morning Meeting</t>
   </si>
   <si>
     <t>Data Cleaning -&gt; Training Pipeline</t>
   </si>
   <si>
-    <t>Inernal Morning Meeting</t>
-  </si>
-  <si>
     <t>Dating Cleaning -&gt; Predict Pipeline</t>
   </si>
   <si>
+    <t>Model Evaluation on Dataset 5</t>
+  </si>
+  <si>
     <t>Model Evaulation</t>
-  </si>
-  <si>
-    <t>Model Evaluation on Dataset 5</t>
   </si>
   <si>
     <t xml:space="preserve">Internal Meetings </t>
@@ -311,8 +310,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
@@ -863,7 +861,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -908,9 +906,8 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1020,146 +1017,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="20" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1168,8 +1025,25 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
@@ -1198,7 +1072,6 @@
     <cellStyle name="Calculation" xfId="26" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="27" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Comma" xfId="43" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="44" xr:uid="{DD74FA47-2B6D-4236-81FC-CDE6DEFE2F6F}"/>
     <cellStyle name="Explanatory Text" xfId="28" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="29" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="30" builtinId="16" customBuiltin="1"/>
@@ -2295,8 +2168,8 @@
   </sheetPr>
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2391,18 +2264,18 @@
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="68">
+      <c r="A14" s="33">
         <f>D3</f>
         <v>44319</v>
       </c>
-      <c r="B14" s="69"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="25">
@@ -2410,10 +2283,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="25">
@@ -2421,10 +2294,10 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="25">
@@ -2432,10 +2305,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="26">
@@ -2443,10 +2316,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="27">
@@ -2454,8 +2327,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="35"/>
-      <c r="B20" s="38"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="27"/>
       <c r="D20">
         <f>SUM(C15:C20)</f>
@@ -2463,17 +2336,18 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="68">
+      <c r="A21" s="33">
+        <f>A14+1</f>
         <v>44320</v>
       </c>
-      <c r="B21" s="69"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="31"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="25" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="25">
@@ -2481,10 +2355,10 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="25" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="25">
@@ -2492,10 +2366,10 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="25">
@@ -2503,10 +2377,10 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="25" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="25">
@@ -2514,10 +2388,10 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="25">
@@ -2525,10 +2399,10 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="26" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="26">
@@ -2536,8 +2410,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="35"/>
-      <c r="B28" s="38"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="27"/>
       <c r="D28">
         <f>SUM(C22:C28)</f>
@@ -2545,17 +2419,18 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="68">
+      <c r="A29" s="33">
+        <f>A21+1</f>
         <v>44321</v>
       </c>
-      <c r="B29" s="69"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="31"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="25">
@@ -2563,10 +2438,10 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="25">
@@ -2574,10 +2449,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="25">
@@ -2585,10 +2460,10 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="25">
@@ -2596,8 +2471,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="35"/>
-      <c r="B34" s="38"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="27"/>
       <c r="D34">
         <f>SUM(C30:C34)</f>
@@ -2605,17 +2480,18 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="68">
+      <c r="A35" s="33">
+        <f>A29+1</f>
         <v>44322</v>
       </c>
-      <c r="B35" s="69"/>
+      <c r="B35" s="34"/>
       <c r="C35" s="31"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C36" s="25">
@@ -2623,10 +2499,10 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="25">
@@ -2634,10 +2510,10 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="25">
@@ -2645,10 +2521,10 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="25">
@@ -2656,10 +2532,10 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C40" s="25">
@@ -2667,10 +2543,10 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C41" s="25">
@@ -2678,10 +2554,10 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="37" t="s">
+      <c r="B42" s="26" t="s">
         <v>17</v>
       </c>
       <c r="C42" s="26">
@@ -2689,18 +2565,18 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="35"/>
-      <c r="B43" s="38"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="27"/>
       <c r="C43" s="27"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="35"/>
-      <c r="B44" s="38"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="27"/>
       <c r="C44" s="27"/>
     </row>
     <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="35"/>
-      <c r="B45" s="38"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="27"/>
       <c r="C45" s="27"/>
       <c r="D45">
         <f>SUM(C36:C45)</f>
@@ -2708,17 +2584,18 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="68">
+      <c r="A46" s="33">
+        <f>A35+1</f>
         <v>44323</v>
       </c>
-      <c r="B46" s="69"/>
+      <c r="B46" s="34"/>
       <c r="C46" s="31"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="33" t="s">
+      <c r="A47" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="25">
@@ -2726,48 +2603,48 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="33"/>
-      <c r="B48" s="36"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="25"/>
       <c r="C48" s="25"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="33"/>
-      <c r="B49" s="36"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="25"/>
       <c r="C49" s="25"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="33"/>
-      <c r="B50" s="36"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="25"/>
       <c r="C50" s="25"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="33"/>
-      <c r="B51" s="36"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="25"/>
       <c r="C51" s="25"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="33"/>
-      <c r="B52" s="36"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="25"/>
       <c r="C52" s="25"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="34"/>
-      <c r="B53" s="37"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="26"/>
       <c r="C53" s="26"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="35"/>
-      <c r="B54" s="38"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="27"/>
       <c r="C54" s="27"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="35"/>
-      <c r="B55" s="38"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="27"/>
       <c r="C55" s="27"/>
     </row>
     <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="35"/>
-      <c r="B56" s="38"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="27"/>
       <c r="C56" s="27"/>
       <c r="D56">
         <f>SUM(C47:C56)</f>
@@ -2775,17 +2652,18 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="68">
+      <c r="A57" s="33">
+        <f>A46+1</f>
         <v>44324</v>
       </c>
-      <c r="B57" s="69"/>
+      <c r="B57" s="34"/>
       <c r="C57" s="31"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="33" t="s">
+      <c r="A58" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B58" s="36" t="s">
+      <c r="B58" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C58" s="25">
@@ -2793,48 +2671,48 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="33"/>
-      <c r="B59" s="36"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="25"/>
       <c r="C59" s="25"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="33"/>
-      <c r="B60" s="36"/>
+      <c r="A60" s="18"/>
+      <c r="B60" s="25"/>
       <c r="C60" s="25"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="33"/>
-      <c r="B61" s="36"/>
+      <c r="A61" s="18"/>
+      <c r="B61" s="25"/>
       <c r="C61" s="25"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="33"/>
-      <c r="B62" s="36"/>
+      <c r="A62" s="18"/>
+      <c r="B62" s="25"/>
       <c r="C62" s="25"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="33"/>
-      <c r="B63" s="36"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="25"/>
       <c r="C63" s="25"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="34"/>
-      <c r="B64" s="37"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="26"/>
       <c r="C64" s="26"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="35"/>
-      <c r="B65" s="38"/>
+      <c r="A65" s="20"/>
+      <c r="B65" s="27"/>
       <c r="C65" s="27"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="35"/>
-      <c r="B66" s="38"/>
+      <c r="A66" s="20"/>
+      <c r="B66" s="27"/>
       <c r="C66" s="27"/>
     </row>
     <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="35"/>
-      <c r="B67" s="38"/>
+      <c r="A67" s="20"/>
+      <c r="B67" s="27"/>
       <c r="C67" s="27"/>
       <c r="D67">
         <f>SUM(C58:C67)</f>
@@ -2842,17 +2720,18 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="68">
+      <c r="A68" s="33">
+        <f>A57+1</f>
         <v>44325</v>
       </c>
-      <c r="B68" s="69"/>
+      <c r="B68" s="34"/>
       <c r="C68" s="31"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="33" t="s">
+      <c r="A69" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B69" s="36" t="s">
+      <c r="B69" s="25" t="s">
         <v>33</v>
       </c>
       <c r="C69" s="25">
@@ -2860,49 +2739,49 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="33" t="s">
+      <c r="A70" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B70" s="36" t="s">
-        <v>70</v>
+      <c r="B70" s="25" t="s">
+        <v>67</v>
       </c>
       <c r="C70" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="33"/>
-      <c r="B71" s="36"/>
+      <c r="A71" s="18"/>
+      <c r="B71" s="25"/>
       <c r="C71" s="25"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="33"/>
-      <c r="B72" s="36"/>
+      <c r="A72" s="18"/>
+      <c r="B72" s="25"/>
       <c r="C72" s="25"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="33"/>
-      <c r="B73" s="36"/>
+      <c r="A73" s="18"/>
+      <c r="B73" s="25"/>
       <c r="C73" s="25"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="33"/>
-      <c r="B74" s="36"/>
+      <c r="A74" s="18"/>
+      <c r="B74" s="25"/>
       <c r="C74" s="25"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="34"/>
-      <c r="B75" s="37"/>
+      <c r="A75" s="19"/>
+      <c r="B75" s="26"/>
       <c r="C75" s="26"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="35"/>
-      <c r="B76" s="38"/>
+      <c r="A76" s="20"/>
+      <c r="B76" s="27"/>
       <c r="C76" s="27"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="35"/>
-      <c r="B77" s="38"/>
+      <c r="A77" s="20"/>
+      <c r="B77" s="27"/>
       <c r="C77" s="27"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -3133,8 +3012,8 @@
   </sheetPr>
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" activeCellId="3" sqref="C20 C23 C26 C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3229,29 +3108,29 @@
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="68">
+      <c r="A14" s="33">
         <f>D3</f>
         <v>44326</v>
       </c>
-      <c r="B14" s="69"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="42" t="s">
-        <v>70</v>
+      <c r="B15" s="25" t="s">
+        <v>67</v>
       </c>
       <c r="C15" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="25">
@@ -3259,21 +3138,21 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="42" t="s">
-        <v>70</v>
+      <c r="B17" s="25" t="s">
+        <v>67</v>
       </c>
       <c r="C17" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="26" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="26">
@@ -3281,10 +3160,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="27">
@@ -3292,11 +3171,11 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="44" t="s">
-        <v>71</v>
+      <c r="B20" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="C20" s="27">
         <v>1</v>
@@ -3312,29 +3191,29 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="68">
+      <c r="A22" s="33">
         <f>A14+1</f>
         <v>44327</v>
       </c>
-      <c r="B22" s="69"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="31"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="47" t="s">
-        <v>71</v>
+      <c r="B23" s="25" t="s">
+        <v>69</v>
       </c>
       <c r="C23" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="25">
@@ -3342,10 +3221,10 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="25">
@@ -3353,21 +3232,21 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="47" t="s">
-        <v>71</v>
+      <c r="B26" s="25" t="s">
+        <v>69</v>
       </c>
       <c r="C26" s="25">
         <v>1.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="25">
@@ -3375,11 +3254,11 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="48" t="s">
-        <v>71</v>
+      <c r="B28" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="C28" s="26">
         <v>2</v>
@@ -3395,29 +3274,29 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="68">
+      <c r="A30" s="33">
         <f>A22+1</f>
         <v>44328</v>
       </c>
-      <c r="B30" s="69"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="31"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="50" t="s">
-        <v>72</v>
+      <c r="B31" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="C31" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="25">
@@ -3425,11 +3304,11 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="50" t="s">
-        <v>72</v>
+      <c r="B33" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="C33" s="25">
         <v>7</v>
@@ -3450,29 +3329,29 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="68">
+      <c r="A36" s="33">
         <f>A30+1</f>
         <v>44329</v>
       </c>
-      <c r="B36" s="69"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="31"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="51" t="s">
+      <c r="A37" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="52" t="s">
-        <v>70</v>
+      <c r="B37" s="25" t="s">
+        <v>67</v>
       </c>
       <c r="C37" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="25">
@@ -3480,10 +3359,10 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="51" t="s">
+      <c r="A39" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C39" s="25">
@@ -3491,22 +3370,22 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="51" t="s">
+      <c r="A40" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="52" t="s">
-        <v>72</v>
+      <c r="B40" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="C40" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="51" t="s">
+      <c r="A41" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="52" t="s">
-        <v>72</v>
+      <c r="B41" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="C41" s="25">
         <v>2.5</v>
@@ -3542,29 +3421,29 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="68">
+      <c r="A47" s="33">
         <f>A36+1</f>
         <v>44330</v>
       </c>
-      <c r="B47" s="69"/>
+      <c r="B47" s="34"/>
       <c r="C47" s="31"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="53" t="s">
+      <c r="A48" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="54" t="s">
-        <v>72</v>
+      <c r="B48" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="C48" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="53" t="s">
+      <c r="A49" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="54" t="s">
+      <c r="B49" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C49" s="25">
@@ -3572,11 +3451,11 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="53" t="s">
+      <c r="A50" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="54" t="s">
-        <v>70</v>
+      <c r="B50" s="25" t="s">
+        <v>67</v>
       </c>
       <c r="C50" s="25">
         <v>3</v>
@@ -3622,19 +3501,19 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="68">
+      <c r="A58" s="33">
         <f>A47+1</f>
         <v>44331</v>
       </c>
-      <c r="B58" s="69"/>
+      <c r="B58" s="34"/>
       <c r="C58" s="31"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B59" s="55" t="s">
-        <v>70</v>
+      <c r="B59" s="25" t="s">
+        <v>67</v>
       </c>
       <c r="C59" s="25">
         <v>3</v>
@@ -3690,19 +3569,19 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="68">
+      <c r="A69" s="33">
         <f>A58+1</f>
         <v>44332</v>
       </c>
-      <c r="B69" s="69"/>
+      <c r="B69" s="34"/>
       <c r="C69" s="31"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B70" s="56" t="s">
-        <v>70</v>
+      <c r="B70" s="25" t="s">
+        <v>67</v>
       </c>
       <c r="C70" s="25">
         <v>5</v>
@@ -3976,8 +3855,8 @@
   </sheetPr>
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView showGridLines="0" topLeftCell="A49" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -4072,19 +3951,19 @@
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="68">
+      <c r="A14" s="33">
         <f>D3</f>
         <v>44333</v>
       </c>
-      <c r="B14" s="69"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="57" t="s">
-        <v>70</v>
+      <c r="B15" s="25" t="s">
+        <v>67</v>
       </c>
       <c r="C15" s="25">
         <v>1</v>
@@ -4094,7 +3973,7 @@
       <c r="A16" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="25">
@@ -4105,8 +3984,8 @@
       <c r="A17" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="57" t="s">
-        <v>70</v>
+      <c r="B17" s="25" t="s">
+        <v>67</v>
       </c>
       <c r="C17" s="25">
         <v>1</v>
@@ -4116,7 +3995,7 @@
       <c r="A18" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="26" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="26">
@@ -4127,7 +4006,7 @@
       <c r="A19" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="27">
@@ -4138,7 +4017,7 @@
       <c r="A20" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="27">
@@ -4149,8 +4028,8 @@
       <c r="A21" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="59" t="s">
-        <v>73</v>
+      <c r="B21" s="27" t="s">
+        <v>70</v>
       </c>
       <c r="C21" s="27">
         <v>3</v>
@@ -4166,19 +4045,19 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="68">
+      <c r="A23" s="33">
         <f>A14+1</f>
         <v>44334</v>
       </c>
-      <c r="B23" s="69"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="31"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="60" t="s">
-        <v>70</v>
+      <c r="B24" s="25" t="s">
+        <v>67</v>
       </c>
       <c r="C24" s="25">
         <v>1</v>
@@ -4188,7 +4067,7 @@
       <c r="A25" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="25">
@@ -4199,7 +4078,7 @@
       <c r="A26" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="25" t="s">
         <v>53</v>
       </c>
       <c r="C26" s="25">
@@ -4210,7 +4089,7 @@
       <c r="A27" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="25">
@@ -4221,7 +4100,7 @@
       <c r="A28" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="25" t="s">
         <v>20</v>
       </c>
       <c r="C28" s="25">
@@ -4232,8 +4111,8 @@
       <c r="A29" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="62" t="s">
-        <v>73</v>
+      <c r="B29" s="27" t="s">
+        <v>70</v>
       </c>
       <c r="C29" s="25">
         <v>1</v>
@@ -4243,8 +4122,8 @@
       <c r="A30" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="61" t="s">
-        <v>74</v>
+      <c r="B30" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="C30" s="26">
         <v>3</v>
@@ -4260,19 +4139,19 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="68">
+      <c r="A32" s="33">
         <f>A23+1</f>
         <v>44335</v>
       </c>
-      <c r="B32" s="69"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="31"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="63" t="s">
-        <v>74</v>
+      <c r="B33" s="25" t="s">
+        <v>71</v>
       </c>
       <c r="C33" s="25">
         <v>2</v>
@@ -4282,7 +4161,7 @@
       <c r="A34" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="63" t="s">
+      <c r="B34" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="25">
@@ -4293,8 +4172,8 @@
       <c r="A35" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="63" t="s">
-        <v>74</v>
+      <c r="B35" s="25" t="s">
+        <v>71</v>
       </c>
       <c r="C35" s="25">
         <v>5</v>
@@ -4315,19 +4194,19 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="68">
+      <c r="A38" s="33">
         <f>A32+1</f>
         <v>44336</v>
       </c>
-      <c r="B38" s="69"/>
+      <c r="B38" s="34"/>
       <c r="C38" s="31"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="64" t="s">
-        <v>74</v>
+      <c r="B39" s="25" t="s">
+        <v>71</v>
       </c>
       <c r="C39" s="25">
         <v>1</v>
@@ -4337,7 +4216,7 @@
       <c r="A40" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="64" t="s">
+      <c r="B40" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C40" s="25">
@@ -4348,8 +4227,8 @@
       <c r="A41" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="64" t="s">
-        <v>73</v>
+      <c r="B41" s="25" t="s">
+        <v>70</v>
       </c>
       <c r="C41" s="25">
         <v>2</v>
@@ -4359,7 +4238,7 @@
       <c r="A42" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="64" t="s">
+      <c r="B42" s="25" t="s">
         <v>46</v>
       </c>
       <c r="C42" s="25">
@@ -4370,7 +4249,7 @@
       <c r="A43" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="64" t="s">
+      <c r="B43" s="25" t="s">
         <v>46</v>
       </c>
       <c r="C43" s="25">
@@ -4387,18 +4266,18 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="68">
+      <c r="A45" s="33">
         <f>A38+1</f>
         <v>44337</v>
       </c>
-      <c r="B45" s="69"/>
+      <c r="B45" s="34"/>
       <c r="C45" s="31"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="65" t="s">
+      <c r="B46" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C46" s="25">
@@ -4409,7 +4288,7 @@
       <c r="A47" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="65" t="s">
+      <c r="B47" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="25">
@@ -4420,7 +4299,7 @@
       <c r="A48" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="65" t="s">
+      <c r="B48" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="25">
@@ -4431,8 +4310,8 @@
       <c r="A49" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="65" t="s">
-        <v>74</v>
+      <c r="B49" s="25" t="s">
+        <v>71</v>
       </c>
       <c r="C49" s="25">
         <v>0.5</v>
@@ -4442,7 +4321,7 @@
       <c r="A50" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B50" s="65" t="s">
+      <c r="B50" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C50" s="25">
@@ -4453,8 +4332,8 @@
       <c r="A51" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B51" s="65" t="s">
-        <v>75</v>
+      <c r="B51" s="25" t="s">
+        <v>73</v>
       </c>
       <c r="C51" s="25">
         <v>2</v>
@@ -4485,19 +4364,19 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="68">
+      <c r="A56" s="33">
         <f>A45+1</f>
         <v>44338</v>
       </c>
-      <c r="B56" s="69"/>
+      <c r="B56" s="34"/>
       <c r="C56" s="31"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B57" s="66" t="s">
-        <v>75</v>
+      <c r="B57" s="25" t="s">
+        <v>73</v>
       </c>
       <c r="C57" s="25">
         <v>3</v>
@@ -4507,8 +4386,8 @@
       <c r="A58" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B58" s="66" t="s">
-        <v>75</v>
+      <c r="B58" s="25" t="s">
+        <v>73</v>
       </c>
       <c r="C58" s="25">
         <v>1.5</v>
@@ -4518,8 +4397,8 @@
       <c r="A59" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="66" t="s">
-        <v>75</v>
+      <c r="B59" s="25" t="s">
+        <v>73</v>
       </c>
       <c r="C59" s="25">
         <v>0.5</v>
@@ -4529,8 +4408,8 @@
       <c r="A60" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="66" t="s">
-        <v>75</v>
+      <c r="B60" s="25" t="s">
+        <v>73</v>
       </c>
       <c r="C60" s="25">
         <v>1</v>
@@ -4571,19 +4450,19 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="68">
+      <c r="A67" s="33">
         <f>A56+1</f>
         <v>44339</v>
       </c>
-      <c r="B67" s="69"/>
+      <c r="B67" s="34"/>
       <c r="C67" s="31"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B68" s="67" t="s">
-        <v>76</v>
+      <c r="B68" s="25" t="s">
+        <v>72</v>
       </c>
       <c r="C68" s="25">
         <v>4</v>
@@ -4708,7 +4587,7 @@
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A56:B56"/>
   </mergeCells>
-  <conditionalFormatting sqref="A14 A33:C37 A15:C22 A24:C31 A39:C44">
+  <conditionalFormatting sqref="A14 A33:C37 A15:C22 A39:C44 A24:C31">
     <cfRule type="expression" dxfId="45" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
@@ -4831,14 +4710,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57690F20-E1F5-46B8-990E-9368B226D845}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593C2EEC-BC3B-49E1-8B04-9DD2DB6DE52D}">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -4901,8 +4777,8 @@
       <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
     </row>
     <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -4915,10 +4791,6 @@
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
@@ -4930,14 +4802,14 @@
       <c r="C13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="36"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="68">
+      <c r="A14" s="33">
         <f>D3</f>
         <v>44340</v>
       </c>
-      <c r="B14" s="69"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -4947,7 +4819,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>33</v>
@@ -4958,10 +4830,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C17" s="25">
         <v>2</v>
@@ -4969,7 +4841,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18" s="26" t="s">
         <v>33</v>
@@ -4980,10 +4852,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C19" s="27">
         <v>3</v>
@@ -5009,19 +4881,19 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="68">
+      <c r="A23" s="33">
         <f>A14+1</f>
         <v>44341</v>
       </c>
-      <c r="B23" s="69"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="31"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C24" s="25">
         <v>2</v>
@@ -5029,7 +4901,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>33</v>
@@ -5051,7 +4923,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B27" s="25" t="s">
         <v>20</v>
@@ -5073,10 +4945,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C29" s="25">
         <v>4</v>
@@ -5097,19 +4969,19 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="68">
+      <c r="A32" s="33">
         <f>A23+1</f>
         <v>44342</v>
       </c>
-      <c r="B32" s="69"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="31"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C33" s="25">
         <v>1</v>
@@ -5117,7 +4989,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B34" s="25" t="s">
         <v>15</v>
@@ -5128,10 +5000,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C35" s="25">
         <v>3</v>
@@ -5139,10 +5011,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C36" s="25">
         <v>2</v>
@@ -5158,32 +5030,32 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="68">
+      <c r="A38" s="33">
         <f>A32+1</f>
         <v>44343</v>
       </c>
-      <c r="B38" s="69"/>
+      <c r="B38" s="34"/>
       <c r="C38" s="31"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C39" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="67">
+      <c r="A40" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="25">
         <v>3.5</v>
       </c>
     </row>
@@ -5211,10 +5083,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C43" s="25">
         <v>2</v>
@@ -5230,11 +5102,11 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="68">
+      <c r="A45" s="33">
         <f>A38+1</f>
         <v>44344</v>
       </c>
-      <c r="B45" s="69"/>
+      <c r="B45" s="34"/>
       <c r="C45" s="31"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -5242,7 +5114,7 @@
         <v>81</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C46" s="25">
         <v>2</v>
@@ -5250,7 +5122,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="18" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B47" s="25" t="s">
         <v>15</v>
@@ -5260,11 +5132,11 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="53" t="s">
+      <c r="A48" s="18" t="s">
         <v>81</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C48" s="25">
         <v>1.5</v>
@@ -5283,10 +5155,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="25" t="s">
         <v>83</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>82</v>
       </c>
       <c r="C50" s="25">
         <v>3.5</v>
@@ -5322,16 +5194,16 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="68">
+      <c r="A56" s="33">
         <f>A45+1</f>
         <v>44345</v>
       </c>
-      <c r="B56" s="69"/>
+      <c r="B56" s="34"/>
       <c r="C56" s="31"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B57" s="25" t="s">
         <v>84</v>
@@ -5408,16 +5280,16 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="68">
+      <c r="A67" s="33">
         <f>A56+1</f>
         <v>44346</v>
       </c>
-      <c r="B67" s="69"/>
+      <c r="B67" s="34"/>
       <c r="C67" s="31"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B68" s="25" t="s">
         <v>86</v>
@@ -5428,7 +5300,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="18" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B69" s="25" t="s">
         <v>33</v>
@@ -5442,7 +5314,7 @@
         <v>87</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C70" s="25">
         <v>2.5</v>
@@ -5461,7 +5333,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B72" s="25" t="s">
         <v>86</v>
@@ -5506,8 +5378,8 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
-      <c r="B79" s="28"/>
-      <c r="C79" s="28"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="37"/>
       <c r="D79" s="12"/>
     </row>
     <row r="80" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5523,31 +5395,31 @@
     </row>
     <row r="81" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9"/>
-      <c r="B81" s="29"/>
-      <c r="C81" s="29"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="38"/>
     </row>
     <row r="82" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A82" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B82" s="28"/>
-      <c r="C82" s="28"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="37"/>
       <c r="D82" s="11"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="22"/>
-      <c r="B83" s="30"/>
-      <c r="C83" s="30"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="39"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="22"/>
-      <c r="B84" s="30"/>
-      <c r="C84" s="30"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="39"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="9"/>
-      <c r="B85" s="29"/>
-      <c r="C85" s="29"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="38"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="23"/>
@@ -5684,9 +5556,6 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.25"/>
-  <pageSetup scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/personal-logs/ryan-koenig/WorkLog_rk.xlsx
+++ b/personal-logs/ryan-koenig/WorkLog_rk.xlsx
@@ -1,34 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwray\Documents\MDS\capstone\w2020-data599-capstone-projects-ubc-udl\personal-logs\ryan-koenig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\DataScience\Data599\w2020-data599-capstone-projects-ubc-udl\personal-logs\ryan-koenig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E406EE1D-825C-4940-9BD8-B14AE418D916}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DD41E4-8982-4092-9922-F9E8836B1956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="10" r:id="rId1"/>
     <sheet name="Week 2" sheetId="11" r:id="rId2"/>
     <sheet name="Week 3" sheetId="12" r:id="rId3"/>
+    <sheet name="Week 4" sheetId="14" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 1'!$A$1:$D$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 2'!$A$1:$D$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Week 3'!$A$1:$D$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Week 4'!$A$1:$D$48</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="88">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -250,6 +263,48 @@
   </si>
   <si>
     <t>Download Data</t>
+  </si>
+  <si>
+    <t>Internal Morning Meeting</t>
+  </si>
+  <si>
+    <t>Data Cleaning Pipeline</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Internal Meeting Cover Pipeline</t>
+  </si>
+  <si>
+    <t>Week 4 Update Presentation</t>
+  </si>
+  <si>
+    <t>Inernal Morning Meeting</t>
+  </si>
+  <si>
+    <t>Data Cleaning -&gt; Training Pipeline</t>
+  </si>
+  <si>
+    <t>Dating Cleaning -&gt; Predict Pipeline</t>
+  </si>
+  <si>
+    <t>Model Evaluation on Dataset 5</t>
+  </si>
+  <si>
+    <t>Model Evaulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal Meetings </t>
+  </si>
+  <si>
+    <t>Model Investigation</t>
+  </si>
+  <si>
+    <t>Model Evaluation</t>
+  </si>
+  <si>
+    <t>Notebook Adjusting</t>
   </si>
 </sst>
 </file>
@@ -257,7 +312,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -851,7 +906,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -962,7 +1017,7 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="20" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="20" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1018,7 +1073,196 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="42" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="77">
+  <dxfs count="104">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1940,15 +2184,15 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="70.6640625" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="70.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:4" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A1" s="8" t="s">
         <v>23</v>
       </c>
@@ -1956,17 +2200,17 @@
       <c r="C1" s="8"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D3" s="2">
         <v>44319</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1976,7 +2220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1984,42 +2228,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
     </row>
-    <row r="10" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="15"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D12" s="15"/>
     </row>
-    <row r="13" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
@@ -2031,7 +2275,7 @@
       </c>
       <c r="D13" s="16"/>
     </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="33">
         <f>D3</f>
         <v>44319</v>
@@ -2039,7 +2283,7 @@
       <c r="B14" s="34"/>
       <c r="C14" s="31"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>11</v>
       </c>
@@ -2050,7 +2294,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>12</v>
       </c>
@@ -2061,7 +2305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>13</v>
       </c>
@@ -2072,7 +2316,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>14</v>
       </c>
@@ -2083,7 +2327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -2094,7 +2338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="20"/>
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
@@ -2103,7 +2347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="33">
         <f>A14+1</f>
         <v>44320</v>
@@ -2111,7 +2355,7 @@
       <c r="B21" s="34"/>
       <c r="C21" s="31"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>25</v>
       </c>
@@ -2122,7 +2366,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>18</v>
       </c>
@@ -2133,7 +2377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>26</v>
       </c>
@@ -2144,7 +2388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>19</v>
       </c>
@@ -2155,7 +2399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>22</v>
       </c>
@@ -2166,7 +2410,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
         <v>26</v>
       </c>
@@ -2177,7 +2421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="20"/>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
@@ -2186,7 +2430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="33">
         <f>A21+1</f>
         <v>44321</v>
@@ -2194,7 +2438,7 @@
       <c r="B29" s="34"/>
       <c r="C29" s="31"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>26</v>
       </c>
@@ -2205,7 +2449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
         <v>27</v>
       </c>
@@ -2216,7 +2460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
         <v>13</v>
       </c>
@@ -2227,7 +2471,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
         <v>26</v>
       </c>
@@ -2238,7 +2482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="20"/>
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
@@ -2247,7 +2491,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="33">
         <f>A29+1</f>
         <v>44322</v>
@@ -2255,7 +2499,7 @@
       <c r="B35" s="34"/>
       <c r="C35" s="31"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
         <v>28</v>
       </c>
@@ -2266,7 +2510,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
         <v>29</v>
       </c>
@@ -2277,7 +2521,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
         <v>30</v>
       </c>
@@ -2288,7 +2532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
         <v>28</v>
       </c>
@@ -2299,7 +2543,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
         <v>31</v>
       </c>
@@ -2310,7 +2554,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
         <v>32</v>
       </c>
@@ -2321,7 +2565,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="19" t="s">
         <v>28</v>
       </c>
@@ -2332,17 +2576,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="20"/>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="20"/>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
     </row>
-    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="20"/>
       <c r="B45" s="27"/>
       <c r="C45" s="27"/>
@@ -2351,7 +2595,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="33">
         <f>A35+1</f>
         <v>44323</v>
@@ -2359,7 +2603,7 @@
       <c r="B46" s="34"/>
       <c r="C46" s="31"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="18" t="s">
         <v>33</v>
       </c>
@@ -2370,47 +2614,47 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="18"/>
       <c r="B48" s="25"/>
       <c r="C48" s="25"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="18"/>
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="18"/>
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="18"/>
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="18"/>
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="19"/>
       <c r="B53" s="26"/>
       <c r="C53" s="26"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="20"/>
       <c r="B54" s="27"/>
       <c r="C54" s="27"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="20"/>
       <c r="B55" s="27"/>
       <c r="C55" s="27"/>
     </row>
-    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="20"/>
       <c r="B56" s="27"/>
       <c r="C56" s="27"/>
@@ -2419,7 +2663,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="33">
         <f>A46+1</f>
         <v>44324</v>
@@ -2427,7 +2671,7 @@
       <c r="B57" s="34"/>
       <c r="C57" s="31"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
         <v>34</v>
       </c>
@@ -2438,47 +2682,47 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="18"/>
       <c r="B59" s="25"/>
       <c r="C59" s="25"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="18"/>
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="18"/>
       <c r="B61" s="25"/>
       <c r="C61" s="25"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="18"/>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="18"/>
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="19"/>
       <c r="B64" s="26"/>
       <c r="C64" s="26"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="20"/>
       <c r="B65" s="27"/>
       <c r="C65" s="27"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="20"/>
       <c r="B66" s="27"/>
       <c r="C66" s="27"/>
     </row>
-    <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="20"/>
       <c r="B67" s="27"/>
       <c r="C67" s="27"/>
@@ -2487,7 +2731,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="33">
         <f>A57+1</f>
         <v>44325</v>
@@ -2495,7 +2739,7 @@
       <c r="B68" s="34"/>
       <c r="C68" s="31"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="18" t="s">
         <v>33</v>
       </c>
@@ -2506,7 +2750,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="18" t="s">
         <v>35</v>
       </c>
@@ -2517,42 +2761,42 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="18"/>
       <c r="B71" s="25"/>
       <c r="C71" s="25"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="18"/>
       <c r="B72" s="25"/>
       <c r="C72" s="25"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="18"/>
       <c r="B73" s="25"/>
       <c r="C73" s="25"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="18"/>
       <c r="B74" s="25"/>
       <c r="C74" s="25"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="19"/>
       <c r="B75" s="26"/>
       <c r="C75" s="26"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="20"/>
       <c r="B76" s="27"/>
       <c r="C76" s="27"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="20"/>
       <c r="B77" s="27"/>
       <c r="C77" s="27"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="20"/>
       <c r="B78" s="27"/>
       <c r="C78" s="27"/>
@@ -2561,18 +2805,18 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="21"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
       <c r="B80" s="28"/>
       <c r="C80" s="28"/>
       <c r="D80" s="12"/>
     </row>
-    <row r="81" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="17" t="s">
         <v>5</v>
       </c>
@@ -2583,12 +2827,12 @@
       </c>
       <c r="D81" s="13"/>
     </row>
-    <row r="82" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9"/>
       <c r="B82" s="29"/>
       <c r="C82" s="29"/>
     </row>
-    <row r="83" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A83" s="10" t="s">
         <v>6</v>
       </c>
@@ -2596,27 +2840,27 @@
       <c r="C83" s="28"/>
       <c r="D83" s="11"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="22"/>
       <c r="B84" s="30"/>
       <c r="C84" s="30"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="22"/>
       <c r="B85" s="30"/>
       <c r="C85" s="30"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="9"/>
       <c r="B86" s="29"/>
       <c r="C86" s="29"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="23"/>
       <c r="B87" s="23"/>
       <c r="C87" s="23"/>
     </row>
-    <row r="89" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -2632,137 +2876,137 @@
     <mergeCell ref="A57:B57"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A15:C20 A30:C34 A22:C28">
-    <cfRule type="expression" dxfId="76" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="71" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="75" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B45">
-    <cfRule type="expression" dxfId="74" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C45">
-    <cfRule type="expression" dxfId="73" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C33">
-    <cfRule type="expression" dxfId="72" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C41">
-    <cfRule type="expression" dxfId="71" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B33">
-    <cfRule type="expression" dxfId="70" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B41">
-    <cfRule type="expression" dxfId="69" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C52">
-    <cfRule type="expression" dxfId="68" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C56">
-    <cfRule type="expression" dxfId="67" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B56 A47">
-    <cfRule type="expression" dxfId="66" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B52 A47">
-    <cfRule type="expression" dxfId="65" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:B67">
-    <cfRule type="expression" dxfId="64" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:B63">
-    <cfRule type="expression" dxfId="63" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C63">
-    <cfRule type="expression" dxfId="62" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C67">
-    <cfRule type="expression" dxfId="61" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="expression" dxfId="60" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:B78">
-    <cfRule type="expression" dxfId="59" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69:C74">
-    <cfRule type="expression" dxfId="58" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69:C78">
-    <cfRule type="expression" dxfId="57" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:B74">
-    <cfRule type="expression" dxfId="56" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="55" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="54" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="expression" dxfId="53" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="expression" dxfId="52" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="51" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="50" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2784,15 +3028,15 @@
       <selection activeCell="C28" activeCellId="3" sqref="C20 C23 C26 C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="70.6640625" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="70.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:4" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A1" s="8" t="s">
         <v>23</v>
       </c>
@@ -2800,17 +3044,17 @@
       <c r="C1" s="8"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D3" s="2">
         <v>44326</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -2820,7 +3064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2828,42 +3072,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
     </row>
-    <row r="10" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="15"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D12" s="15"/>
     </row>
-    <row r="13" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
@@ -2875,7 +3119,7 @@
       </c>
       <c r="D13" s="16"/>
     </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="33">
         <f>D3</f>
         <v>44326</v>
@@ -2883,7 +3127,7 @@
       <c r="B14" s="34"/>
       <c r="C14" s="31"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>36</v>
       </c>
@@ -2894,7 +3138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>37</v>
       </c>
@@ -2905,7 +3149,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>36</v>
       </c>
@@ -2916,7 +3160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>27</v>
       </c>
@@ -2927,7 +3171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>32</v>
       </c>
@@ -2938,7 +3182,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>38</v>
       </c>
@@ -2949,7 +3193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
@@ -2958,7 +3202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="33">
         <f>A14+1</f>
         <v>44327</v>
@@ -2966,7 +3210,7 @@
       <c r="B22" s="34"/>
       <c r="C22" s="31"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>39</v>
       </c>
@@ -2977,7 +3221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>40</v>
       </c>
@@ -2988,7 +3232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>37</v>
       </c>
@@ -2999,7 +3243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>41</v>
       </c>
@@ -3010,7 +3254,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>40</v>
       </c>
@@ -3021,7 +3265,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>42</v>
       </c>
@@ -3032,7 +3276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="20"/>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -3041,7 +3285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="33">
         <f>A22+1</f>
         <v>44328</v>
@@ -3049,7 +3293,7 @@
       <c r="B30" s="34"/>
       <c r="C30" s="31"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
         <v>43</v>
       </c>
@@ -3060,7 +3304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
         <v>37</v>
       </c>
@@ -3071,7 +3315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
         <v>43</v>
       </c>
@@ -3082,12 +3326,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
       <c r="B34" s="25"/>
       <c r="C34" s="25"/>
     </row>
-    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="20"/>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
@@ -3096,7 +3340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="33">
         <f>A30+1</f>
         <v>44329</v>
@@ -3104,7 +3348,7 @@
       <c r="B36" s="34"/>
       <c r="C36" s="31"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
         <v>44</v>
       </c>
@@ -3115,7 +3359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
         <v>37</v>
       </c>
@@ -3126,7 +3370,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
         <v>27</v>
       </c>
@@ -3137,7 +3381,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
         <v>42</v>
       </c>
@@ -3148,7 +3392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
         <v>42</v>
       </c>
@@ -3159,27 +3403,27 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="18"/>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="19"/>
       <c r="B43" s="26"/>
       <c r="C43" s="26"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="20"/>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="20"/>
       <c r="B45" s="27"/>
       <c r="C45" s="27"/>
     </row>
-    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="20"/>
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
@@ -3188,7 +3432,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="33">
         <f>A36+1</f>
         <v>44330</v>
@@ -3196,7 +3440,7 @@
       <c r="B47" s="34"/>
       <c r="C47" s="31"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="18" t="s">
         <v>45</v>
       </c>
@@ -3207,7 +3451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
         <v>37</v>
       </c>
@@ -3218,7 +3462,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
         <v>44</v>
       </c>
@@ -3229,37 +3473,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="18"/>
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="18"/>
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="18"/>
       <c r="B53" s="25"/>
       <c r="C53" s="25"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="19"/>
       <c r="B54" s="26"/>
       <c r="C54" s="26"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="20"/>
       <c r="B55" s="27"/>
       <c r="C55" s="27"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="20"/>
       <c r="B56" s="27"/>
       <c r="C56" s="27"/>
     </row>
-    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="20"/>
       <c r="B57" s="27"/>
       <c r="C57" s="27"/>
@@ -3268,7 +3512,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="33">
         <f>A47+1</f>
         <v>44331</v>
@@ -3276,7 +3520,7 @@
       <c r="B58" s="34"/>
       <c r="C58" s="31"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="18" t="s">
         <v>44</v>
       </c>
@@ -3287,47 +3531,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="18"/>
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="18"/>
       <c r="B61" s="25"/>
       <c r="C61" s="25"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="18"/>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="18"/>
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="18"/>
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="19"/>
       <c r="B65" s="26"/>
       <c r="C65" s="26"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="20"/>
       <c r="B66" s="27"/>
       <c r="C66" s="27"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="20"/>
       <c r="B67" s="27"/>
       <c r="C67" s="27"/>
     </row>
-    <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="20"/>
       <c r="B68" s="27"/>
       <c r="C68" s="27"/>
@@ -3336,7 +3580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="33">
         <f>A58+1</f>
         <v>44332</v>
@@ -3344,7 +3588,7 @@
       <c r="B69" s="34"/>
       <c r="C69" s="31"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="18" t="s">
         <v>44</v>
       </c>
@@ -3355,47 +3599,47 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="18"/>
       <c r="B71" s="25"/>
       <c r="C71" s="25"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="18"/>
       <c r="B72" s="25"/>
       <c r="C72" s="25"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="18"/>
       <c r="B73" s="25"/>
       <c r="C73" s="25"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="18"/>
       <c r="B74" s="25"/>
       <c r="C74" s="25"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="18"/>
       <c r="B75" s="25"/>
       <c r="C75" s="25"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="19"/>
       <c r="B76" s="26"/>
       <c r="C76" s="26"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="20"/>
       <c r="B77" s="27"/>
       <c r="C77" s="27"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="20"/>
       <c r="B78" s="27"/>
       <c r="C78" s="27"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="20"/>
       <c r="B79" s="27"/>
       <c r="C79" s="27"/>
@@ -3404,18 +3648,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="21"/>
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
       <c r="D81" s="12"/>
     </row>
-    <row r="82" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="17" t="s">
         <v>5</v>
       </c>
@@ -3426,12 +3670,12 @@
       </c>
       <c r="D82" s="13"/>
     </row>
-    <row r="83" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A83" s="9"/>
       <c r="B83" s="29"/>
       <c r="C83" s="29"/>
     </row>
-    <row r="84" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A84" s="10" t="s">
         <v>6</v>
       </c>
@@ -3439,27 +3683,27 @@
       <c r="C84" s="28"/>
       <c r="D84" s="11"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="22"/>
       <c r="B85" s="30"/>
       <c r="C85" s="30"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="22"/>
       <c r="B86" s="30"/>
       <c r="C86" s="30"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="9"/>
       <c r="B87" s="29"/>
       <c r="C87" s="29"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="23"/>
       <c r="B88" s="23"/>
       <c r="C88" s="23"/>
     </row>
-    <row r="90" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -3475,137 +3719,137 @@
     <mergeCell ref="A58:B58"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A31:C35 A15:C21 A23:C29">
-    <cfRule type="expression" dxfId="49" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="48" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B46">
-    <cfRule type="expression" dxfId="47" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C46">
-    <cfRule type="expression" dxfId="46" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:C34">
-    <cfRule type="expression" dxfId="45" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C42">
-    <cfRule type="expression" dxfId="44" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B34">
-    <cfRule type="expression" dxfId="43" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B42">
-    <cfRule type="expression" dxfId="42" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="41" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C57">
-    <cfRule type="expression" dxfId="40" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B57 A48">
-    <cfRule type="expression" dxfId="39" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B53 A48">
-    <cfRule type="expression" dxfId="38" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B68">
-    <cfRule type="expression" dxfId="37" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B64">
-    <cfRule type="expression" dxfId="36" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C64">
-    <cfRule type="expression" dxfId="35" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C68">
-    <cfRule type="expression" dxfId="34" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="33" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B79">
-    <cfRule type="expression" dxfId="32" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C75">
-    <cfRule type="expression" dxfId="31" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C79">
-    <cfRule type="expression" dxfId="30" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B75">
-    <cfRule type="expression" dxfId="29" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="28" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="27" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="expression" dxfId="26" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="expression" dxfId="25" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="24" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="23" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3623,19 +3867,19 @@
   </sheetPr>
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView showGridLines="0" topLeftCell="A49" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="70.6640625" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="70.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:4" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A1" s="8" t="s">
         <v>23</v>
       </c>
@@ -3643,17 +3887,17 @@
       <c r="C1" s="8"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D3" s="2">
         <v>44333</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -3663,7 +3907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3671,42 +3915,42 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
     </row>
-    <row r="10" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="15"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D12" s="15"/>
     </row>
-    <row r="13" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
@@ -3718,7 +3962,7 @@
       </c>
       <c r="D13" s="16"/>
     </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="33">
         <f>D3</f>
         <v>44333</v>
@@ -3726,7 +3970,7 @@
       <c r="B14" s="34"/>
       <c r="C14" s="31"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>48</v>
       </c>
@@ -3737,7 +3981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>37</v>
       </c>
@@ -3748,7 +3992,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>48</v>
       </c>
@@ -3759,7 +4003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>27</v>
       </c>
@@ -3770,7 +4014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>32</v>
       </c>
@@ -3781,7 +4025,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>48</v>
       </c>
@@ -3792,7 +4036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>47</v>
       </c>
@@ -3803,7 +4047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="20"/>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
@@ -3812,7 +4056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="33">
         <f>A14+1</f>
         <v>44334</v>
@@ -3820,7 +4064,7 @@
       <c r="B23" s="34"/>
       <c r="C23" s="31"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>48</v>
       </c>
@@ -3831,7 +4075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>54</v>
       </c>
@@ -3842,7 +4086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>52</v>
       </c>
@@ -3853,7 +4097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>37</v>
       </c>
@@ -3864,7 +4108,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>55</v>
       </c>
@@ -3875,7 +4119,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>47</v>
       </c>
@@ -3886,7 +4130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
         <v>56</v>
       </c>
@@ -3897,7 +4141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="20"/>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
@@ -3906,7 +4150,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="33">
         <f>A23+1</f>
         <v>44335</v>
@@ -3914,7 +4158,7 @@
       <c r="B32" s="34"/>
       <c r="C32" s="31"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
         <v>56</v>
       </c>
@@ -3925,7 +4169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
         <v>37</v>
       </c>
@@ -3936,7 +4180,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
         <v>56</v>
       </c>
@@ -3947,12 +4191,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="18"/>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
     </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="20"/>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
@@ -3961,7 +4205,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="33">
         <f>A32+1</f>
         <v>44336</v>
@@ -3969,7 +4213,7 @@
       <c r="B38" s="34"/>
       <c r="C38" s="31"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
         <v>58</v>
       </c>
@@ -3980,7 +4224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
         <v>37</v>
       </c>
@@ -3991,7 +4235,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
         <v>61</v>
       </c>
@@ -4002,7 +4246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="18" t="s">
         <v>59</v>
       </c>
@@ -4013,7 +4257,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
         <v>60</v>
       </c>
@@ -4024,7 +4268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="20"/>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
@@ -4033,7 +4277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="33">
         <f>A38+1</f>
         <v>44337</v>
@@ -4041,7 +4285,7 @@
       <c r="B45" s="34"/>
       <c r="C45" s="31"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="18" t="s">
         <v>49</v>
       </c>
@@ -4052,7 +4296,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="18" t="s">
         <v>50</v>
       </c>
@@ -4063,7 +4307,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="18" t="s">
         <v>51</v>
       </c>
@@ -4074,7 +4318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
         <v>57</v>
       </c>
@@ -4085,7 +4329,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
         <v>33</v>
       </c>
@@ -4096,7 +4340,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
         <v>62</v>
       </c>
@@ -4107,22 +4351,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="19"/>
       <c r="B52" s="26"/>
       <c r="C52" s="26"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="20"/>
       <c r="B53" s="27"/>
       <c r="C53" s="27"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="20"/>
       <c r="B54" s="27"/>
       <c r="C54" s="27"/>
     </row>
-    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="20"/>
       <c r="B55" s="27"/>
       <c r="C55" s="27"/>
@@ -4131,7 +4375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="33">
         <f>A45+1</f>
         <v>44338</v>
@@ -4139,7 +4383,7 @@
       <c r="B56" s="34"/>
       <c r="C56" s="31"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
         <v>63</v>
       </c>
@@ -4150,7 +4394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
         <v>64</v>
       </c>
@@ -4161,7 +4405,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="18" t="s">
         <v>63</v>
       </c>
@@ -4172,7 +4416,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="18" t="s">
         <v>65</v>
       </c>
@@ -4183,32 +4427,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="18"/>
       <c r="B61" s="25"/>
       <c r="C61" s="25"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="18"/>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="19"/>
       <c r="B63" s="26"/>
       <c r="C63" s="26"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="20"/>
       <c r="B64" s="27"/>
       <c r="C64" s="27"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="20"/>
       <c r="B65" s="27"/>
       <c r="C65" s="27"/>
     </row>
-    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="20"/>
       <c r="B66" s="27"/>
       <c r="C66" s="27"/>
@@ -4217,7 +4461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="33">
         <f>A56+1</f>
         <v>44339</v>
@@ -4225,7 +4469,7 @@
       <c r="B67" s="34"/>
       <c r="C67" s="31"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="18" t="s">
         <v>66</v>
       </c>
@@ -4236,47 +4480,47 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="18"/>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="18"/>
       <c r="B70" s="25"/>
       <c r="C70" s="25"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="18"/>
       <c r="B71" s="25"/>
       <c r="C71" s="25"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="18"/>
       <c r="B72" s="25"/>
       <c r="C72" s="25"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="18"/>
       <c r="B73" s="25"/>
       <c r="C73" s="25"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="19"/>
       <c r="B74" s="26"/>
       <c r="C74" s="26"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="20"/>
       <c r="B75" s="27"/>
       <c r="C75" s="27"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="20"/>
       <c r="B76" s="27"/>
       <c r="C76" s="27"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="20"/>
       <c r="B77" s="27"/>
       <c r="C77" s="27"/>
@@ -4285,18 +4529,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="21"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
       <c r="B79" s="28"/>
       <c r="C79" s="28"/>
       <c r="D79" s="12"/>
     </row>
-    <row r="80" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="17" t="s">
         <v>5</v>
       </c>
@@ -4307,12 +4551,12 @@
       </c>
       <c r="D80" s="13"/>
     </row>
-    <row r="81" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9"/>
       <c r="B81" s="29"/>
       <c r="C81" s="29"/>
     </row>
-    <row r="82" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A82" s="10" t="s">
         <v>6</v>
       </c>
@@ -4320,27 +4564,27 @@
       <c r="C82" s="28"/>
       <c r="D82" s="11"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="22"/>
       <c r="B83" s="30"/>
       <c r="C83" s="30"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="22"/>
       <c r="B84" s="30"/>
       <c r="C84" s="30"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="9"/>
       <c r="B85" s="29"/>
       <c r="C85" s="29"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="23"/>
       <c r="B86" s="23"/>
       <c r="C86" s="23"/>
     </row>
-    <row r="88" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -4356,117 +4600,928 @@
     <mergeCell ref="A56:B56"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A33:C37 A15:C22 A39:C44 A24:C31">
-    <cfRule type="expression" dxfId="22" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="21" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:C36">
-    <cfRule type="expression" dxfId="20" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B36">
-    <cfRule type="expression" dxfId="19" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C51">
-    <cfRule type="expression" dxfId="18" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C55">
-    <cfRule type="expression" dxfId="17" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:B55 A46">
+    <cfRule type="expression" dxfId="43" priority="19" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:B51 A46">
+    <cfRule type="expression" dxfId="42" priority="18" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:B66">
+    <cfRule type="expression" dxfId="41" priority="15" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:B62">
+    <cfRule type="expression" dxfId="40" priority="14" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57:C62">
+    <cfRule type="expression" dxfId="39" priority="12" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57:C66">
+    <cfRule type="expression" dxfId="38" priority="13" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45">
+    <cfRule type="expression" dxfId="37" priority="5" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68:B77">
+    <cfRule type="expression" dxfId="36" priority="11" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68:C73">
+    <cfRule type="expression" dxfId="35" priority="8" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68:C77">
+    <cfRule type="expression" dxfId="34" priority="9" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68:B73">
+    <cfRule type="expression" dxfId="33" priority="10" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="expression" dxfId="32" priority="7" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38">
+    <cfRule type="expression" dxfId="31" priority="6" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56">
+    <cfRule type="expression" dxfId="30" priority="4" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67">
+    <cfRule type="expression" dxfId="29" priority="3" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46">
+    <cfRule type="expression" dxfId="28" priority="2" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46">
+    <cfRule type="expression" dxfId="27" priority="1" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.25"/>
+  <pageSetup scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57A58FC-2947-4579-97D9-2B4D6D1539A5}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D74"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="70.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="2">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+    </row>
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="33">
+        <f>D3</f>
+        <v>44340</v>
+      </c>
+      <c r="B14" s="34"/>
+      <c r="C14" s="31"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+    </row>
+    <row r="20" spans="1:4" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="20"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20">
+        <f>SUM(C15:C20)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="33">
+        <f>A14+1</f>
+        <v>44341</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="31"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="25">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="20"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28">
+        <f>SUM(C22:C28)</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="33">
+        <f>A21+1</f>
+        <v>44342</v>
+      </c>
+      <c r="B29" s="34"/>
+      <c r="C29" s="31"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="20"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34">
+        <f>SUM(C30:C34)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="33">
+        <f>A29+1</f>
+        <v>44343</v>
+      </c>
+      <c r="B35" s="34"/>
+      <c r="C35" s="31"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="20"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41">
+        <f>SUM(C36:C41)</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="33">
+        <f>A35+1</f>
+        <v>44344</v>
+      </c>
+      <c r="B42" s="34"/>
+      <c r="C42" s="31"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="25">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="20"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48">
+        <f>SUM(C43:C48)</f>
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="33">
+        <f>A42+1</f>
+        <v>44345</v>
+      </c>
+      <c r="B49" s="34"/>
+      <c r="C49" s="31"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="20"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="20"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55">
+        <f>SUM(C50:C55)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="33">
+        <f>A49+1</f>
+        <v>44346</v>
+      </c>
+      <c r="B56" s="34"/>
+      <c r="C56" s="31"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="25">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="25">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="20"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="20"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63">
+        <f>SUM(C57:C63)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="10"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="12"/>
+    </row>
+    <row r="66" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="17"/>
+      <c r="C66" s="32">
+        <f>SUM(C14:C63)</f>
+        <v>52.5</v>
+      </c>
+      <c r="D66" s="13"/>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="9"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="29"/>
+    </row>
+    <row r="68" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A68" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="11"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="22"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="22"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="9"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="23"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+    </row>
+    <row r="74" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A49:B49"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A14 A34:C34 A41:C41 A19:C20 A28:C28 A48:C48 A54:C55 A62:C63">
+    <cfRule type="expression" dxfId="26" priority="43" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="expression" dxfId="25" priority="42" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42">
+    <cfRule type="expression" dxfId="24" priority="25" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="expression" dxfId="23" priority="27" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="expression" dxfId="22" priority="26" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49">
+    <cfRule type="expression" dxfId="21" priority="24" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56">
+    <cfRule type="expression" dxfId="20" priority="23" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30:C33">
+    <cfRule type="expression" dxfId="19" priority="16" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36:C40">
+    <cfRule type="expression" dxfId="18" priority="15" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:C18">
+    <cfRule type="expression" dxfId="17" priority="20" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:C27">
     <cfRule type="expression" dxfId="16" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47:B51 A46">
+  <conditionalFormatting sqref="A30:C33">
     <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57:B66">
-    <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57:B62">
-    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C57:C62">
+  <conditionalFormatting sqref="A30:B33">
+    <cfRule type="expression" dxfId="14" priority="17" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43:C47">
+    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43:C47">
     <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C57:C66">
-    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45">
-    <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68:B77">
-    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68:C73">
-    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68:C77">
-    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68:B73">
-    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
+  <conditionalFormatting sqref="A43 A44:B47">
+    <cfRule type="expression" dxfId="11" priority="14" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43 A44:B47">
+    <cfRule type="expression" dxfId="10" priority="13" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:B53">
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:B53">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50:C53">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50:C53">
     <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A56">
+  <conditionalFormatting sqref="A57:B61">
     <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A67">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B46">
+  <conditionalFormatting sqref="C57:C61">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57:C61">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="A57:B61">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/personal-logs/ryan-koenig/WorkLog_rk.xlsx
+++ b/personal-logs/ryan-koenig/WorkLog_rk.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\DataScience\Data599\w2020-data599-capstone-projects-ubc-udl\personal-logs\ryan-koenig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DD41E4-8982-4092-9922-F9E8836B1956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9257F00-3763-44CE-8AFB-FDA86B2CAB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="10" r:id="rId1"/>
     <sheet name="Week 2" sheetId="11" r:id="rId2"/>
     <sheet name="Week 3" sheetId="12" r:id="rId3"/>
     <sheet name="Week 4" sheetId="14" r:id="rId4"/>
+    <sheet name="Week 5" sheetId="16" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 1'!$A$1:$D$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 2'!$A$1:$D$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Week 3'!$A$1:$D$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Week 4'!$A$1:$D$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Week 5'!$A$1:$D$53</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="95">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -305,6 +307,27 @@
   </si>
   <si>
     <t>Notebook Adjusting</t>
+  </si>
+  <si>
+    <t>Github branch cleanup</t>
+  </si>
+  <si>
+    <t>Repo Managing</t>
+  </si>
+  <si>
+    <t>Model Evaluation on Dataset 1</t>
+  </si>
+  <si>
+    <t>Updating Presentation Slides</t>
+  </si>
+  <si>
+    <t>Presentation Practice</t>
+  </si>
+  <si>
+    <t>Mid-Project Presentations</t>
+  </si>
+  <si>
+    <t>Presentations</t>
   </si>
 </sst>
 </file>
@@ -608,7 +631,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -861,6 +884,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -908,7 +951,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1018,6 +1061,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="20" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1073,7 +1124,196 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="42" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="104">
+  <dxfs count="131">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2276,11 +2516,11 @@
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="33">
+      <c r="A14" s="35">
         <f>D3</f>
         <v>44319</v>
       </c>
-      <c r="B14" s="34"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -2348,11 +2588,11 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="33">
+      <c r="A21" s="35">
         <f>A14+1</f>
         <v>44320</v>
       </c>
-      <c r="B21" s="34"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="31"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2431,11 +2671,11 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="33">
+      <c r="A29" s="35">
         <f>A21+1</f>
         <v>44321</v>
       </c>
-      <c r="B29" s="34"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="31"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2492,11 +2732,11 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="33">
+      <c r="A35" s="35">
         <f>A29+1</f>
         <v>44322</v>
       </c>
-      <c r="B35" s="34"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="31"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -2596,11 +2836,11 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="33">
+      <c r="A46" s="35">
         <f>A35+1</f>
         <v>44323</v>
       </c>
-      <c r="B46" s="34"/>
+      <c r="B46" s="36"/>
       <c r="C46" s="31"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -2664,11 +2904,11 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="33">
+      <c r="A57" s="35">
         <f>A46+1</f>
         <v>44324</v>
       </c>
-      <c r="B57" s="34"/>
+      <c r="B57" s="36"/>
       <c r="C57" s="31"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -2732,11 +2972,11 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="33">
+      <c r="A68" s="35">
         <f>A57+1</f>
         <v>44325</v>
       </c>
-      <c r="B68" s="34"/>
+      <c r="B68" s="36"/>
       <c r="C68" s="31"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -2876,137 +3116,137 @@
     <mergeCell ref="A57:B57"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A15:C20 A30:C34 A22:C28">
-    <cfRule type="expression" dxfId="103" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="71" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="102" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B45">
-    <cfRule type="expression" dxfId="101" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C45">
-    <cfRule type="expression" dxfId="100" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C33">
-    <cfRule type="expression" dxfId="99" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C41">
-    <cfRule type="expression" dxfId="98" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B33">
-    <cfRule type="expression" dxfId="97" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B41">
-    <cfRule type="expression" dxfId="96" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C52">
-    <cfRule type="expression" dxfId="95" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C56">
-    <cfRule type="expression" dxfId="94" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B56 A47">
-    <cfRule type="expression" dxfId="93" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B52 A47">
-    <cfRule type="expression" dxfId="92" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:B67">
-    <cfRule type="expression" dxfId="91" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:B63">
-    <cfRule type="expression" dxfId="90" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C63">
-    <cfRule type="expression" dxfId="89" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C67">
-    <cfRule type="expression" dxfId="88" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="expression" dxfId="87" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:B78">
-    <cfRule type="expression" dxfId="86" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69:C74">
-    <cfRule type="expression" dxfId="85" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69:C78">
-    <cfRule type="expression" dxfId="84" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:B74">
-    <cfRule type="expression" dxfId="83" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="82" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="81" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="expression" dxfId="80" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="expression" dxfId="79" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="78" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="77" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3120,11 +3360,11 @@
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="33">
+      <c r="A14" s="35">
         <f>D3</f>
         <v>44326</v>
       </c>
-      <c r="B14" s="34"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -3203,11 +3443,11 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="33">
+      <c r="A22" s="35">
         <f>A14+1</f>
         <v>44327</v>
       </c>
-      <c r="B22" s="34"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="31"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -3286,11 +3526,11 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="33">
+      <c r="A30" s="35">
         <f>A22+1</f>
         <v>44328</v>
       </c>
-      <c r="B30" s="34"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="31"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -3341,11 +3581,11 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="33">
+      <c r="A36" s="35">
         <f>A30+1</f>
         <v>44329</v>
       </c>
-      <c r="B36" s="34"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="31"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -3433,11 +3673,11 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="33">
+      <c r="A47" s="35">
         <f>A36+1</f>
         <v>44330</v>
       </c>
-      <c r="B47" s="34"/>
+      <c r="B47" s="36"/>
       <c r="C47" s="31"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -3513,11 +3753,11 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="33">
+      <c r="A58" s="35">
         <f>A47+1</f>
         <v>44331</v>
       </c>
-      <c r="B58" s="34"/>
+      <c r="B58" s="36"/>
       <c r="C58" s="31"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -3581,11 +3821,11 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="33">
+      <c r="A69" s="35">
         <f>A58+1</f>
         <v>44332</v>
       </c>
-      <c r="B69" s="34"/>
+      <c r="B69" s="36"/>
       <c r="C69" s="31"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -3719,137 +3959,137 @@
     <mergeCell ref="A58:B58"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A31:C35 A15:C21 A23:C29">
-    <cfRule type="expression" dxfId="76" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="75" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B46">
-    <cfRule type="expression" dxfId="74" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C46">
-    <cfRule type="expression" dxfId="73" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:C34">
-    <cfRule type="expression" dxfId="72" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C42">
-    <cfRule type="expression" dxfId="71" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B34">
-    <cfRule type="expression" dxfId="70" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B42">
-    <cfRule type="expression" dxfId="69" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="68" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C57">
-    <cfRule type="expression" dxfId="67" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B57 A48">
-    <cfRule type="expression" dxfId="66" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B53 A48">
-    <cfRule type="expression" dxfId="65" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B68">
-    <cfRule type="expression" dxfId="64" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B64">
-    <cfRule type="expression" dxfId="63" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C64">
-    <cfRule type="expression" dxfId="62" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C68">
-    <cfRule type="expression" dxfId="61" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="60" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B79">
-    <cfRule type="expression" dxfId="59" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C75">
-    <cfRule type="expression" dxfId="58" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C79">
-    <cfRule type="expression" dxfId="57" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B75">
-    <cfRule type="expression" dxfId="56" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="55" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="54" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="expression" dxfId="53" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="expression" dxfId="52" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="51" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="50" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3963,11 +4203,11 @@
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="33">
+      <c r="A14" s="35">
         <f>D3</f>
         <v>44333</v>
       </c>
-      <c r="B14" s="34"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -4057,11 +4297,11 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="33">
+      <c r="A23" s="35">
         <f>A14+1</f>
         <v>44334</v>
       </c>
-      <c r="B23" s="34"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="31"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -4151,11 +4391,11 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="33">
+      <c r="A32" s="35">
         <f>A23+1</f>
         <v>44335</v>
       </c>
-      <c r="B32" s="34"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="31"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -4206,11 +4446,11 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="33">
+      <c r="A38" s="35">
         <f>A32+1</f>
         <v>44336</v>
       </c>
-      <c r="B38" s="34"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="31"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -4278,11 +4518,11 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="33">
+      <c r="A45" s="35">
         <f>A38+1</f>
         <v>44337</v>
       </c>
-      <c r="B45" s="34"/>
+      <c r="B45" s="36"/>
       <c r="C45" s="31"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -4376,11 +4616,11 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="33">
+      <c r="A56" s="35">
         <f>A45+1</f>
         <v>44338</v>
       </c>
-      <c r="B56" s="34"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="31"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -4462,11 +4702,11 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="33">
+      <c r="A67" s="35">
         <f>A56+1</f>
         <v>44339</v>
       </c>
-      <c r="B67" s="34"/>
+      <c r="B67" s="36"/>
       <c r="C67" s="31"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -4600,117 +4840,117 @@
     <mergeCell ref="A56:B56"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A33:C37 A15:C22 A39:C44 A24:C31">
-    <cfRule type="expression" dxfId="49" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="48" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:C36">
-    <cfRule type="expression" dxfId="47" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B36">
-    <cfRule type="expression" dxfId="46" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C51">
-    <cfRule type="expression" dxfId="45" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C55">
-    <cfRule type="expression" dxfId="44" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:B55 A46">
-    <cfRule type="expression" dxfId="43" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:B51 A46">
-    <cfRule type="expression" dxfId="42" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:B66">
-    <cfRule type="expression" dxfId="41" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:B62">
-    <cfRule type="expression" dxfId="40" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C62">
-    <cfRule type="expression" dxfId="39" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C66">
-    <cfRule type="expression" dxfId="38" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="expression" dxfId="37" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:B77">
-    <cfRule type="expression" dxfId="36" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C73">
-    <cfRule type="expression" dxfId="35" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C77">
-    <cfRule type="expression" dxfId="34" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:B73">
-    <cfRule type="expression" dxfId="33" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="32" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="expression" dxfId="31" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56">
-    <cfRule type="expression" dxfId="30" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67">
-    <cfRule type="expression" dxfId="29" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="28" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="27" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4728,8 +4968,8 @@
   </sheetPr>
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+    <sheetView showGridLines="0" topLeftCell="A37" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -4824,11 +5064,11 @@
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="33">
+      <c r="A14" s="35">
         <f>D3</f>
         <v>44340</v>
       </c>
-      <c r="B14" s="34"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -4890,11 +5130,11 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="33">
+      <c r="A21" s="35">
         <f>A14+1</f>
         <v>44341</v>
       </c>
-      <c r="B21" s="34"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="31"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -4973,11 +5213,11 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="33">
+      <c r="A29" s="35">
         <f>A21+1</f>
         <v>44342</v>
       </c>
-      <c r="B29" s="34"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="31"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -5034,11 +5274,11 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="33">
+      <c r="A35" s="35">
         <f>A29+1</f>
         <v>44343</v>
       </c>
-      <c r="B35" s="34"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="31"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -5106,11 +5346,11 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="33">
+      <c r="A42" s="35">
         <f>A35+1</f>
         <v>44344</v>
       </c>
-      <c r="B42" s="34"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="31"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -5178,11 +5418,11 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="33">
+      <c r="A49" s="35">
         <f>A42+1</f>
         <v>44345</v>
       </c>
-      <c r="B49" s="34"/>
+      <c r="B49" s="36"/>
       <c r="C49" s="31"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -5244,11 +5484,11 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="33">
+      <c r="A56" s="35">
         <f>A49+1</f>
         <v>44346</v>
       </c>
-      <c r="B56" s="34"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="31"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -5391,136 +5631,846 @@
     <mergeCell ref="A49:B49"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A34:C34 A41:C41 A19:C20 A28:C28 A48:C48 A54:C55 A62:C63">
-    <cfRule type="expression" dxfId="26" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="25" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="42" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="24" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="23" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="22" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="expression" dxfId="21" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56">
-    <cfRule type="expression" dxfId="20" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C33">
+    <cfRule type="expression" dxfId="46" priority="16" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36:C40">
+    <cfRule type="expression" dxfId="45" priority="15" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:C18">
+    <cfRule type="expression" dxfId="44" priority="20" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:C27">
+    <cfRule type="expression" dxfId="43" priority="19" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:C33">
+    <cfRule type="expression" dxfId="42" priority="18" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:B33">
+    <cfRule type="expression" dxfId="41" priority="17" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43:C47">
+    <cfRule type="expression" dxfId="40" priority="11" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43:C47">
+    <cfRule type="expression" dxfId="39" priority="12" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43 A44:B47">
+    <cfRule type="expression" dxfId="38" priority="14" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43 A44:B47">
+    <cfRule type="expression" dxfId="37" priority="13" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" dxfId="36" priority="10" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" dxfId="35" priority="9" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:B53">
+    <cfRule type="expression" dxfId="34" priority="8" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:B53">
+    <cfRule type="expression" dxfId="33" priority="7" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50:C53">
+    <cfRule type="expression" dxfId="32" priority="5" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50:C53">
+    <cfRule type="expression" dxfId="31" priority="6" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:B61">
+    <cfRule type="expression" dxfId="30" priority="4" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57:C61">
+    <cfRule type="expression" dxfId="29" priority="1" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57:C61">
+    <cfRule type="expression" dxfId="28" priority="2" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:B61">
+    <cfRule type="expression" dxfId="27" priority="3" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.25"/>
+  <pageSetup scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22731365-11AF-4B6F-A725-1D24F5E26263}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D79"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="70.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="2">
+        <v>44347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+    </row>
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="35">
+        <f>D3</f>
+        <v>44347</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="31"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="27">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="20"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+    </row>
+    <row r="25" spans="1:4" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="20"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25">
+        <f>SUM(C15:C25)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="35">
+        <f>A14+1</f>
+        <v>44348</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="31"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="18"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="18"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="18"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="20"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33">
+        <f>SUM(C27:C33)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="35">
+        <f>A26+1</f>
+        <v>44349</v>
+      </c>
+      <c r="B34" s="36"/>
+      <c r="C34" s="31"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="18"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="18"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="18"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="18"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="20"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39">
+        <f>SUM(C35:C39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="35">
+        <f>A34+1</f>
+        <v>44350</v>
+      </c>
+      <c r="B40" s="36"/>
+      <c r="C40" s="31"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="18"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="18"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="18"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="18"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="18"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="20"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46">
+        <f>SUM(C41:C46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="35">
+        <f>A40+1</f>
+        <v>44351</v>
+      </c>
+      <c r="B47" s="36"/>
+      <c r="C47" s="31"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="18"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="18"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="18"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="18"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="18"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="20"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53">
+        <f>SUM(C48:C53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="35">
+        <f>A47+1</f>
+        <v>44352</v>
+      </c>
+      <c r="B54" s="36"/>
+      <c r="C54" s="31"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="18"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="18"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="18"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="18"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="20"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="20"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60">
+        <f>SUM(C55:C60)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="35">
+        <f>A54+1</f>
+        <v>44353</v>
+      </c>
+      <c r="B61" s="36"/>
+      <c r="C61" s="31"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="18"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="18"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="18"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="18"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="18"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="20"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="20"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+      <c r="D68">
+        <f>SUM(C62:C68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="10"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="12"/>
+    </row>
+    <row r="71" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="17"/>
+      <c r="C71" s="32">
+        <f>SUM(C14:C68)</f>
+        <v>12.5</v>
+      </c>
+      <c r="D71" s="13"/>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="9"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
+    </row>
+    <row r="73" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A73" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="11"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="22"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="22"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="30"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="9"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="23"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
+    </row>
+    <row r="79" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A54:B54"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A14 A39:C39 A46:C46 A20:C25 A33:C33 A53:C53 A59:C60 A67:C68">
+    <cfRule type="expression" dxfId="26" priority="27" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26">
+    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="expression" dxfId="24" priority="23" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34">
+    <cfRule type="expression" dxfId="23" priority="25" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="expression" dxfId="22" priority="24" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61">
+    <cfRule type="expression" dxfId="20" priority="21" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35:C38">
     <cfRule type="expression" dxfId="19" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:C40">
+  <conditionalFormatting sqref="A41:C45">
     <cfRule type="expression" dxfId="18" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:C18">
+  <conditionalFormatting sqref="A15:C19">
     <cfRule type="expression" dxfId="17" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:C27">
+  <conditionalFormatting sqref="A27:C32">
     <cfRule type="expression" dxfId="16" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30:C33">
+  <conditionalFormatting sqref="A35:C38">
     <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30:B33">
+  <conditionalFormatting sqref="A35:B38">
     <cfRule type="expression" dxfId="14" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C43:C47">
+  <conditionalFormatting sqref="C48:C52">
     <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C43:C47">
+  <conditionalFormatting sqref="C48:C52">
     <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A43 A44:B47">
+  <conditionalFormatting sqref="A48 A49:B52">
     <cfRule type="expression" dxfId="11" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A43 A44:B47">
+  <conditionalFormatting sqref="A48 A49:B52">
     <cfRule type="expression" dxfId="10" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
+  <conditionalFormatting sqref="B48">
     <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
+  <conditionalFormatting sqref="B48">
     <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50:B53">
+  <conditionalFormatting sqref="A55:B58">
     <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50:B53">
+  <conditionalFormatting sqref="A55:B58">
     <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C50:C53">
+  <conditionalFormatting sqref="C55:C58">
     <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C50:C53">
+  <conditionalFormatting sqref="C55:C58">
     <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57:B61">
+  <conditionalFormatting sqref="A62:B66">
     <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C57:C61">
+  <conditionalFormatting sqref="C62:C66">
     <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C57:C61">
+  <conditionalFormatting sqref="C62:C66">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57:B61">
+  <conditionalFormatting sqref="A62:B66">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/personal-logs/ryan-koenig/WorkLog_rk.xlsx
+++ b/personal-logs/ryan-koenig/WorkLog_rk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\DataScience\Data599\w2020-data599-capstone-projects-ubc-udl\personal-logs\ryan-koenig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9257F00-3763-44CE-8AFB-FDA86B2CAB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8733DB-06A2-426B-82DD-F29747E7F6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="95">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -5780,7 +5780,7 @@
   <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -6037,9 +6037,15 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
+      <c r="A30" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="25">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="18"/>
@@ -6057,7 +6063,7 @@
       <c r="C33" s="27"/>
       <c r="D33">
         <f>SUM(C27:C33)</f>
-        <v>4.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -6288,7 +6294,7 @@
       <c r="B71" s="17"/>
       <c r="C71" s="32">
         <f>SUM(C14:C68)</f>
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="D71" s="13"/>
     </row>

--- a/personal-logs/ryan-koenig/WorkLog_rk.xlsx
+++ b/personal-logs/ryan-koenig/WorkLog_rk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\DataScience\Data599\w2020-data599-capstone-projects-ubc-udl\personal-logs\ryan-koenig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8733DB-06A2-426B-82DD-F29747E7F6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6099863C-551A-4162-971C-DEA1DCD57A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 2'!$A$1:$D$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Week 3'!$A$1:$D$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Week 4'!$A$1:$D$48</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Week 5'!$A$1:$D$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Week 5'!$A$1:$D$57</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="98">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -328,6 +328,15 @@
   </si>
   <si>
     <t>Presentations</t>
+  </si>
+  <si>
+    <t>Model Evaluation on Dataset 4</t>
+  </si>
+  <si>
+    <t>Model Evaluation on Dataset 2</t>
+  </si>
+  <si>
+    <t>Branch Cleanup and Excel Updating</t>
   </si>
 </sst>
 </file>
@@ -1124,14 +1133,7 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="42" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="131">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="130">
     <dxf>
       <fill>
         <patternFill>
@@ -3116,137 +3118,137 @@
     <mergeCell ref="A57:B57"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A15:C20 A30:C34 A22:C28">
-    <cfRule type="expression" dxfId="130" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="71" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="129" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B45">
-    <cfRule type="expression" dxfId="128" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C45">
-    <cfRule type="expression" dxfId="127" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C33">
-    <cfRule type="expression" dxfId="126" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C41">
-    <cfRule type="expression" dxfId="125" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B33">
-    <cfRule type="expression" dxfId="124" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B41">
-    <cfRule type="expression" dxfId="123" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C52">
-    <cfRule type="expression" dxfId="122" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C56">
-    <cfRule type="expression" dxfId="121" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B56 A47">
-    <cfRule type="expression" dxfId="120" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B52 A47">
-    <cfRule type="expression" dxfId="119" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:B67">
-    <cfRule type="expression" dxfId="118" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:B63">
-    <cfRule type="expression" dxfId="117" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C63">
-    <cfRule type="expression" dxfId="116" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C67">
-    <cfRule type="expression" dxfId="115" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="expression" dxfId="114" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:B78">
-    <cfRule type="expression" dxfId="113" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69:C74">
-    <cfRule type="expression" dxfId="112" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69:C78">
-    <cfRule type="expression" dxfId="111" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:B74">
-    <cfRule type="expression" dxfId="110" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="109" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="108" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="expression" dxfId="107" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="expression" dxfId="106" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="105" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="104" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3959,137 +3961,137 @@
     <mergeCell ref="A58:B58"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A31:C35 A15:C21 A23:C29">
-    <cfRule type="expression" dxfId="103" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="102" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B46">
-    <cfRule type="expression" dxfId="101" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C46">
-    <cfRule type="expression" dxfId="100" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:C34">
-    <cfRule type="expression" dxfId="99" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C42">
-    <cfRule type="expression" dxfId="98" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B34">
-    <cfRule type="expression" dxfId="97" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B42">
-    <cfRule type="expression" dxfId="96" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="95" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C57">
-    <cfRule type="expression" dxfId="94" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B57 A48">
-    <cfRule type="expression" dxfId="93" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B53 A48">
-    <cfRule type="expression" dxfId="92" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B68">
-    <cfRule type="expression" dxfId="91" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B64">
-    <cfRule type="expression" dxfId="90" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C64">
-    <cfRule type="expression" dxfId="89" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C68">
-    <cfRule type="expression" dxfId="88" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="87" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B79">
-    <cfRule type="expression" dxfId="86" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C75">
-    <cfRule type="expression" dxfId="85" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C79">
-    <cfRule type="expression" dxfId="84" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B75">
-    <cfRule type="expression" dxfId="83" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="82" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="81" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="expression" dxfId="80" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="expression" dxfId="79" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="78" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="77" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4840,117 +4842,117 @@
     <mergeCell ref="A56:B56"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A33:C37 A15:C22 A39:C44 A24:C31">
-    <cfRule type="expression" dxfId="76" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="75" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:C36">
-    <cfRule type="expression" dxfId="74" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B36">
-    <cfRule type="expression" dxfId="73" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C51">
-    <cfRule type="expression" dxfId="72" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C55">
-    <cfRule type="expression" dxfId="71" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:B55 A46">
-    <cfRule type="expression" dxfId="70" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:B51 A46">
-    <cfRule type="expression" dxfId="69" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:B66">
-    <cfRule type="expression" dxfId="68" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:B62">
-    <cfRule type="expression" dxfId="67" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C62">
-    <cfRule type="expression" dxfId="66" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C66">
-    <cfRule type="expression" dxfId="65" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="expression" dxfId="64" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:B77">
-    <cfRule type="expression" dxfId="63" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C73">
-    <cfRule type="expression" dxfId="62" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C77">
-    <cfRule type="expression" dxfId="61" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:B73">
-    <cfRule type="expression" dxfId="60" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="59" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="expression" dxfId="58" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56">
-    <cfRule type="expression" dxfId="57" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67">
-    <cfRule type="expression" dxfId="56" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="55" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="54" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5631,137 +5633,137 @@
     <mergeCell ref="A49:B49"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A34:C34 A41:C41 A19:C20 A28:C28 A48:C48 A54:C55 A62:C63">
-    <cfRule type="expression" dxfId="53" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="52" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="42" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="51" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="50" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="49" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="expression" dxfId="48" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56">
-    <cfRule type="expression" dxfId="47" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C33">
-    <cfRule type="expression" dxfId="46" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:C40">
-    <cfRule type="expression" dxfId="45" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:C18">
-    <cfRule type="expression" dxfId="44" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:C27">
-    <cfRule type="expression" dxfId="43" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:C33">
-    <cfRule type="expression" dxfId="42" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B33">
-    <cfRule type="expression" dxfId="41" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C47">
-    <cfRule type="expression" dxfId="40" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C47">
-    <cfRule type="expression" dxfId="39" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43 A44:B47">
-    <cfRule type="expression" dxfId="38" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43 A44:B47">
-    <cfRule type="expression" dxfId="37" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="36" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="35" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:B53">
-    <cfRule type="expression" dxfId="34" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:B53">
-    <cfRule type="expression" dxfId="33" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:C53">
-    <cfRule type="expression" dxfId="32" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:C53">
-    <cfRule type="expression" dxfId="31" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:B61">
-    <cfRule type="expression" dxfId="30" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C61">
-    <cfRule type="expression" dxfId="29" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C61">
-    <cfRule type="expression" dxfId="28" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:B61">
-    <cfRule type="expression" dxfId="27" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5777,10 +5779,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -6075,125 +6077,190 @@
       <c r="C34" s="31"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
+      <c r="A35" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
+      <c r="A36" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
+      <c r="A37" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="20"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39">
-        <f>SUM(C35:C39)</f>
-        <v>0</v>
+      <c r="A38" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="25">
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="35">
+      <c r="A40" s="20"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40">
+        <f>SUM(C35:C40)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="35">
         <f>A34+1</f>
         <v>44350</v>
       </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="31"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="31"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
+      <c r="A42" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
+      <c r="A43" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
+      <c r="A44" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="20"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46">
-        <f>SUM(C41:C46)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="35">
-        <f>A40+1</f>
-        <v>44351</v>
-      </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="31"/>
+      <c r="A45" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="25">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="18"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
+      <c r="A48" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="18"/>
-      <c r="B49" s="25"/>
+      <c r="B49" s="18"/>
       <c r="C49" s="25"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="18"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="18"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
+    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="20"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50">
+        <f>SUM(C42:C50)</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="35">
+        <f>A41+1</f>
+        <v>44351</v>
+      </c>
+      <c r="B51" s="36"/>
+      <c r="C51" s="31"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="18"/>
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="20"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53">
-        <f>SUM(C48:C53)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="35">
-        <f>A47+1</f>
-        <v>44352</v>
-      </c>
-      <c r="B54" s="36"/>
-      <c r="C54" s="31"/>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="18"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="18"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="18"/>
@@ -6205,37 +6272,37 @@
       <c r="B56" s="25"/>
       <c r="C56" s="25"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="18"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="18"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
+    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="20"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57">
+        <f>SUM(C52:C57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="35">
+        <f>A51+1</f>
+        <v>44352</v>
+      </c>
+      <c r="B58" s="36"/>
+      <c r="C58" s="31"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="20"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="20"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60">
-        <f>SUM(C55:C60)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="35">
-        <f>A54+1</f>
-        <v>44353</v>
-      </c>
-      <c r="B61" s="36"/>
-      <c r="C61" s="31"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="18"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="18"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="18"/>
@@ -6243,19 +6310,26 @@
       <c r="C62" s="25"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="18"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="18"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="18"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="20"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64">
+        <f>SUM(C59:C64)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="35">
+        <f>A58+1</f>
+        <v>44353</v>
+      </c>
+      <c r="B65" s="36"/>
+      <c r="C65" s="31"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="18"/>
@@ -6263,131 +6337,146 @@
       <c r="C66" s="25"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="20"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
+      <c r="A67" s="18"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="20"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68">
-        <f>SUM(C62:C68)</f>
+      <c r="A68" s="18"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="18"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="18"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="20"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="20"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="27"/>
+      <c r="D72">
+        <f>SUM(C66:C72)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="21"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="10"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="12"/>
-    </row>
-    <row r="71" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="17" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="21"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="10"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="12"/>
+    </row>
+    <row r="75" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="17"/>
-      <c r="C71" s="32">
-        <f>SUM(C14:C68)</f>
-        <v>15</v>
-      </c>
-      <c r="D71" s="13"/>
-    </row>
-    <row r="72" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="9"/>
-      <c r="B72" s="29"/>
-      <c r="C72" s="29"/>
-    </row>
-    <row r="73" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A73" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="11"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="22"/>
-      <c r="B74" s="30"/>
-      <c r="C74" s="30"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="22"/>
-      <c r="B75" s="30"/>
-      <c r="C75" s="30"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B75" s="17"/>
+      <c r="C75" s="32">
+        <f>SUM(C14:C72)</f>
+        <v>30.75</v>
+      </c>
+      <c r="D75" s="13"/>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9"/>
       <c r="B76" s="29"/>
       <c r="C76" s="29"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="23"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-    </row>
-    <row r="79" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
+    <row r="77" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A77" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="28"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="11"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="22"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="22"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="30"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="9"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="23"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="23"/>
+    </row>
+    <row r="83" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A83" s="11"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A65:B65"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A58:B58"/>
   </mergeCells>
-  <conditionalFormatting sqref="A14 A39:C39 A46:C46 A20:C25 A33:C33 A53:C53 A59:C60 A67:C68">
-    <cfRule type="expression" dxfId="26" priority="27" stopIfTrue="1">
+  <conditionalFormatting sqref="A14 A40:C40 A20:C25 A33:C33 A57:C57 A63:C64 A71:C72 A42:C50">
+    <cfRule type="expression" dxfId="25" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="24" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="26" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51">
+    <cfRule type="expression" dxfId="23" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="23" priority="25" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="22" priority="24" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61">
-    <cfRule type="expression" dxfId="20" priority="21" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35:C38">
-    <cfRule type="expression" dxfId="19" priority="16" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41:C45">
-    <cfRule type="expression" dxfId="18" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="25" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41">
+    <cfRule type="expression" dxfId="21" priority="24" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58">
+    <cfRule type="expression" dxfId="20" priority="22" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65">
+    <cfRule type="expression" dxfId="19" priority="21" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35:C39">
+    <cfRule type="expression" dxfId="18" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6401,82 +6490,82 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:C38">
+  <conditionalFormatting sqref="A35:C39">
     <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:B38">
+  <conditionalFormatting sqref="A35:B39">
     <cfRule type="expression" dxfId="14" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48:C52">
+  <conditionalFormatting sqref="C52:C56">
     <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48:C52">
+  <conditionalFormatting sqref="C52:C56">
     <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48 A49:B52">
+  <conditionalFormatting sqref="A52 A53:B56">
     <cfRule type="expression" dxfId="11" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48 A49:B52">
+  <conditionalFormatting sqref="A52 A53:B56">
     <cfRule type="expression" dxfId="10" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B48">
+  <conditionalFormatting sqref="B52">
     <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B48">
+  <conditionalFormatting sqref="B52">
     <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55:B58">
+  <conditionalFormatting sqref="A59:B62">
     <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55:B58">
+  <conditionalFormatting sqref="A59:B62">
     <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C55:C58">
+  <conditionalFormatting sqref="C59:C62">
     <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C55:C58">
+  <conditionalFormatting sqref="C59:C62">
     <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62:B66">
+  <conditionalFormatting sqref="A66:B70">
     <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C62:C66">
+  <conditionalFormatting sqref="C66:C70">
     <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C62:C66">
+  <conditionalFormatting sqref="C66:C70">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62:B66">
+  <conditionalFormatting sqref="A66:B70">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/personal-logs/ryan-koenig/WorkLog_rk.xlsx
+++ b/personal-logs/ryan-koenig/WorkLog_rk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\DataScience\Data599\w2020-data599-capstone-projects-ubc-udl\personal-logs\ryan-koenig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6099863C-551A-4162-971C-DEA1DCD57A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C80A06C-079C-40EB-9A4A-18DD012966B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 2'!$A$1:$D$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Week 3'!$A$1:$D$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Week 4'!$A$1:$D$48</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Week 5'!$A$1:$D$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Week 5'!$A$1:$D$58</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="99">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>Branch Cleanup and Excel Updating</t>
+  </si>
+  <si>
+    <t>Model Parameter Evaluation</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1136,35 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="42" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="130">
+  <dxfs count="134">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3118,137 +3149,137 @@
     <mergeCell ref="A57:B57"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A15:C20 A30:C34 A22:C28">
-    <cfRule type="expression" dxfId="129" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="71" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="128" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B45">
-    <cfRule type="expression" dxfId="127" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C45">
-    <cfRule type="expression" dxfId="126" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C33">
-    <cfRule type="expression" dxfId="125" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C41">
-    <cfRule type="expression" dxfId="124" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B33">
-    <cfRule type="expression" dxfId="123" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B41">
-    <cfRule type="expression" dxfId="122" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C52">
-    <cfRule type="expression" dxfId="121" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C56">
-    <cfRule type="expression" dxfId="120" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B56 A47">
-    <cfRule type="expression" dxfId="119" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B52 A47">
-    <cfRule type="expression" dxfId="118" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:B67">
-    <cfRule type="expression" dxfId="117" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:B63">
-    <cfRule type="expression" dxfId="116" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C63">
-    <cfRule type="expression" dxfId="115" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C67">
-    <cfRule type="expression" dxfId="114" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="expression" dxfId="113" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:B78">
-    <cfRule type="expression" dxfId="112" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69:C74">
-    <cfRule type="expression" dxfId="111" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69:C78">
-    <cfRule type="expression" dxfId="110" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:B74">
-    <cfRule type="expression" dxfId="109" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="108" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="107" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="expression" dxfId="106" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="expression" dxfId="105" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="104" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="103" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3961,137 +3992,137 @@
     <mergeCell ref="A58:B58"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A31:C35 A15:C21 A23:C29">
-    <cfRule type="expression" dxfId="102" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="101" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B46">
-    <cfRule type="expression" dxfId="100" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C46">
-    <cfRule type="expression" dxfId="99" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:C34">
-    <cfRule type="expression" dxfId="98" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C42">
-    <cfRule type="expression" dxfId="97" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B34">
-    <cfRule type="expression" dxfId="96" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B42">
-    <cfRule type="expression" dxfId="95" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="94" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C57">
-    <cfRule type="expression" dxfId="93" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B57 A48">
-    <cfRule type="expression" dxfId="92" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B53 A48">
-    <cfRule type="expression" dxfId="91" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B68">
-    <cfRule type="expression" dxfId="90" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B64">
-    <cfRule type="expression" dxfId="89" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C64">
-    <cfRule type="expression" dxfId="88" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C68">
-    <cfRule type="expression" dxfId="87" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="86" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B79">
-    <cfRule type="expression" dxfId="85" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C75">
-    <cfRule type="expression" dxfId="84" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C79">
-    <cfRule type="expression" dxfId="83" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B75">
-    <cfRule type="expression" dxfId="82" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="81" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="80" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="expression" dxfId="79" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="expression" dxfId="78" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="77" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="76" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4842,117 +4873,117 @@
     <mergeCell ref="A56:B56"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A33:C37 A15:C22 A39:C44 A24:C31">
-    <cfRule type="expression" dxfId="75" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="74" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:C36">
-    <cfRule type="expression" dxfId="73" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B36">
-    <cfRule type="expression" dxfId="72" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C51">
-    <cfRule type="expression" dxfId="71" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C55">
-    <cfRule type="expression" dxfId="70" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:B55 A46">
-    <cfRule type="expression" dxfId="69" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:B51 A46">
-    <cfRule type="expression" dxfId="68" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:B66">
-    <cfRule type="expression" dxfId="67" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:B62">
-    <cfRule type="expression" dxfId="66" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C62">
-    <cfRule type="expression" dxfId="65" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C66">
-    <cfRule type="expression" dxfId="64" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="expression" dxfId="63" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:B77">
-    <cfRule type="expression" dxfId="62" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C73">
-    <cfRule type="expression" dxfId="61" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C77">
-    <cfRule type="expression" dxfId="60" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:B73">
-    <cfRule type="expression" dxfId="59" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="58" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="expression" dxfId="57" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56">
-    <cfRule type="expression" dxfId="56" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67">
-    <cfRule type="expression" dxfId="55" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="54" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="53" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5633,137 +5664,137 @@
     <mergeCell ref="A49:B49"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A34:C34 A41:C41 A19:C20 A28:C28 A48:C48 A54:C55 A62:C63">
-    <cfRule type="expression" dxfId="52" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="51" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="42" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="50" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="49" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="48" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="expression" dxfId="47" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56">
-    <cfRule type="expression" dxfId="46" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C33">
-    <cfRule type="expression" dxfId="45" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:C40">
-    <cfRule type="expression" dxfId="44" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:C18">
-    <cfRule type="expression" dxfId="43" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:C27">
-    <cfRule type="expression" dxfId="42" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:C33">
-    <cfRule type="expression" dxfId="41" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B33">
-    <cfRule type="expression" dxfId="40" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C47">
-    <cfRule type="expression" dxfId="39" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C47">
-    <cfRule type="expression" dxfId="38" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43 A44:B47">
-    <cfRule type="expression" dxfId="37" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43 A44:B47">
-    <cfRule type="expression" dxfId="36" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="35" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="34" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:B53">
-    <cfRule type="expression" dxfId="33" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:B53">
-    <cfRule type="expression" dxfId="32" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:C53">
-    <cfRule type="expression" dxfId="31" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:C53">
-    <cfRule type="expression" dxfId="30" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:B61">
-    <cfRule type="expression" dxfId="29" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C61">
-    <cfRule type="expression" dxfId="28" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C61">
-    <cfRule type="expression" dxfId="27" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:B61">
-    <cfRule type="expression" dxfId="26" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5779,10 +5810,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -6248,51 +6279,87 @@
       <c r="C51" s="31"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="18"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
+      <c r="A52" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="18"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
+      <c r="A53" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="18"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
+      <c r="A54" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="18"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
+      <c r="A55" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="18"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="20"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57">
-        <f>SUM(C52:C57)</f>
-        <v>0</v>
+      <c r="A56" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="25">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="35">
+      <c r="A58" s="20"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58">
+        <f>SUM(C52:C58)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="35">
         <f>A51+1</f>
         <v>44352</v>
       </c>
-      <c r="B58" s="36"/>
-      <c r="C58" s="31"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="18"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="31"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="18"/>
@@ -6310,31 +6377,31 @@
       <c r="C62" s="25"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="20"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="18"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="20"/>
       <c r="B64" s="27"/>
       <c r="C64" s="27"/>
-      <c r="D64">
-        <f>SUM(C59:C64)</f>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="20"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65">
+        <f>SUM(C60:C65)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="35">
-        <f>A58+1</f>
+    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="35">
+        <f>A59+1</f>
         <v>44353</v>
       </c>
-      <c r="B65" s="36"/>
-      <c r="C65" s="31"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="18"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="31"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="18"/>
@@ -6357,58 +6424,58 @@
       <c r="C70" s="25"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="20"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
+      <c r="A71" s="18"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="20"/>
       <c r="B72" s="27"/>
       <c r="C72" s="27"/>
-      <c r="D72">
-        <f>SUM(C66:C72)</f>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="20"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73">
+        <f>SUM(C67:C73)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="21"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-    </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="10"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="12"/>
-    </row>
-    <row r="75" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="17" t="s">
+      <c r="A74" s="21"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="10"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="12"/>
+    </row>
+    <row r="76" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B75" s="17"/>
-      <c r="C75" s="32">
-        <f>SUM(C14:C72)</f>
-        <v>30.75</v>
-      </c>
-      <c r="D75" s="13"/>
-    </row>
-    <row r="76" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="9"/>
-      <c r="B76" s="29"/>
-      <c r="C76" s="29"/>
-    </row>
-    <row r="77" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A77" s="10" t="s">
+      <c r="B76" s="17"/>
+      <c r="C76" s="32">
+        <f>SUM(C14:C73)</f>
+        <v>37.75</v>
+      </c>
+      <c r="D76" s="13"/>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="9"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
+    </row>
+    <row r="78" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A78" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B77" s="28"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="11"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="22"/>
-      <c r="B78" s="30"/>
-      <c r="C78" s="30"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="11"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="22"/>
@@ -6416,156 +6483,181 @@
       <c r="C79" s="30"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="9"/>
-      <c r="B80" s="29"/>
-      <c r="C80" s="29"/>
+      <c r="A80" s="22"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="23"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="23"/>
-    </row>
-    <row r="83" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
+      <c r="A81" s="9"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="23"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
+    </row>
+    <row r="84" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
   </mergeCells>
-  <conditionalFormatting sqref="A14 A40:C40 A20:C25 A33:C33 A57:C57 A63:C64 A71:C72 A42:C50">
-    <cfRule type="expression" dxfId="25" priority="27" stopIfTrue="1">
+  <conditionalFormatting sqref="A14 A40:C40 A20:C25 A33:C33 A58:C58 A64:C65 A72:C73 A42:C50">
+    <cfRule type="expression" dxfId="29" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
+    <cfRule type="expression" dxfId="28" priority="30" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51">
+    <cfRule type="expression" dxfId="27" priority="27" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34">
+    <cfRule type="expression" dxfId="26" priority="29" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41">
+    <cfRule type="expression" dxfId="25" priority="28" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
     <cfRule type="expression" dxfId="24" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51">
-    <cfRule type="expression" dxfId="23" priority="23" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="22" priority="25" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41">
+  <conditionalFormatting sqref="A66">
+    <cfRule type="expression" dxfId="23" priority="25" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35:C39">
+    <cfRule type="expression" dxfId="22" priority="20" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:C19">
     <cfRule type="expression" dxfId="21" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58">
-    <cfRule type="expression" dxfId="20" priority="22" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65">
-    <cfRule type="expression" dxfId="19" priority="21" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35:C39">
-    <cfRule type="expression" dxfId="18" priority="16" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:C19">
-    <cfRule type="expression" dxfId="17" priority="20" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A27:C32">
-    <cfRule type="expression" dxfId="16" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:C39">
+    <cfRule type="expression" dxfId="19" priority="22" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:B39">
+    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52:C55 C57">
+    <cfRule type="expression" dxfId="17" priority="15" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52:C55 C57">
+    <cfRule type="expression" dxfId="16" priority="16" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52 A53:B55 A57:B57">
     <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:B39">
+  <conditionalFormatting sqref="A52 A53:B55 A57:B57">
     <cfRule type="expression" dxfId="14" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52:C56">
-    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52:C56">
-    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52 A53:B56">
-    <cfRule type="expression" dxfId="11" priority="14" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52 A53:B56">
-    <cfRule type="expression" dxfId="10" priority="13" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59:B62">
+    <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B63">
+    <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B63">
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60:C63">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60:C63">
+    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:B71">
     <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A59:B62">
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59:C62">
-    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59:C62">
-    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:B70">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66:C70">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66:C70">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:B70">
+  <conditionalFormatting sqref="C67:C71">
+    <cfRule type="expression" dxfId="6" priority="5" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67:C71">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:B71">
+    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:B56">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:B56">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/personal-logs/ryan-koenig/WorkLog_rk.xlsx
+++ b/personal-logs/ryan-koenig/WorkLog_rk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\DataScience\Data599\w2020-data599-capstone-projects-ubc-udl\personal-logs\ryan-koenig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C80A06C-079C-40EB-9A4A-18DD012966B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486EB240-8F53-43A7-9705-32C7CFE338E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="2250" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="10" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="99">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -1136,7 +1136,63 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="42" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="134">
+  <dxfs count="142">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3149,137 +3205,137 @@
     <mergeCell ref="A57:B57"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A15:C20 A30:C34 A22:C28">
-    <cfRule type="expression" dxfId="133" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="71" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="132" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B45">
-    <cfRule type="expression" dxfId="131" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C45">
-    <cfRule type="expression" dxfId="130" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C33">
-    <cfRule type="expression" dxfId="129" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C41">
-    <cfRule type="expression" dxfId="128" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B33">
-    <cfRule type="expression" dxfId="127" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B41">
-    <cfRule type="expression" dxfId="126" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C52">
-    <cfRule type="expression" dxfId="125" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C56">
-    <cfRule type="expression" dxfId="124" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B56 A47">
-    <cfRule type="expression" dxfId="123" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B52 A47">
-    <cfRule type="expression" dxfId="122" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:B67">
-    <cfRule type="expression" dxfId="121" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:B63">
-    <cfRule type="expression" dxfId="120" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C63">
-    <cfRule type="expression" dxfId="119" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C67">
-    <cfRule type="expression" dxfId="118" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="expression" dxfId="117" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:B78">
-    <cfRule type="expression" dxfId="116" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69:C74">
-    <cfRule type="expression" dxfId="115" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69:C78">
-    <cfRule type="expression" dxfId="114" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:B74">
-    <cfRule type="expression" dxfId="113" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="112" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="111" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="expression" dxfId="110" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="expression" dxfId="109" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="108" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="107" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3992,137 +4048,137 @@
     <mergeCell ref="A58:B58"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A31:C35 A15:C21 A23:C29">
-    <cfRule type="expression" dxfId="106" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="105" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B46">
-    <cfRule type="expression" dxfId="104" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C46">
-    <cfRule type="expression" dxfId="103" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:C34">
-    <cfRule type="expression" dxfId="102" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C42">
-    <cfRule type="expression" dxfId="101" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B34">
-    <cfRule type="expression" dxfId="100" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B42">
-    <cfRule type="expression" dxfId="99" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="98" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C57">
-    <cfRule type="expression" dxfId="97" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B57 A48">
-    <cfRule type="expression" dxfId="96" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B53 A48">
-    <cfRule type="expression" dxfId="95" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B68">
-    <cfRule type="expression" dxfId="94" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B64">
-    <cfRule type="expression" dxfId="93" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C64">
-    <cfRule type="expression" dxfId="92" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C68">
-    <cfRule type="expression" dxfId="91" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="90" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B79">
-    <cfRule type="expression" dxfId="89" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C75">
-    <cfRule type="expression" dxfId="88" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C79">
-    <cfRule type="expression" dxfId="87" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B75">
-    <cfRule type="expression" dxfId="86" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="85" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="84" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="expression" dxfId="83" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="expression" dxfId="82" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="81" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="80" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4873,117 +4929,117 @@
     <mergeCell ref="A56:B56"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A33:C37 A15:C22 A39:C44 A24:C31">
-    <cfRule type="expression" dxfId="79" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="78" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:C36">
-    <cfRule type="expression" dxfId="77" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B36">
-    <cfRule type="expression" dxfId="76" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C51">
-    <cfRule type="expression" dxfId="75" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C55">
-    <cfRule type="expression" dxfId="74" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:B55 A46">
-    <cfRule type="expression" dxfId="73" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:B51 A46">
-    <cfRule type="expression" dxfId="72" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:B66">
-    <cfRule type="expression" dxfId="71" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:B62">
-    <cfRule type="expression" dxfId="70" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C62">
-    <cfRule type="expression" dxfId="69" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C66">
-    <cfRule type="expression" dxfId="68" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="expression" dxfId="67" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:B77">
-    <cfRule type="expression" dxfId="66" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C73">
-    <cfRule type="expression" dxfId="65" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C77">
-    <cfRule type="expression" dxfId="64" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:B73">
-    <cfRule type="expression" dxfId="63" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="62" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="expression" dxfId="61" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56">
-    <cfRule type="expression" dxfId="60" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67">
-    <cfRule type="expression" dxfId="59" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="58" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="57" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5664,137 +5720,137 @@
     <mergeCell ref="A49:B49"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A34:C34 A41:C41 A19:C20 A28:C28 A48:C48 A54:C55 A62:C63">
-    <cfRule type="expression" dxfId="56" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="55" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="42" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="54" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="53" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="52" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="expression" dxfId="51" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56">
-    <cfRule type="expression" dxfId="50" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C33">
-    <cfRule type="expression" dxfId="49" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:C40">
-    <cfRule type="expression" dxfId="48" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:C18">
-    <cfRule type="expression" dxfId="47" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:C27">
-    <cfRule type="expression" dxfId="46" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:C33">
-    <cfRule type="expression" dxfId="45" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B33">
-    <cfRule type="expression" dxfId="44" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C47">
-    <cfRule type="expression" dxfId="43" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C47">
-    <cfRule type="expression" dxfId="42" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43 A44:B47">
-    <cfRule type="expression" dxfId="41" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43 A44:B47">
-    <cfRule type="expression" dxfId="40" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="39" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="38" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:B53">
-    <cfRule type="expression" dxfId="37" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:B53">
-    <cfRule type="expression" dxfId="36" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:C53">
-    <cfRule type="expression" dxfId="35" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:C53">
-    <cfRule type="expression" dxfId="34" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:B61">
-    <cfRule type="expression" dxfId="33" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C61">
-    <cfRule type="expression" dxfId="32" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C61">
-    <cfRule type="expression" dxfId="31" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:B61">
-    <cfRule type="expression" dxfId="30" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5812,8 +5868,8 @@
   </sheetPr>
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -6362,9 +6418,15 @@
       <c r="C59" s="31"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="18"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
+      <c r="A60" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="18"/>
@@ -6392,7 +6454,7 @@
       <c r="C65" s="27"/>
       <c r="D65">
         <f>SUM(C60:C65)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -6404,9 +6466,15 @@
       <c r="C66" s="31"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="18"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
+      <c r="A67" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="18"/>
@@ -6439,7 +6507,7 @@
       <c r="C73" s="27"/>
       <c r="D73">
         <f>SUM(C67:C73)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -6460,7 +6528,7 @@
       <c r="B76" s="17"/>
       <c r="C76" s="32">
         <f>SUM(C14:C73)</f>
-        <v>37.75</v>
+        <v>41.75</v>
       </c>
       <c r="D76" s="13"/>
     </row>
@@ -6513,151 +6581,191 @@
     <mergeCell ref="A59:B59"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A40:C40 A20:C25 A33:C33 A58:C58 A64:C65 A72:C73 A42:C50">
-    <cfRule type="expression" dxfId="29" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="39" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="expression" dxfId="28" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="expression" dxfId="27" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="35" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
+    <cfRule type="expression" dxfId="34" priority="37" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41">
+    <cfRule type="expression" dxfId="33" priority="36" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="expression" dxfId="32" priority="34" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66">
+    <cfRule type="expression" dxfId="31" priority="33" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35:C39">
+    <cfRule type="expression" dxfId="30" priority="28" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:C19">
+    <cfRule type="expression" dxfId="29" priority="32" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C32">
+    <cfRule type="expression" dxfId="28" priority="31" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:C39">
+    <cfRule type="expression" dxfId="27" priority="30" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:B39">
     <cfRule type="expression" dxfId="26" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41">
-    <cfRule type="expression" dxfId="25" priority="28" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59">
-    <cfRule type="expression" dxfId="24" priority="26" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66">
-    <cfRule type="expression" dxfId="23" priority="25" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35:C39">
-    <cfRule type="expression" dxfId="22" priority="20" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:C19">
-    <cfRule type="expression" dxfId="21" priority="24" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:C32">
-    <cfRule type="expression" dxfId="20" priority="23" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:C39">
-    <cfRule type="expression" dxfId="19" priority="22" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:B39">
-    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C52:C55 C57">
-    <cfRule type="expression" dxfId="17" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C55 C57">
-    <cfRule type="expression" dxfId="16" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52 A53:B55 A57:B57">
-    <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52 A53:B55 A57:B57">
-    <cfRule type="expression" dxfId="14" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
+    <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52">
+    <cfRule type="expression" dxfId="20" priority="21" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:B63">
+    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:B63">
+    <cfRule type="expression" dxfId="18" priority="19" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61:C63">
+    <cfRule type="expression" dxfId="17" priority="17" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61:C63">
+    <cfRule type="expression" dxfId="16" priority="18" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68:B71">
+    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68:C71">
+    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68:C71">
     <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B52">
-    <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B63">
-    <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B63">
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60:C63">
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60:C63">
-    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67:B71">
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67:C71">
-    <cfRule type="expression" dxfId="6" priority="5" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67:C71">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67:B71">
+  <conditionalFormatting sqref="A68:B71">
+    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:B56">
+    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:B56">
+    <cfRule type="expression" dxfId="8" priority="11" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B60">
+    <cfRule type="expression" dxfId="5" priority="8" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B60">
     <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
+  <conditionalFormatting sqref="C67">
     <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
+  <conditionalFormatting sqref="C67">
     <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A56:B56">
+  <conditionalFormatting sqref="A67:B67">
     <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A56:B56">
+  <conditionalFormatting sqref="A67:B67">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/personal-logs/ryan-koenig/WorkLog_rk.xlsx
+++ b/personal-logs/ryan-koenig/WorkLog_rk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\DataScience\Data599\w2020-data599-capstone-projects-ubc-udl\personal-logs\ryan-koenig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486EB240-8F53-43A7-9705-32C7CFE338E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C947D4ED-9838-4979-A92C-B4D29E01E083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="2250" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="10" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Week 3" sheetId="12" r:id="rId3"/>
     <sheet name="Week 4" sheetId="14" r:id="rId4"/>
     <sheet name="Week 5" sheetId="16" r:id="rId5"/>
+    <sheet name="Week 6" sheetId="17" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 1'!$A$1:$D$56</definedName>
@@ -25,6 +26,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Week 3'!$A$1:$D$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Week 4'!$A$1:$D$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Week 5'!$A$1:$D$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Week 6'!$A$1:$D$56</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="104">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -340,6 +342,21 @@
   </si>
   <si>
     <t>Model Parameter Evaluation</t>
+  </si>
+  <si>
+    <t>Threshold Rule Investigation</t>
+  </si>
+  <si>
+    <t>Week 6 Update Presentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal Meeting </t>
+  </si>
+  <si>
+    <t>Appendix C Results</t>
+  </si>
+  <si>
+    <t>Appendix C Figures</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1153,448 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="42" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="142">
+  <dxfs count="205">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3205,137 +3663,137 @@
     <mergeCell ref="A57:B57"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A15:C20 A30:C34 A22:C28">
-    <cfRule type="expression" dxfId="141" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="71" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="140" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B45">
-    <cfRule type="expression" dxfId="139" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C45">
-    <cfRule type="expression" dxfId="138" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C33">
-    <cfRule type="expression" dxfId="137" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C41">
-    <cfRule type="expression" dxfId="136" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B33">
-    <cfRule type="expression" dxfId="135" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B41">
-    <cfRule type="expression" dxfId="134" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C52">
-    <cfRule type="expression" dxfId="133" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C56">
-    <cfRule type="expression" dxfId="132" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B56 A47">
-    <cfRule type="expression" dxfId="131" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B52 A47">
-    <cfRule type="expression" dxfId="130" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:B67">
-    <cfRule type="expression" dxfId="129" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:B63">
-    <cfRule type="expression" dxfId="128" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C63">
-    <cfRule type="expression" dxfId="127" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C67">
-    <cfRule type="expression" dxfId="126" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="expression" dxfId="125" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:B78">
-    <cfRule type="expression" dxfId="124" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69:C74">
-    <cfRule type="expression" dxfId="123" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69:C78">
-    <cfRule type="expression" dxfId="122" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:B74">
-    <cfRule type="expression" dxfId="121" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="120" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="119" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="expression" dxfId="118" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="expression" dxfId="117" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="116" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="115" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4048,137 +4506,137 @@
     <mergeCell ref="A58:B58"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A31:C35 A15:C21 A23:C29">
-    <cfRule type="expression" dxfId="114" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="113" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B46">
-    <cfRule type="expression" dxfId="112" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C46">
-    <cfRule type="expression" dxfId="111" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:C34">
-    <cfRule type="expression" dxfId="110" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C42">
-    <cfRule type="expression" dxfId="109" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B34">
-    <cfRule type="expression" dxfId="108" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B42">
-    <cfRule type="expression" dxfId="107" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="106" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C57">
-    <cfRule type="expression" dxfId="105" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B57 A48">
-    <cfRule type="expression" dxfId="104" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B53 A48">
-    <cfRule type="expression" dxfId="103" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B68">
-    <cfRule type="expression" dxfId="102" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B64">
-    <cfRule type="expression" dxfId="101" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C64">
-    <cfRule type="expression" dxfId="100" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C68">
-    <cfRule type="expression" dxfId="99" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="98" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B79">
-    <cfRule type="expression" dxfId="97" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C75">
-    <cfRule type="expression" dxfId="96" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C79">
-    <cfRule type="expression" dxfId="95" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B75">
-    <cfRule type="expression" dxfId="94" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="93" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="92" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="expression" dxfId="91" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="expression" dxfId="90" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="89" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="88" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4929,117 +5387,117 @@
     <mergeCell ref="A56:B56"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A33:C37 A15:C22 A39:C44 A24:C31">
-    <cfRule type="expression" dxfId="87" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="86" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:C36">
-    <cfRule type="expression" dxfId="85" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B36">
-    <cfRule type="expression" dxfId="84" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C51">
-    <cfRule type="expression" dxfId="83" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C55">
-    <cfRule type="expression" dxfId="82" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:B55 A46">
-    <cfRule type="expression" dxfId="81" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:B51 A46">
-    <cfRule type="expression" dxfId="80" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:B66">
-    <cfRule type="expression" dxfId="79" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:B62">
-    <cfRule type="expression" dxfId="78" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C62">
-    <cfRule type="expression" dxfId="77" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C66">
-    <cfRule type="expression" dxfId="76" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="expression" dxfId="75" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:B77">
-    <cfRule type="expression" dxfId="74" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C73">
-    <cfRule type="expression" dxfId="73" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C77">
-    <cfRule type="expression" dxfId="72" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:B73">
-    <cfRule type="expression" dxfId="71" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="70" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="expression" dxfId="69" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56">
-    <cfRule type="expression" dxfId="68" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67">
-    <cfRule type="expression" dxfId="67" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="66" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="65" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5057,8 +5515,8 @@
   </sheetPr>
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -5720,137 +6178,137 @@
     <mergeCell ref="A49:B49"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A34:C34 A41:C41 A19:C20 A28:C28 A48:C48 A54:C55 A62:C63">
-    <cfRule type="expression" dxfId="64" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="63" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="42" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="62" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="61" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="60" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="expression" dxfId="59" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56">
-    <cfRule type="expression" dxfId="58" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C33">
-    <cfRule type="expression" dxfId="57" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:C40">
-    <cfRule type="expression" dxfId="56" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:C18">
-    <cfRule type="expression" dxfId="55" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:C27">
-    <cfRule type="expression" dxfId="54" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:C33">
-    <cfRule type="expression" dxfId="53" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B33">
-    <cfRule type="expression" dxfId="52" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C47">
-    <cfRule type="expression" dxfId="51" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C47">
-    <cfRule type="expression" dxfId="50" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43 A44:B47">
-    <cfRule type="expression" dxfId="49" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43 A44:B47">
-    <cfRule type="expression" dxfId="48" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="47" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="46" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:B53">
-    <cfRule type="expression" dxfId="45" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:B53">
-    <cfRule type="expression" dxfId="44" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:C53">
-    <cfRule type="expression" dxfId="43" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:C53">
-    <cfRule type="expression" dxfId="42" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:B61">
-    <cfRule type="expression" dxfId="41" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C61">
-    <cfRule type="expression" dxfId="40" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C61">
-    <cfRule type="expression" dxfId="39" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:B61">
-    <cfRule type="expression" dxfId="38" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5868,7 +6326,7 @@
   </sheetPr>
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
@@ -6581,192 +7039,1129 @@
     <mergeCell ref="A59:B59"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A40:C40 A20:C25 A33:C33 A58:C58 A64:C65 A72:C73 A42:C50">
-    <cfRule type="expression" dxfId="37" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="39" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="expression" dxfId="36" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="expression" dxfId="35" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="35" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
+    <cfRule type="expression" dxfId="97" priority="37" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41">
+    <cfRule type="expression" dxfId="96" priority="36" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="expression" dxfId="95" priority="34" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66">
+    <cfRule type="expression" dxfId="94" priority="33" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35:C39">
+    <cfRule type="expression" dxfId="93" priority="28" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:C19">
+    <cfRule type="expression" dxfId="92" priority="32" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C32">
+    <cfRule type="expression" dxfId="91" priority="31" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:C39">
+    <cfRule type="expression" dxfId="90" priority="30" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:B39">
+    <cfRule type="expression" dxfId="89" priority="29" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52:C55 C57">
+    <cfRule type="expression" dxfId="88" priority="23" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52:C55 C57">
+    <cfRule type="expression" dxfId="87" priority="24" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52 A53:B55 A57:B57">
+    <cfRule type="expression" dxfId="86" priority="26" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52 A53:B55 A57:B57">
+    <cfRule type="expression" dxfId="85" priority="25" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52">
+    <cfRule type="expression" dxfId="84" priority="22" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52">
+    <cfRule type="expression" dxfId="83" priority="21" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:B63">
+    <cfRule type="expression" dxfId="82" priority="20" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:B63">
+    <cfRule type="expression" dxfId="81" priority="19" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61:C63">
+    <cfRule type="expression" dxfId="80" priority="17" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61:C63">
+    <cfRule type="expression" dxfId="79" priority="18" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68:B71">
+    <cfRule type="expression" dxfId="78" priority="16" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68:C71">
+    <cfRule type="expression" dxfId="77" priority="13" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68:C71">
+    <cfRule type="expression" dxfId="76" priority="14" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68:B71">
+    <cfRule type="expression" dxfId="75" priority="15" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="expression" dxfId="74" priority="9" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="expression" dxfId="73" priority="10" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:B56">
+    <cfRule type="expression" dxfId="72" priority="12" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:B56">
+    <cfRule type="expression" dxfId="71" priority="11" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="expression" dxfId="70" priority="5" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="expression" dxfId="69" priority="6" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B60">
+    <cfRule type="expression" dxfId="68" priority="8" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B60">
+    <cfRule type="expression" dxfId="67" priority="7" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="expression" dxfId="66" priority="1" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="expression" dxfId="65" priority="2" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:B67">
+    <cfRule type="expression" dxfId="64" priority="4" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:B67">
+    <cfRule type="expression" dxfId="63" priority="3" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.25"/>
+  <pageSetup scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BFA658-CC50-40EB-827B-912471ABC0D9}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D82"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="70.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="2">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+    </row>
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="35">
+        <f>D3</f>
+        <v>44354</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="31"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="33"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="20"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+    </row>
+    <row r="24" spans="1:4" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="20"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24">
+        <f>SUM(C15:C24)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="35">
+        <f>A14+1</f>
+        <v>44355</v>
+      </c>
+      <c r="B25" s="36"/>
+      <c r="C25" s="31"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="25">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="18"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="20"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32">
+        <f>SUM(C26:C32)</f>
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="35">
+        <f>A25+1</f>
+        <v>44356</v>
+      </c>
+      <c r="B33" s="36"/>
+      <c r="C33" s="31"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="18"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="18"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="18"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="20"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39">
+        <f>SUM(C34:C39)</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="35">
+        <f>A33+1</f>
+        <v>44357</v>
+      </c>
+      <c r="B40" s="36"/>
+      <c r="C40" s="31"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="25"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="25"/>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="20"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48">
+        <f>SUM(C41:C48)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="35">
+        <f>A40+1</f>
+        <v>44358</v>
+      </c>
+      <c r="B49" s="36"/>
+      <c r="C49" s="31"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="18"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="18"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="18"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="20"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56">
+        <f>SUM(C50:C56)</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="35">
+        <f>A49+1</f>
+        <v>44359</v>
+      </c>
+      <c r="B57" s="36"/>
+      <c r="C57" s="31"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="18"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="18"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="18"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="18"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="20"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="20"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63">
+        <f>SUM(C58:C63)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="35">
+        <f>A57+1</f>
+        <v>44360</v>
+      </c>
+      <c r="B64" s="36"/>
+      <c r="C64" s="31"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="18"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="18"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="18"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="18"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="20"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="27"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="20"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71">
+        <f>SUM(C65:C71)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="21"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="10"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="12"/>
+    </row>
+    <row r="74" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="17"/>
+      <c r="C74" s="32">
+        <f>SUM(C14:C71)</f>
+        <v>40.25</v>
+      </c>
+      <c r="D74" s="13"/>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="9"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+    </row>
+    <row r="76" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A76" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="11"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="22"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="30"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="22"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="9"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="23"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+    </row>
+    <row r="82" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A57:B57"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A14 A39:C39 A32:C32 A56:C56 A62:C63 A70:C71 A42:C42 A16:C24 A44:C44 A46:C48">
+    <cfRule type="expression" dxfId="62" priority="64" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="expression" dxfId="61" priority="63" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49">
+    <cfRule type="expression" dxfId="60" priority="60" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33">
+    <cfRule type="expression" dxfId="59" priority="62" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="expression" dxfId="58" priority="61" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57">
+    <cfRule type="expression" dxfId="57" priority="59" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64">
+    <cfRule type="expression" dxfId="56" priority="58" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:C38">
+    <cfRule type="expression" dxfId="55" priority="53" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:C31">
+    <cfRule type="expression" dxfId="54" priority="56" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:C38">
+    <cfRule type="expression" dxfId="53" priority="55" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:B38">
+    <cfRule type="expression" dxfId="52" priority="54" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50:C51 C55 C53">
+    <cfRule type="expression" dxfId="51" priority="49" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50:C51 C55 C53">
+    <cfRule type="expression" dxfId="50" priority="50" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50 A51:B51 A55:B55 A53:B53">
+    <cfRule type="expression" dxfId="49" priority="52" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50 A51:B51 A55:B55 A53:B53">
+    <cfRule type="expression" dxfId="48" priority="51" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:B61">
+    <cfRule type="expression" dxfId="45" priority="46" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:B61">
+    <cfRule type="expression" dxfId="44" priority="45" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59:C61">
+    <cfRule type="expression" dxfId="43" priority="43" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59:C61">
+    <cfRule type="expression" dxfId="42" priority="44" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:B69">
+    <cfRule type="expression" dxfId="41" priority="42" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66:C69">
+    <cfRule type="expression" dxfId="40" priority="39" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66:C69">
+    <cfRule type="expression" dxfId="39" priority="40" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:B69">
+    <cfRule type="expression" dxfId="38" priority="41" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="37" priority="35" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="36" priority="36" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:B54">
+    <cfRule type="expression" dxfId="35" priority="38" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:B54">
     <cfRule type="expression" dxfId="34" priority="37" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41">
-    <cfRule type="expression" dxfId="33" priority="36" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59">
-    <cfRule type="expression" dxfId="32" priority="34" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66">
-    <cfRule type="expression" dxfId="31" priority="33" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35:C39">
-    <cfRule type="expression" dxfId="30" priority="28" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:C19">
-    <cfRule type="expression" dxfId="29" priority="32" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:C32">
-    <cfRule type="expression" dxfId="28" priority="31" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:C39">
+  <conditionalFormatting sqref="C58">
+    <cfRule type="expression" dxfId="33" priority="31" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
+    <cfRule type="expression" dxfId="32" priority="32" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:B58">
+    <cfRule type="expression" dxfId="31" priority="34" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:B58">
+    <cfRule type="expression" dxfId="30" priority="33" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" dxfId="29" priority="27" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" dxfId="28" priority="28" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:B65">
     <cfRule type="expression" dxfId="27" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:B39">
+  <conditionalFormatting sqref="A65:B65">
     <cfRule type="expression" dxfId="26" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52:C55 C57">
+  <conditionalFormatting sqref="C15">
     <cfRule type="expression" dxfId="25" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52:C55 C57">
+  <conditionalFormatting sqref="C15">
     <cfRule type="expression" dxfId="24" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52 A53:B55 A57:B57">
+  <conditionalFormatting sqref="A15:B15">
     <cfRule type="expression" dxfId="23" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52 A53:B55 A57:B57">
+  <conditionalFormatting sqref="A15:B15">
     <cfRule type="expression" dxfId="22" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A26:C26">
+    <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C27">
+    <cfRule type="expression" dxfId="20" priority="21" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:C29">
+    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:C28">
+    <cfRule type="expression" dxfId="18" priority="19" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:C30">
+    <cfRule type="expression" dxfId="17" priority="18" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41">
+    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:C41">
+    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:B41">
+    <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" dxfId="13" priority="12" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:C43">
+    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:B43">
+    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="expression" dxfId="10" priority="9" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:C45">
+    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:B45">
+    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50">
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="expression" dxfId="20" priority="21" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:B63">
-    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:B63">
-    <cfRule type="expression" dxfId="18" priority="19" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61:C63">
-    <cfRule type="expression" dxfId="17" priority="17" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61:C63">
-    <cfRule type="expression" dxfId="16" priority="18" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68:B71">
-    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68:C71">
-    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68:C71">
-    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68:B71">
-    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56:B56">
-    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56:B56">
-    <cfRule type="expression" dxfId="8" priority="11" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B60">
-    <cfRule type="expression" dxfId="5" priority="8" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B60">
-    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67:B67">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67:B67">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/personal-logs/ryan-koenig/WorkLog_rk.xlsx
+++ b/personal-logs/ryan-koenig/WorkLog_rk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\DataScience\Data599\w2020-data599-capstone-projects-ubc-udl\personal-logs\ryan-koenig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C947D4ED-9838-4979-A92C-B4D29E01E083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C6BDC9-BC23-4D75-8790-B4EAFD340CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="10" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Week 4" sheetId="14" r:id="rId4"/>
     <sheet name="Week 5" sheetId="16" r:id="rId5"/>
     <sheet name="Week 6" sheetId="17" r:id="rId6"/>
+    <sheet name="Week 7" sheetId="19" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 1'!$A$1:$D$56</definedName>
@@ -27,6 +28,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Week 4'!$A$1:$D$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Week 5'!$A$1:$D$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Week 6'!$A$1:$D$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Week 7'!$A$1:$D$56</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="110">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -357,6 +359,24 @@
   </si>
   <si>
     <t>Appendix C Figures</t>
+  </si>
+  <si>
+    <t>Repo Cleanup</t>
+  </si>
+  <si>
+    <t>Repository Organization</t>
+  </si>
+  <si>
+    <t>Code Package Review</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Figure Creation / Results</t>
+  </si>
+  <si>
+    <t>UBC Meeting</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1173,455 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="42" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="205">
+  <dxfs count="269">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3663,137 +4131,137 @@
     <mergeCell ref="A57:B57"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A15:C20 A30:C34 A22:C28">
-    <cfRule type="expression" dxfId="204" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="268" priority="71" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="203" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B45">
-    <cfRule type="expression" dxfId="202" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="266" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C45">
-    <cfRule type="expression" dxfId="201" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="265" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C33">
-    <cfRule type="expression" dxfId="200" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="264" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C41">
-    <cfRule type="expression" dxfId="199" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="263" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B33">
-    <cfRule type="expression" dxfId="198" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="262" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B41">
-    <cfRule type="expression" dxfId="197" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="261" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C52">
-    <cfRule type="expression" dxfId="196" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="260" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C56">
-    <cfRule type="expression" dxfId="195" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B56 A47">
-    <cfRule type="expression" dxfId="194" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="258" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B52 A47">
-    <cfRule type="expression" dxfId="193" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="257" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:B67">
-    <cfRule type="expression" dxfId="192" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="256" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:B63">
-    <cfRule type="expression" dxfId="191" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="255" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C63">
-    <cfRule type="expression" dxfId="190" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="254" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C67">
-    <cfRule type="expression" dxfId="189" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="253" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="expression" dxfId="188" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="252" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:B78">
-    <cfRule type="expression" dxfId="187" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69:C74">
-    <cfRule type="expression" dxfId="186" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="250" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69:C78">
-    <cfRule type="expression" dxfId="185" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="249" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:B74">
-    <cfRule type="expression" dxfId="184" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="248" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="183" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="247" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="182" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="246" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="expression" dxfId="181" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="245" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="expression" dxfId="180" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="244" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="179" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="178" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="242" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4506,137 +4974,137 @@
     <mergeCell ref="A58:B58"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A31:C35 A15:C21 A23:C29">
-    <cfRule type="expression" dxfId="177" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="241" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="176" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B46">
-    <cfRule type="expression" dxfId="175" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C46">
-    <cfRule type="expression" dxfId="174" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="238" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:C34">
-    <cfRule type="expression" dxfId="173" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="237" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C42">
-    <cfRule type="expression" dxfId="172" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="236" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B34">
-    <cfRule type="expression" dxfId="171" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B42">
-    <cfRule type="expression" dxfId="170" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="234" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="169" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="233" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C57">
-    <cfRule type="expression" dxfId="168" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="232" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B57 A48">
-    <cfRule type="expression" dxfId="167" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B53 A48">
-    <cfRule type="expression" dxfId="166" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B68">
-    <cfRule type="expression" dxfId="165" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B64">
-    <cfRule type="expression" dxfId="164" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C64">
-    <cfRule type="expression" dxfId="163" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C68">
-    <cfRule type="expression" dxfId="162" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="161" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B79">
-    <cfRule type="expression" dxfId="160" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C75">
-    <cfRule type="expression" dxfId="159" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C79">
-    <cfRule type="expression" dxfId="158" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B75">
-    <cfRule type="expression" dxfId="157" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="156" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="220" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="155" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="expression" dxfId="154" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="expression" dxfId="153" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="152" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="151" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5387,117 +5855,117 @@
     <mergeCell ref="A56:B56"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A33:C37 A15:C22 A39:C44 A24:C31">
-    <cfRule type="expression" dxfId="150" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="149" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:C36">
-    <cfRule type="expression" dxfId="148" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B36">
-    <cfRule type="expression" dxfId="147" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C51">
-    <cfRule type="expression" dxfId="146" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C55">
-    <cfRule type="expression" dxfId="145" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:B55 A46">
-    <cfRule type="expression" dxfId="144" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:B51 A46">
-    <cfRule type="expression" dxfId="143" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:B66">
-    <cfRule type="expression" dxfId="142" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:B62">
-    <cfRule type="expression" dxfId="141" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C62">
-    <cfRule type="expression" dxfId="140" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C66">
-    <cfRule type="expression" dxfId="139" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="expression" dxfId="138" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:B77">
-    <cfRule type="expression" dxfId="137" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C73">
-    <cfRule type="expression" dxfId="136" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C77">
-    <cfRule type="expression" dxfId="135" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:B73">
-    <cfRule type="expression" dxfId="134" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="133" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="expression" dxfId="132" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56">
-    <cfRule type="expression" dxfId="131" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67">
-    <cfRule type="expression" dxfId="130" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="129" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="128" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6178,137 +6646,137 @@
     <mergeCell ref="A49:B49"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A34:C34 A41:C41 A19:C20 A28:C28 A48:C48 A54:C55 A62:C63">
-    <cfRule type="expression" dxfId="127" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="126" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="42" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="125" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="124" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="expression" dxfId="122" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56">
-    <cfRule type="expression" dxfId="121" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C33">
-    <cfRule type="expression" dxfId="120" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:C40">
-    <cfRule type="expression" dxfId="119" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:C18">
-    <cfRule type="expression" dxfId="118" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:C27">
-    <cfRule type="expression" dxfId="117" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:C33">
-    <cfRule type="expression" dxfId="116" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B33">
-    <cfRule type="expression" dxfId="115" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C47">
-    <cfRule type="expression" dxfId="114" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C47">
-    <cfRule type="expression" dxfId="113" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43 A44:B47">
-    <cfRule type="expression" dxfId="112" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43 A44:B47">
-    <cfRule type="expression" dxfId="111" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="110" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="109" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:B53">
-    <cfRule type="expression" dxfId="108" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:B53">
-    <cfRule type="expression" dxfId="107" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:C53">
-    <cfRule type="expression" dxfId="106" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:C53">
-    <cfRule type="expression" dxfId="105" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:B61">
-    <cfRule type="expression" dxfId="104" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C61">
-    <cfRule type="expression" dxfId="103" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C61">
-    <cfRule type="expression" dxfId="102" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:B61">
-    <cfRule type="expression" dxfId="101" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7039,192 +7507,192 @@
     <mergeCell ref="A59:B59"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A40:C40 A20:C25 A33:C33 A58:C58 A64:C65 A72:C73 A42:C50">
-    <cfRule type="expression" dxfId="100" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="39" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="expression" dxfId="99" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="expression" dxfId="98" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="35" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="97" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="37" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="expression" dxfId="96" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="36" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="expression" dxfId="95" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="34" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="expression" dxfId="94" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:C39">
-    <cfRule type="expression" dxfId="93" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:C19">
-    <cfRule type="expression" dxfId="92" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C32">
-    <cfRule type="expression" dxfId="91" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:C39">
-    <cfRule type="expression" dxfId="90" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:B39">
-    <cfRule type="expression" dxfId="89" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C55 C57">
-    <cfRule type="expression" dxfId="88" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C55 C57">
-    <cfRule type="expression" dxfId="87" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52 A53:B55 A57:B57">
-    <cfRule type="expression" dxfId="86" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52 A53:B55 A57:B57">
-    <cfRule type="expression" dxfId="85" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="expression" dxfId="84" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="expression" dxfId="83" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B63">
-    <cfRule type="expression" dxfId="82" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B63">
-    <cfRule type="expression" dxfId="81" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61:C63">
-    <cfRule type="expression" dxfId="80" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61:C63">
-    <cfRule type="expression" dxfId="79" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:B71">
-    <cfRule type="expression" dxfId="78" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C71">
-    <cfRule type="expression" dxfId="77" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C71">
-    <cfRule type="expression" dxfId="76" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:B71">
-    <cfRule type="expression" dxfId="75" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="74" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="73" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B56">
-    <cfRule type="expression" dxfId="72" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B56">
-    <cfRule type="expression" dxfId="71" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="70" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="69" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B60">
-    <cfRule type="expression" dxfId="68" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B60">
-    <cfRule type="expression" dxfId="67" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="66" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="65" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:B67">
-    <cfRule type="expression" dxfId="64" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:B67">
-    <cfRule type="expression" dxfId="63" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7242,8 +7710,8 @@
   </sheetPr>
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -7861,306 +8329,1253 @@
     <mergeCell ref="A57:B57"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A39:C39 A32:C32 A56:C56 A62:C63 A70:C71 A42:C42 A16:C24 A44:C44 A46:C48">
+    <cfRule type="expression" dxfId="126" priority="64" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="expression" dxfId="125" priority="63" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49">
+    <cfRule type="expression" dxfId="124" priority="60" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33">
+    <cfRule type="expression" dxfId="123" priority="62" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="expression" dxfId="122" priority="61" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57">
+    <cfRule type="expression" dxfId="121" priority="59" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64">
+    <cfRule type="expression" dxfId="120" priority="58" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:C38">
+    <cfRule type="expression" dxfId="119" priority="53" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:C31">
+    <cfRule type="expression" dxfId="118" priority="56" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:C38">
+    <cfRule type="expression" dxfId="117" priority="55" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:B38">
+    <cfRule type="expression" dxfId="116" priority="54" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50:C51 C55 C53">
+    <cfRule type="expression" dxfId="115" priority="49" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50:C51 C55 C53">
+    <cfRule type="expression" dxfId="114" priority="50" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50 A51:B51 A55:B55 A53:B53">
+    <cfRule type="expression" dxfId="113" priority="52" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50 A51:B51 A55:B55 A53:B53">
+    <cfRule type="expression" dxfId="112" priority="51" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:B61">
+    <cfRule type="expression" dxfId="111" priority="46" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:B61">
+    <cfRule type="expression" dxfId="110" priority="45" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59:C61">
+    <cfRule type="expression" dxfId="109" priority="43" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59:C61">
+    <cfRule type="expression" dxfId="108" priority="44" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:B69">
+    <cfRule type="expression" dxfId="107" priority="42" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66:C69">
+    <cfRule type="expression" dxfId="106" priority="39" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66:C69">
+    <cfRule type="expression" dxfId="105" priority="40" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:B69">
+    <cfRule type="expression" dxfId="104" priority="41" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="103" priority="35" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="102" priority="36" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:B54">
+    <cfRule type="expression" dxfId="101" priority="38" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:B54">
+    <cfRule type="expression" dxfId="100" priority="37" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
+    <cfRule type="expression" dxfId="99" priority="31" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
+    <cfRule type="expression" dxfId="98" priority="32" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:B58">
+    <cfRule type="expression" dxfId="97" priority="34" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:B58">
+    <cfRule type="expression" dxfId="96" priority="33" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" dxfId="95" priority="27" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" dxfId="94" priority="28" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:B65">
+    <cfRule type="expression" dxfId="93" priority="30" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:B65">
+    <cfRule type="expression" dxfId="92" priority="29" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="91" priority="23" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="90" priority="24" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:B15">
+    <cfRule type="expression" dxfId="89" priority="26" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:B15">
+    <cfRule type="expression" dxfId="88" priority="25" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:C26">
+    <cfRule type="expression" dxfId="87" priority="22" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C27">
+    <cfRule type="expression" dxfId="86" priority="21" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:C29">
+    <cfRule type="expression" dxfId="85" priority="20" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:C28">
+    <cfRule type="expression" dxfId="84" priority="19" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:C30">
+    <cfRule type="expression" dxfId="83" priority="18" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41">
+    <cfRule type="expression" dxfId="82" priority="15" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:C41">
+    <cfRule type="expression" dxfId="81" priority="17" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:B41">
+    <cfRule type="expression" dxfId="80" priority="16" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" dxfId="79" priority="12" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:C43">
+    <cfRule type="expression" dxfId="78" priority="14" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:B43">
+    <cfRule type="expression" dxfId="77" priority="13" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="expression" dxfId="76" priority="9" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:C45">
+    <cfRule type="expression" dxfId="75" priority="11" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:B45">
+    <cfRule type="expression" dxfId="74" priority="10" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50">
+    <cfRule type="expression" dxfId="73" priority="8" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50">
+    <cfRule type="expression" dxfId="72" priority="7" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="71" priority="3" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="70" priority="4" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="expression" dxfId="69" priority="6" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="expression" dxfId="68" priority="5" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52">
+    <cfRule type="expression" dxfId="67" priority="2" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52">
+    <cfRule type="expression" dxfId="66" priority="1" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.25"/>
+  <pageSetup scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F2D6E9-55B3-4072-8FAB-E26BD128569B}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D82"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="70.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="2">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+    </row>
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="35">
+        <f>D3</f>
+        <v>44361</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="31"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="33"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="20"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+    </row>
+    <row r="24" spans="1:4" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="20"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24">
+        <f>SUM(C15:C24)</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="35">
+        <f>A14+1</f>
+        <v>44362</v>
+      </c>
+      <c r="B25" s="36"/>
+      <c r="C25" s="31"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="25">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="18"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="20"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32">
+        <f>SUM(C26:C32)</f>
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="35">
+        <f>A25+1</f>
+        <v>44363</v>
+      </c>
+      <c r="B33" s="36"/>
+      <c r="C33" s="31"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="20"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39">
+        <f>SUM(C34:C39)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="35">
+        <f>A33+1</f>
+        <v>44364</v>
+      </c>
+      <c r="B40" s="36"/>
+      <c r="C40" s="31"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="25"/>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="20"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48">
+        <f>SUM(C41:C48)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="35">
+        <f>A40+1</f>
+        <v>44365</v>
+      </c>
+      <c r="B49" s="36"/>
+      <c r="C49" s="31"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="18"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="18"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="18"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="18"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="18"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="18"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="20"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56">
+        <f>SUM(C50:C56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="35">
+        <f>A49+1</f>
+        <v>44366</v>
+      </c>
+      <c r="B57" s="36"/>
+      <c r="C57" s="31"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="18"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="18"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="18"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="18"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="20"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="20"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63">
+        <f>SUM(C58:C63)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="35">
+        <f>A57+1</f>
+        <v>44367</v>
+      </c>
+      <c r="B64" s="36"/>
+      <c r="C64" s="31"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="18"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="18"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="18"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="18"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="18"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="20"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="27"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="20"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71">
+        <f>SUM(C65:C71)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="21"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="10"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="12"/>
+    </row>
+    <row r="74" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="17"/>
+      <c r="C74" s="32">
+        <f>SUM(C14:C71)</f>
+        <v>33.25</v>
+      </c>
+      <c r="D74" s="13"/>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="9"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+    </row>
+    <row r="76" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A76" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="11"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="22"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="30"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="22"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="9"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="23"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+    </row>
+    <row r="82" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A57:B57"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A14 A39:C39 A32:C32 A56:C56 A62:C63 A70:C71 A42:C42 A16:C16 A44:C44 A46:C48 A18:C24 C17">
+    <cfRule type="expression" dxfId="65" priority="66" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="expression" dxfId="64" priority="65" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49">
+    <cfRule type="expression" dxfId="63" priority="62" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33">
     <cfRule type="expression" dxfId="62" priority="64" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25">
+  <conditionalFormatting sqref="A40">
     <cfRule type="expression" dxfId="61" priority="63" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A49">
-    <cfRule type="expression" dxfId="60" priority="60" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
-    <cfRule type="expression" dxfId="59" priority="62" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="58" priority="61" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A57">
+    <cfRule type="expression" dxfId="60" priority="61" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64">
+    <cfRule type="expression" dxfId="59" priority="60" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:C38">
+    <cfRule type="expression" dxfId="58" priority="56" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:C31">
     <cfRule type="expression" dxfId="57" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A64">
+  <conditionalFormatting sqref="A34:C38">
     <cfRule type="expression" dxfId="56" priority="58" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34:C38">
-    <cfRule type="expression" dxfId="55" priority="53" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31:C31">
-    <cfRule type="expression" dxfId="54" priority="56" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:C38">
-    <cfRule type="expression" dxfId="53" priority="55" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A34:B38">
-    <cfRule type="expression" dxfId="52" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:C51 C55 C53">
-    <cfRule type="expression" dxfId="51" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="52" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:C51 C55 C53">
-    <cfRule type="expression" dxfId="50" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="53" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50 A51:B51 A55:B55 A53:B53">
-    <cfRule type="expression" dxfId="49" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="55" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50 A51:B51 A55:B55 A53:B53">
-    <cfRule type="expression" dxfId="48" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="54" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B61">
-    <cfRule type="expression" dxfId="45" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="51" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B61">
+    <cfRule type="expression" dxfId="49" priority="50" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59:C61">
+    <cfRule type="expression" dxfId="48" priority="48" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59:C61">
+    <cfRule type="expression" dxfId="47" priority="49" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:B69">
+    <cfRule type="expression" dxfId="46" priority="47" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66:C69">
+    <cfRule type="expression" dxfId="45" priority="44" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66:C69">
     <cfRule type="expression" dxfId="44" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C59:C61">
-    <cfRule type="expression" dxfId="43" priority="43" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59:C61">
-    <cfRule type="expression" dxfId="42" priority="44" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A66:B69">
-    <cfRule type="expression" dxfId="41" priority="42" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66:C69">
-    <cfRule type="expression" dxfId="40" priority="39" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66:C69">
-    <cfRule type="expression" dxfId="39" priority="40" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:B69">
-    <cfRule type="expression" dxfId="38" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="46" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="37" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="36" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="41" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:B54">
+    <cfRule type="expression" dxfId="40" priority="43" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:B54">
+    <cfRule type="expression" dxfId="39" priority="42" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
+    <cfRule type="expression" dxfId="38" priority="36" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
+    <cfRule type="expression" dxfId="37" priority="37" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:B58">
+    <cfRule type="expression" dxfId="36" priority="39" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:B58">
     <cfRule type="expression" dxfId="35" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54:B54">
-    <cfRule type="expression" dxfId="34" priority="37" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="33" priority="31" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="32" priority="32" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:B58">
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" dxfId="34" priority="32" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" dxfId="33" priority="33" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:B65">
+    <cfRule type="expression" dxfId="32" priority="35" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:B65">
     <cfRule type="expression" dxfId="31" priority="34" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58:B58">
-    <cfRule type="expression" dxfId="30" priority="33" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="29" priority="27" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="28" priority="28" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65:B65">
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="30" priority="28" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="29" priority="29" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="expression" dxfId="28" priority="31" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
     <cfRule type="expression" dxfId="27" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65:B65">
-    <cfRule type="expression" dxfId="26" priority="29" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="25" priority="23" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="24" priority="24" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:B15">
-    <cfRule type="expression" dxfId="23" priority="26" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:B15">
-    <cfRule type="expression" dxfId="22" priority="25" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="20" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:C29">
-    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="18" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:C30">
-    <cfRule type="expression" dxfId="17" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:C41">
-    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:B41">
+    <cfRule type="expression" dxfId="19" priority="21" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="expression" dxfId="15" priority="14" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:C45">
     <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="13" priority="12" stopIfTrue="1">
+  <conditionalFormatting sqref="A45:B45">
+    <cfRule type="expression" dxfId="13" priority="15" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50">
+    <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50">
+    <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="expression" dxfId="8" priority="11" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="expression" dxfId="7" priority="10" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:C43">
-    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43:B43">
-    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="10" priority="9" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:C45">
-    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:B45">
-    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50">
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50">
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B52">
+  <conditionalFormatting sqref="B17">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/personal-logs/ryan-koenig/WorkLog_rk.xlsx
+++ b/personal-logs/ryan-koenig/WorkLog_rk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\DataScience\Data599\w2020-data599-capstone-projects-ubc-udl\personal-logs\ryan-koenig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C6BDC9-BC23-4D75-8790-B4EAFD340CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1706EC5D-812E-44E7-B049-EC54520EEFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="114">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -370,13 +370,25 @@
     <t>Code Package Review</t>
   </si>
   <si>
-    <t>Review</t>
-  </si>
-  <si>
     <t>Figure Creation / Results</t>
   </si>
   <si>
     <t>UBC Meeting</t>
+  </si>
+  <si>
+    <t>Results folder cleanup</t>
+  </si>
+  <si>
+    <t>Demo notebook review</t>
+  </si>
+  <si>
+    <t>Code Review</t>
+  </si>
+  <si>
+    <t>Demo notebook Investigation</t>
+  </si>
+  <si>
+    <t>Demo notebook Cleanup</t>
   </si>
 </sst>
 </file>
@@ -680,7 +692,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -953,6 +965,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1000,7 +1025,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1126,6 +1151,10 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1173,7 +1202,434 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="42" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="269">
+  <dxfs count="330">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4131,137 +4587,137 @@
     <mergeCell ref="A57:B57"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A15:C20 A30:C34 A22:C28">
-    <cfRule type="expression" dxfId="268" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="324" priority="71" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="267" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="323" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B45">
-    <cfRule type="expression" dxfId="266" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="322" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C45">
-    <cfRule type="expression" dxfId="265" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="321" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C33">
-    <cfRule type="expression" dxfId="264" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="320" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C41">
-    <cfRule type="expression" dxfId="263" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="319" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B33">
-    <cfRule type="expression" dxfId="262" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="318" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B41">
-    <cfRule type="expression" dxfId="261" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="317" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C52">
-    <cfRule type="expression" dxfId="260" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="316" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C56">
-    <cfRule type="expression" dxfId="259" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="315" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B56 A47">
-    <cfRule type="expression" dxfId="258" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="314" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B52 A47">
-    <cfRule type="expression" dxfId="257" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="313" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:B67">
-    <cfRule type="expression" dxfId="256" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="312" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:B63">
-    <cfRule type="expression" dxfId="255" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="311" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C63">
-    <cfRule type="expression" dxfId="254" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="310" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C67">
-    <cfRule type="expression" dxfId="253" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="309" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="expression" dxfId="252" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="308" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:B78">
-    <cfRule type="expression" dxfId="251" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="307" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69:C74">
-    <cfRule type="expression" dxfId="250" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="306" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69:C78">
-    <cfRule type="expression" dxfId="249" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="305" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:B74">
-    <cfRule type="expression" dxfId="248" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="304" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="247" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="303" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="246" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="302" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="expression" dxfId="245" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="301" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="expression" dxfId="244" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="300" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="243" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="299" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="242" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="298" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4974,137 +5430,137 @@
     <mergeCell ref="A58:B58"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A31:C35 A15:C21 A23:C29">
-    <cfRule type="expression" dxfId="241" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="297" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="240" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="296" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B46">
-    <cfRule type="expression" dxfId="239" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="295" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C46">
-    <cfRule type="expression" dxfId="238" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="294" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:C34">
-    <cfRule type="expression" dxfId="237" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="293" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C42">
-    <cfRule type="expression" dxfId="236" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="292" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B34">
-    <cfRule type="expression" dxfId="235" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="291" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B42">
-    <cfRule type="expression" dxfId="234" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="290" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="233" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="289" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C57">
-    <cfRule type="expression" dxfId="232" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="288" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B57 A48">
-    <cfRule type="expression" dxfId="231" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="287" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B53 A48">
-    <cfRule type="expression" dxfId="230" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="286" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B68">
-    <cfRule type="expression" dxfId="229" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="285" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B64">
-    <cfRule type="expression" dxfId="228" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="284" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C64">
-    <cfRule type="expression" dxfId="227" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="283" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C68">
-    <cfRule type="expression" dxfId="226" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="282" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="225" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="281" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B79">
-    <cfRule type="expression" dxfId="224" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="280" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C75">
-    <cfRule type="expression" dxfId="223" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="279" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C79">
-    <cfRule type="expression" dxfId="222" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="278" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B75">
-    <cfRule type="expression" dxfId="221" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="277" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="220" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="276" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="219" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="275" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="expression" dxfId="218" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="274" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="expression" dxfId="217" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="273" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="216" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="272" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="215" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="271" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5855,117 +6311,117 @@
     <mergeCell ref="A56:B56"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A33:C37 A15:C22 A39:C44 A24:C31">
-    <cfRule type="expression" dxfId="214" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="270" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="213" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="269" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:C36">
-    <cfRule type="expression" dxfId="212" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="268" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B36">
-    <cfRule type="expression" dxfId="211" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C51">
-    <cfRule type="expression" dxfId="210" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="266" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C55">
-    <cfRule type="expression" dxfId="209" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="265" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:B55 A46">
-    <cfRule type="expression" dxfId="208" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="264" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:B51 A46">
-    <cfRule type="expression" dxfId="207" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="263" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:B66">
-    <cfRule type="expression" dxfId="206" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="262" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:B62">
-    <cfRule type="expression" dxfId="205" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="261" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C62">
-    <cfRule type="expression" dxfId="204" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="260" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C66">
-    <cfRule type="expression" dxfId="203" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="expression" dxfId="202" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="258" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:B77">
-    <cfRule type="expression" dxfId="201" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="257" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C73">
-    <cfRule type="expression" dxfId="200" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="256" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C77">
-    <cfRule type="expression" dxfId="199" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="255" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:B73">
-    <cfRule type="expression" dxfId="198" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="254" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="197" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="253" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="expression" dxfId="196" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="252" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56">
-    <cfRule type="expression" dxfId="195" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67">
-    <cfRule type="expression" dxfId="194" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="250" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="193" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="249" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="192" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="248" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6646,137 +7102,137 @@
     <mergeCell ref="A49:B49"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A34:C34 A41:C41 A19:C20 A28:C28 A48:C48 A54:C55 A62:C63">
-    <cfRule type="expression" dxfId="191" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="247" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="190" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="246" priority="42" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="189" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="245" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="188" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="244" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="187" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="expression" dxfId="186" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="242" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56">
-    <cfRule type="expression" dxfId="185" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="241" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C33">
-    <cfRule type="expression" dxfId="184" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:C40">
-    <cfRule type="expression" dxfId="183" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:C18">
-    <cfRule type="expression" dxfId="182" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="238" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:C27">
-    <cfRule type="expression" dxfId="181" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="237" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:C33">
-    <cfRule type="expression" dxfId="180" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="236" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B33">
-    <cfRule type="expression" dxfId="179" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C47">
-    <cfRule type="expression" dxfId="178" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="234" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C47">
-    <cfRule type="expression" dxfId="177" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="233" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43 A44:B47">
-    <cfRule type="expression" dxfId="176" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="232" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43 A44:B47">
-    <cfRule type="expression" dxfId="175" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="174" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="173" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:B53">
-    <cfRule type="expression" dxfId="172" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:B53">
-    <cfRule type="expression" dxfId="171" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:C53">
-    <cfRule type="expression" dxfId="170" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:C53">
-    <cfRule type="expression" dxfId="169" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:B61">
-    <cfRule type="expression" dxfId="168" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C61">
-    <cfRule type="expression" dxfId="167" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C61">
-    <cfRule type="expression" dxfId="166" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:B61">
-    <cfRule type="expression" dxfId="165" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7507,192 +7963,192 @@
     <mergeCell ref="A59:B59"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A40:C40 A20:C25 A33:C33 A58:C58 A64:C65 A72:C73 A42:C50">
-    <cfRule type="expression" dxfId="164" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="220" priority="39" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="expression" dxfId="163" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="expression" dxfId="162" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="35" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="161" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="37" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="expression" dxfId="160" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="36" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="expression" dxfId="159" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="34" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="expression" dxfId="158" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:C39">
-    <cfRule type="expression" dxfId="157" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:C19">
-    <cfRule type="expression" dxfId="156" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C32">
-    <cfRule type="expression" dxfId="155" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:C39">
-    <cfRule type="expression" dxfId="154" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:B39">
-    <cfRule type="expression" dxfId="153" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C55 C57">
-    <cfRule type="expression" dxfId="152" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C55 C57">
-    <cfRule type="expression" dxfId="151" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52 A53:B55 A57:B57">
-    <cfRule type="expression" dxfId="150" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52 A53:B55 A57:B57">
-    <cfRule type="expression" dxfId="149" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="expression" dxfId="148" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="expression" dxfId="147" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B63">
-    <cfRule type="expression" dxfId="146" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B63">
-    <cfRule type="expression" dxfId="145" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61:C63">
-    <cfRule type="expression" dxfId="144" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61:C63">
-    <cfRule type="expression" dxfId="143" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:B71">
-    <cfRule type="expression" dxfId="142" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C71">
-    <cfRule type="expression" dxfId="141" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C71">
-    <cfRule type="expression" dxfId="140" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:B71">
-    <cfRule type="expression" dxfId="139" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="138" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="137" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B56">
-    <cfRule type="expression" dxfId="136" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B56">
-    <cfRule type="expression" dxfId="135" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="134" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="133" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B60">
-    <cfRule type="expression" dxfId="132" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B60">
-    <cfRule type="expression" dxfId="131" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="130" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="129" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:B67">
-    <cfRule type="expression" dxfId="128" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:B67">
-    <cfRule type="expression" dxfId="127" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8329,307 +8785,307 @@
     <mergeCell ref="A57:B57"/>
   </mergeCells>
   <conditionalFormatting sqref="A14 A39:C39 A32:C32 A56:C56 A62:C63 A70:C71 A42:C42 A16:C24 A44:C44 A46:C48">
-    <cfRule type="expression" dxfId="126" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="64" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="125" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="63" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="expression" dxfId="124" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="60" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="expression" dxfId="123" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="62" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="122" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="61" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="expression" dxfId="121" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64">
-    <cfRule type="expression" dxfId="120" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="58" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C38">
-    <cfRule type="expression" dxfId="119" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="53" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:C31">
-    <cfRule type="expression" dxfId="118" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="56" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:C38">
-    <cfRule type="expression" dxfId="117" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="55" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:B38">
-    <cfRule type="expression" dxfId="116" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="54" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:C51 C55 C53">
-    <cfRule type="expression" dxfId="115" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="49" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:C51 C55 C53">
-    <cfRule type="expression" dxfId="114" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="50" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50 A51:B51 A55:B55 A53:B53">
-    <cfRule type="expression" dxfId="113" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="52" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50 A51:B51 A55:B55 A53:B53">
-    <cfRule type="expression" dxfId="112" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="51" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B61">
-    <cfRule type="expression" dxfId="111" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="46" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B61">
-    <cfRule type="expression" dxfId="110" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C61">
-    <cfRule type="expression" dxfId="109" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C61">
-    <cfRule type="expression" dxfId="108" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="44" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66:B69">
-    <cfRule type="expression" dxfId="107" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="42" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66:C69">
-    <cfRule type="expression" dxfId="106" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="39" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66:C69">
-    <cfRule type="expression" dxfId="105" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66:B69">
-    <cfRule type="expression" dxfId="104" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="41" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="103" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="35" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="102" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="36" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:B54">
-    <cfRule type="expression" dxfId="101" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:B54">
-    <cfRule type="expression" dxfId="100" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="37" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="99" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="98" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:B58">
-    <cfRule type="expression" dxfId="97" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="34" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:B58">
-    <cfRule type="expression" dxfId="96" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="95" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="94" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65:B65">
-    <cfRule type="expression" dxfId="93" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65:B65">
-    <cfRule type="expression" dxfId="92" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="91" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="90" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B15">
-    <cfRule type="expression" dxfId="89" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B15">
-    <cfRule type="expression" dxfId="88" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="87" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="86" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:C29">
-    <cfRule type="expression" dxfId="85" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="84" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:C30">
-    <cfRule type="expression" dxfId="83" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="82" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:C41">
-    <cfRule type="expression" dxfId="81" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:B41">
-    <cfRule type="expression" dxfId="80" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="79" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:C43">
-    <cfRule type="expression" dxfId="78" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:B43">
-    <cfRule type="expression" dxfId="77" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="76" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:C45">
-    <cfRule type="expression" dxfId="75" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B45">
-    <cfRule type="expression" dxfId="74" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="expression" dxfId="73" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="expression" dxfId="72" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="71" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="70" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="expression" dxfId="69" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="expression" dxfId="68" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="expression" dxfId="67" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="expression" dxfId="66" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8645,10 +9101,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -8752,7 +9208,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B15" s="25" t="s">
         <v>17</v>
@@ -8774,7 +9230,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B17" s="25" t="s">
         <v>17</v>
@@ -8832,7 +9288,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B26" s="25" t="s">
         <v>17</v>
@@ -8854,7 +9310,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B28" s="25" t="s">
         <v>17</v>
@@ -8865,7 +9321,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B29" s="25" t="s">
         <v>33</v>
@@ -8876,7 +9332,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>17</v>
@@ -8909,7 +9365,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B34" s="25" t="s">
         <v>17</v>
@@ -8931,7 +9387,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B36" s="25" t="s">
         <v>17</v>
@@ -9017,7 +9473,7 @@
         <v>106</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C44" s="25">
         <v>2</v>
@@ -9039,7 +9495,7 @@
         <v>106</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C46" s="25">
         <v>2</v>
@@ -9068,34 +9524,70 @@
       <c r="C49" s="31"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="18"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
+      <c r="A50" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="18"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
+      <c r="A51" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="18"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
+      <c r="A52" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="18"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
+      <c r="A53" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="18"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
+      <c r="A54" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="25">
+        <v>3</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="18"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
+      <c r="A55" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="25">
+        <v>3</v>
+      </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="20"/>
@@ -9103,7 +9595,7 @@
       <c r="C56" s="27"/>
       <c r="D56">
         <f>SUM(C50:C56)</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -9115,149 +9607,273 @@
       <c r="C57" s="31"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="18"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
+      <c r="A58" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="25">
+        <v>3</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="18"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
+      <c r="A59" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" s="25">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="18"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
+      <c r="A60" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="18"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
+      <c r="A61" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" s="25">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="20"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="20"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63">
-        <f>SUM(C58:C63)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="35">
-        <f>A57+1</f>
-        <v>44367</v>
-      </c>
-      <c r="B64" s="36"/>
-      <c r="C64" s="31"/>
+      <c r="A62" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" s="26">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="26">
+        <v>2</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="18"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
+      <c r="A65" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" s="26">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="18"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
+      <c r="A66" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C66" s="26">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="18"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
+      <c r="A67" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" s="26">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="18"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
+      <c r="A68" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" s="26">
+        <v>4</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="18"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
+      <c r="A69" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" s="26">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="20"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="37"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="26"/>
+      <c r="D70">
+        <f>SUM(C58:C71)</f>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="20"/>
       <c r="B71" s="27"/>
       <c r="C71" s="27"/>
-      <c r="D71">
-        <f>SUM(C65:C71)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="21"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="35">
+        <f>A57+1</f>
+        <v>44367</v>
+      </c>
+      <c r="B72" s="36"/>
+      <c r="C72" s="31"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="10"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="12"/>
-    </row>
-    <row r="74" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="17" t="s">
+      <c r="A73" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C73" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C74" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="18"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="18"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="18"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="20"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78">
+        <f>SUM(C73:C79)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="20"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="21"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="12"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="10"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="13"/>
+    </row>
+    <row r="82" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B74" s="17"/>
-      <c r="C74" s="32">
-        <f>SUM(C14:C71)</f>
-        <v>33.25</v>
-      </c>
-      <c r="D74" s="13"/>
-    </row>
-    <row r="75" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="9"/>
-      <c r="B75" s="29"/>
-      <c r="C75" s="29"/>
-    </row>
-    <row r="76" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A76" s="10" t="s">
+      <c r="B82" s="17"/>
+      <c r="C82" s="32">
+        <f>SUM(C14:C79)</f>
+        <v>60.25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="18.75" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="9"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="11"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="11"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="22"/>
-      <c r="B77" s="30"/>
-      <c r="C77" s="30"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="22"/>
-      <c r="B78" s="30"/>
-      <c r="C78" s="30"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="9"/>
-      <c r="B79" s="29"/>
-      <c r="C79" s="29"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="23"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="23"/>
-    </row>
-    <row r="82" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="28"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="22"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="30"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="22"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="30"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="9"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="23"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="23"/>
+    </row>
+    <row r="90" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A72:B72"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A33:B33"/>
@@ -9265,317 +9881,592 @@
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A57:B57"/>
   </mergeCells>
-  <conditionalFormatting sqref="A14 A39:C39 A32:C32 A56:C56 A62:C63 A70:C71 A42:C42 A16:C16 A44:C44 A46:C48 A18:C24 C17">
-    <cfRule type="expression" dxfId="65" priority="66" stopIfTrue="1">
+  <conditionalFormatting sqref="A14 A39:C39 A32:C32 A56:C56 A71:C71 A78:C79 A42:C42 A16:C16 A44:C44 A46:C48 A18:C24 C17 C62:C64 C70">
+    <cfRule type="expression" dxfId="121" priority="131" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="64" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="130" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="expression" dxfId="63" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="127" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="expression" dxfId="62" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="129" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="61" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="128" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="expression" dxfId="60" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="126" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72">
+    <cfRule type="expression" dxfId="115" priority="125" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:C38">
+    <cfRule type="expression" dxfId="114" priority="121" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:C31">
+    <cfRule type="expression" dxfId="113" priority="124" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:C38">
+    <cfRule type="expression" dxfId="112" priority="123" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:B38">
+    <cfRule type="expression" dxfId="111" priority="122" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50:C51 C55 C53">
+    <cfRule type="expression" dxfId="110" priority="117" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50:C51 C55 C53">
+    <cfRule type="expression" dxfId="109" priority="118" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50 A51:B51 A53:B53">
+    <cfRule type="expression" dxfId="108" priority="120" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50 A51:B51 A53:B53">
+    <cfRule type="expression" dxfId="107" priority="119" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:B59 A61:B61">
+    <cfRule type="expression" dxfId="106" priority="116" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:B59 A61:B61">
+    <cfRule type="expression" dxfId="105" priority="115" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59:C61">
+    <cfRule type="expression" dxfId="104" priority="113" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59:C61">
+    <cfRule type="expression" dxfId="103" priority="114" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75:B77">
+    <cfRule type="expression" dxfId="102" priority="112" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C75:C77">
+    <cfRule type="expression" dxfId="101" priority="109" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C75:C77">
+    <cfRule type="expression" dxfId="100" priority="110" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75:B77">
+    <cfRule type="expression" dxfId="99" priority="111" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="98" priority="105" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="97" priority="106" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:B54">
+    <cfRule type="expression" dxfId="96" priority="108" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:B54">
+    <cfRule type="expression" dxfId="95" priority="107" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
+    <cfRule type="expression" dxfId="94" priority="101" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
+    <cfRule type="expression" dxfId="93" priority="102" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="92" priority="94" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="91" priority="93" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41">
+    <cfRule type="expression" dxfId="86" priority="85" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:B41">
+    <cfRule type="expression" dxfId="85" priority="86" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="expression" dxfId="84" priority="96" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="expression" dxfId="83" priority="95" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:C26">
+    <cfRule type="expression" dxfId="82" priority="92" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C27">
+    <cfRule type="expression" dxfId="81" priority="91" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:C29">
+    <cfRule type="expression" dxfId="80" priority="90" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:C28">
+    <cfRule type="expression" dxfId="79" priority="89" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:C30">
+    <cfRule type="expression" dxfId="78" priority="88" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:C41">
+    <cfRule type="expression" dxfId="77" priority="87" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="expression" dxfId="76" priority="79" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:C45">
+    <cfRule type="expression" dxfId="75" priority="81" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:B45">
+    <cfRule type="expression" dxfId="74" priority="80" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50">
+    <cfRule type="expression" dxfId="73" priority="78" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50">
+    <cfRule type="expression" dxfId="72" priority="77" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="71" priority="73" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="70" priority="74" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58">
+    <cfRule type="expression" dxfId="69" priority="56" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58">
+    <cfRule type="expression" dxfId="68" priority="55" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58">
+    <cfRule type="expression" dxfId="67" priority="54" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60">
+    <cfRule type="expression" dxfId="66" priority="53" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:C43">
+    <cfRule type="expression" dxfId="65" priority="70" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="expression" dxfId="64" priority="69" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="expression" dxfId="63" priority="68" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="expression" dxfId="62" priority="67" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="expression" dxfId="61" priority="66" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="expression" dxfId="60" priority="65" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="expression" dxfId="59" priority="64" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52">
+    <cfRule type="expression" dxfId="58" priority="63" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52">
+    <cfRule type="expression" dxfId="57" priority="62" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55">
+    <cfRule type="expression" dxfId="56" priority="61" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55">
+    <cfRule type="expression" dxfId="55" priority="60" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55">
+    <cfRule type="expression" dxfId="54" priority="59" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55">
+    <cfRule type="expression" dxfId="53" priority="58" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58">
+    <cfRule type="expression" dxfId="52" priority="57" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62 A70">
+    <cfRule type="expression" dxfId="51" priority="48" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62 B70">
+    <cfRule type="expression" dxfId="50" priority="47" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62 B70">
+    <cfRule type="expression" dxfId="49" priority="46" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63">
+    <cfRule type="expression" dxfId="48" priority="45" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60">
+    <cfRule type="expression" dxfId="47" priority="52" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60">
+    <cfRule type="expression" dxfId="46" priority="51" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60">
+    <cfRule type="expression" dxfId="45" priority="50" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62 A70">
+    <cfRule type="expression" dxfId="44" priority="49" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64">
+    <cfRule type="expression" dxfId="43" priority="38" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" dxfId="42" priority="37" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65">
+    <cfRule type="expression" dxfId="41" priority="36" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65">
+    <cfRule type="expression" dxfId="40" priority="35" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63">
+    <cfRule type="expression" dxfId="39" priority="44" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
+    <cfRule type="expression" dxfId="38" priority="43" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
+    <cfRule type="expression" dxfId="37" priority="42" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64">
-    <cfRule type="expression" dxfId="59" priority="60" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34:C38">
-    <cfRule type="expression" dxfId="58" priority="56" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31:C31">
-    <cfRule type="expression" dxfId="57" priority="59" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:C38">
-    <cfRule type="expression" dxfId="56" priority="58" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:B38">
-    <cfRule type="expression" dxfId="55" priority="57" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50:C51 C55 C53">
-    <cfRule type="expression" dxfId="54" priority="52" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50:C51 C55 C53">
-    <cfRule type="expression" dxfId="53" priority="53" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50 A51:B51 A55:B55 A53:B53">
-    <cfRule type="expression" dxfId="52" priority="55" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50 A51:B51 A55:B55 A53:B53">
-    <cfRule type="expression" dxfId="51" priority="54" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59:B61">
-    <cfRule type="expression" dxfId="50" priority="51" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59:B61">
-    <cfRule type="expression" dxfId="49" priority="50" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59:C61">
-    <cfRule type="expression" dxfId="48" priority="48" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59:C61">
-    <cfRule type="expression" dxfId="47" priority="49" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:B69">
-    <cfRule type="expression" dxfId="46" priority="47" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66:C69">
-    <cfRule type="expression" dxfId="45" priority="44" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66:C69">
-    <cfRule type="expression" dxfId="44" priority="45" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:B69">
-    <cfRule type="expression" dxfId="43" priority="46" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="42" priority="40" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="41" priority="41" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:B54">
-    <cfRule type="expression" dxfId="40" priority="43" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:B54">
-    <cfRule type="expression" dxfId="39" priority="42" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="38" priority="36" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="37" priority="37" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:B58">
-    <cfRule type="expression" dxfId="36" priority="39" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:B58">
-    <cfRule type="expression" dxfId="35" priority="38" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="34" priority="32" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="33" priority="33" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65:B65">
-    <cfRule type="expression" dxfId="32" priority="35" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65:B65">
-    <cfRule type="expression" dxfId="31" priority="34" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="30" priority="28" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="29" priority="29" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="28" priority="31" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="27" priority="30" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:C26">
+    <cfRule type="expression" dxfId="36" priority="41" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64">
+    <cfRule type="expression" dxfId="35" priority="40" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64">
+    <cfRule type="expression" dxfId="34" priority="39" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65">
+    <cfRule type="expression" dxfId="33" priority="34" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65">
+    <cfRule type="expression" dxfId="32" priority="33" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" dxfId="31" priority="32" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66">
+    <cfRule type="expression" dxfId="30" priority="31" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66">
+    <cfRule type="expression" dxfId="29" priority="30" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66">
+    <cfRule type="expression" dxfId="28" priority="29" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66">
+    <cfRule type="expression" dxfId="27" priority="28" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
     <cfRule type="expression" dxfId="26" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:C27">
+  <conditionalFormatting sqref="A67">
     <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29:C29">
+  <conditionalFormatting sqref="A67">
     <cfRule type="expression" dxfId="24" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:C28">
+  <conditionalFormatting sqref="B67">
     <cfRule type="expression" dxfId="23" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30:C30">
+  <conditionalFormatting sqref="B67">
     <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="21" priority="20" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41:C41">
-    <cfRule type="expression" dxfId="20" priority="22" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41:B41">
-    <cfRule type="expression" dxfId="19" priority="21" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="15" priority="14" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:C45">
-    <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:B45">
-    <cfRule type="expression" dxfId="13" priority="15" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50">
+  <conditionalFormatting sqref="C68">
+    <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68">
+    <cfRule type="expression" dxfId="20" priority="21" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68">
+    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68">
+    <cfRule type="expression" dxfId="18" priority="19" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68">
+    <cfRule type="expression" dxfId="17" priority="18" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C69">
+    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69">
+    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69">
     <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B50">
-    <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
+  <conditionalFormatting sqref="C73">
+    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C73">
+    <cfRule type="expression" dxfId="10" priority="12" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73">
     <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="expression" dxfId="8" priority="11" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="expression" dxfId="7" priority="10" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52">
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43:C43">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
+  <conditionalFormatting sqref="B73">
+    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73">
+    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73">
+    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C74">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C74">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A74">
+    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A74">
+    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B74">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
+  <conditionalFormatting sqref="B74">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
